--- a/Specificaties en eisen/Scene Overview.xlsx
+++ b/Specificaties en eisen/Scene Overview.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Make IT Work\Quizmaster\Quizmaster\Specificaties en eisen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1285B33-7896-4A08-9F9C-1DD4C03694C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet 1" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
-  <si>
-    <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
-  </si>
-  <si>
-    <t>Numbers Sheet Name</t>
-  </si>
-  <si>
-    <t>Numbers Table Name</t>
-  </si>
-  <si>
-    <t>Excel Worksheet Name</t>
-  </si>
-  <si>
-    <t>Sheet 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
   <si>
     <t>Table 1</t>
   </si>
@@ -382,11 +375,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -398,18 +388,7 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -424,18 +403,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
@@ -444,6 +411,18 @@
       <patternFill patternType="solid">
         <fgColor indexed="15"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -562,90 +541,167 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="015E88B1"/>
+      <rgbColor rgb="01EEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -771,7 +827,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -780,7 +836,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -789,7 +845,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -853,8 +909,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -862,7 +918,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -870,7 +926,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -889,7 +945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +953,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -925,7 +981,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -951,7 +1007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -977,7 +1033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1003,7 +1059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1029,7 +1085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1055,7 +1111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1081,7 +1137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1107,7 +1163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1133,7 +1189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,9 +1202,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1165,7 +1227,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1184,7 +1246,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1210,7 +1272,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1236,7 +1298,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1262,7 +1324,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1288,7 +1350,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1314,7 +1376,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1340,7 +1402,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1366,7 +1428,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1392,7 +1454,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1418,7 +1480,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1431,9 +1493,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1447,7 +1515,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1466,7 +1534,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1496,7 +1564,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1522,7 +1590,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1548,7 +1616,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1574,7 +1642,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1600,7 +1668,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1626,7 +1694,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1652,7 +1720,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1678,7 +1746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1704,7 +1772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1717,642 +1785,2079 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'Sheet 1'!R2C1" tooltip="" display="Sheet 1"/>
-  </hyperlinks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I21"/>
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.5078" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.6094" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.7266" style="6" customWidth="1"/>
-    <col min="5" max="5" width="32.3828" style="6" customWidth="1"/>
-    <col min="6" max="6" width="25.9688" style="6" customWidth="1"/>
-    <col min="7" max="8" width="15.2188" style="6" customWidth="1"/>
-    <col min="9" max="9" width="32.1641" style="6" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.109375" style="1" customWidth="1"/>
+    <col min="10" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:256" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:256" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s" s="8">
+    <row r="3" spans="1:256" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="8">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s" s="8">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s" s="8">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="9">
+    <row r="4" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:256" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:256" s="16" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="15"/>
+      <c r="BD8" s="15"/>
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="15"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15"/>
+      <c r="BL8" s="15"/>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="15"/>
+      <c r="BO8" s="15"/>
+      <c r="BP8" s="15"/>
+      <c r="BQ8" s="15"/>
+      <c r="BR8" s="15"/>
+      <c r="BS8" s="15"/>
+      <c r="BT8" s="15"/>
+      <c r="BU8" s="15"/>
+      <c r="BV8" s="15"/>
+      <c r="BW8" s="15"/>
+      <c r="BX8" s="15"/>
+      <c r="BY8" s="15"/>
+      <c r="BZ8" s="15"/>
+      <c r="CA8" s="15"/>
+      <c r="CB8" s="15"/>
+      <c r="CC8" s="15"/>
+      <c r="CD8" s="15"/>
+      <c r="CE8" s="15"/>
+      <c r="CF8" s="15"/>
+      <c r="CG8" s="15"/>
+      <c r="CH8" s="15"/>
+      <c r="CI8" s="15"/>
+      <c r="CJ8" s="15"/>
+      <c r="CK8" s="15"/>
+      <c r="CL8" s="15"/>
+      <c r="CM8" s="15"/>
+      <c r="CN8" s="15"/>
+      <c r="CO8" s="15"/>
+      <c r="CP8" s="15"/>
+      <c r="CQ8" s="15"/>
+      <c r="CR8" s="15"/>
+      <c r="CS8" s="15"/>
+      <c r="CT8" s="15"/>
+      <c r="CU8" s="15"/>
+      <c r="CV8" s="15"/>
+      <c r="CW8" s="15"/>
+      <c r="CX8" s="15"/>
+      <c r="CY8" s="15"/>
+      <c r="CZ8" s="15"/>
+      <c r="DA8" s="15"/>
+      <c r="DB8" s="15"/>
+      <c r="DC8" s="15"/>
+      <c r="DD8" s="15"/>
+      <c r="DE8" s="15"/>
+      <c r="DF8" s="15"/>
+      <c r="DG8" s="15"/>
+      <c r="DH8" s="15"/>
+      <c r="DI8" s="15"/>
+      <c r="DJ8" s="15"/>
+      <c r="DK8" s="15"/>
+      <c r="DL8" s="15"/>
+      <c r="DM8" s="15"/>
+      <c r="DN8" s="15"/>
+      <c r="DO8" s="15"/>
+      <c r="DP8" s="15"/>
+      <c r="DQ8" s="15"/>
+      <c r="DR8" s="15"/>
+      <c r="DS8" s="15"/>
+      <c r="DT8" s="15"/>
+      <c r="DU8" s="15"/>
+      <c r="DV8" s="15"/>
+      <c r="DW8" s="15"/>
+      <c r="DX8" s="15"/>
+      <c r="DY8" s="15"/>
+      <c r="DZ8" s="15"/>
+      <c r="EA8" s="15"/>
+      <c r="EB8" s="15"/>
+      <c r="EC8" s="15"/>
+      <c r="ED8" s="15"/>
+      <c r="EE8" s="15"/>
+      <c r="EF8" s="15"/>
+      <c r="EG8" s="15"/>
+      <c r="EH8" s="15"/>
+      <c r="EI8" s="15"/>
+      <c r="EJ8" s="15"/>
+      <c r="EK8" s="15"/>
+      <c r="EL8" s="15"/>
+      <c r="EM8" s="15"/>
+      <c r="EN8" s="15"/>
+      <c r="EO8" s="15"/>
+      <c r="EP8" s="15"/>
+      <c r="EQ8" s="15"/>
+      <c r="ER8" s="15"/>
+      <c r="ES8" s="15"/>
+      <c r="ET8" s="15"/>
+      <c r="EU8" s="15"/>
+      <c r="EV8" s="15"/>
+      <c r="EW8" s="15"/>
+      <c r="EX8" s="15"/>
+      <c r="EY8" s="15"/>
+      <c r="EZ8" s="15"/>
+      <c r="FA8" s="15"/>
+      <c r="FB8" s="15"/>
+      <c r="FC8" s="15"/>
+      <c r="FD8" s="15"/>
+      <c r="FE8" s="15"/>
+      <c r="FF8" s="15"/>
+      <c r="FG8" s="15"/>
+      <c r="FH8" s="15"/>
+      <c r="FI8" s="15"/>
+      <c r="FJ8" s="15"/>
+      <c r="FK8" s="15"/>
+      <c r="FL8" s="15"/>
+      <c r="FM8" s="15"/>
+      <c r="FN8" s="15"/>
+      <c r="FO8" s="15"/>
+      <c r="FP8" s="15"/>
+      <c r="FQ8" s="15"/>
+      <c r="FR8" s="15"/>
+      <c r="FS8" s="15"/>
+      <c r="FT8" s="15"/>
+      <c r="FU8" s="15"/>
+      <c r="FV8" s="15"/>
+      <c r="FW8" s="15"/>
+      <c r="FX8" s="15"/>
+      <c r="FY8" s="15"/>
+      <c r="FZ8" s="15"/>
+      <c r="GA8" s="15"/>
+      <c r="GB8" s="15"/>
+      <c r="GC8" s="15"/>
+      <c r="GD8" s="15"/>
+      <c r="GE8" s="15"/>
+      <c r="GF8" s="15"/>
+      <c r="GG8" s="15"/>
+      <c r="GH8" s="15"/>
+      <c r="GI8" s="15"/>
+      <c r="GJ8" s="15"/>
+      <c r="GK8" s="15"/>
+      <c r="GL8" s="15"/>
+      <c r="GM8" s="15"/>
+      <c r="GN8" s="15"/>
+      <c r="GO8" s="15"/>
+      <c r="GP8" s="15"/>
+      <c r="GQ8" s="15"/>
+      <c r="GR8" s="15"/>
+      <c r="GS8" s="15"/>
+      <c r="GT8" s="15"/>
+      <c r="GU8" s="15"/>
+      <c r="GV8" s="15"/>
+      <c r="GW8" s="15"/>
+      <c r="GX8" s="15"/>
+      <c r="GY8" s="15"/>
+      <c r="GZ8" s="15"/>
+      <c r="HA8" s="15"/>
+      <c r="HB8" s="15"/>
+      <c r="HC8" s="15"/>
+      <c r="HD8" s="15"/>
+      <c r="HE8" s="15"/>
+      <c r="HF8" s="15"/>
+      <c r="HG8" s="15"/>
+      <c r="HH8" s="15"/>
+      <c r="HI8" s="15"/>
+      <c r="HJ8" s="15"/>
+      <c r="HK8" s="15"/>
+      <c r="HL8" s="15"/>
+      <c r="HM8" s="15"/>
+      <c r="HN8" s="15"/>
+      <c r="HO8" s="15"/>
+      <c r="HP8" s="15"/>
+      <c r="HQ8" s="15"/>
+      <c r="HR8" s="15"/>
+      <c r="HS8" s="15"/>
+      <c r="HT8" s="15"/>
+      <c r="HU8" s="15"/>
+      <c r="HV8" s="15"/>
+      <c r="HW8" s="15"/>
+      <c r="HX8" s="15"/>
+      <c r="HY8" s="15"/>
+      <c r="HZ8" s="15"/>
+      <c r="IA8" s="15"/>
+      <c r="IB8" s="15"/>
+      <c r="IC8" s="15"/>
+      <c r="ID8" s="15"/>
+      <c r="IE8" s="15"/>
+      <c r="IF8" s="15"/>
+      <c r="IG8" s="15"/>
+      <c r="IH8" s="15"/>
+      <c r="II8" s="15"/>
+      <c r="IJ8" s="15"/>
+      <c r="IK8" s="15"/>
+      <c r="IL8" s="15"/>
+      <c r="IM8" s="15"/>
+      <c r="IN8" s="15"/>
+      <c r="IO8" s="15"/>
+      <c r="IP8" s="15"/>
+      <c r="IQ8" s="15"/>
+      <c r="IR8" s="15"/>
+      <c r="IS8" s="15"/>
+      <c r="IT8" s="15"/>
+      <c r="IU8" s="15"/>
+      <c r="IV8" s="15"/>
+    </row>
+    <row r="9" spans="1:256" s="16" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="15"/>
+      <c r="BO9" s="15"/>
+      <c r="BP9" s="15"/>
+      <c r="BQ9" s="15"/>
+      <c r="BR9" s="15"/>
+      <c r="BS9" s="15"/>
+      <c r="BT9" s="15"/>
+      <c r="BU9" s="15"/>
+      <c r="BV9" s="15"/>
+      <c r="BW9" s="15"/>
+      <c r="BX9" s="15"/>
+      <c r="BY9" s="15"/>
+      <c r="BZ9" s="15"/>
+      <c r="CA9" s="15"/>
+      <c r="CB9" s="15"/>
+      <c r="CC9" s="15"/>
+      <c r="CD9" s="15"/>
+      <c r="CE9" s="15"/>
+      <c r="CF9" s="15"/>
+      <c r="CG9" s="15"/>
+      <c r="CH9" s="15"/>
+      <c r="CI9" s="15"/>
+      <c r="CJ9" s="15"/>
+      <c r="CK9" s="15"/>
+      <c r="CL9" s="15"/>
+      <c r="CM9" s="15"/>
+      <c r="CN9" s="15"/>
+      <c r="CO9" s="15"/>
+      <c r="CP9" s="15"/>
+      <c r="CQ9" s="15"/>
+      <c r="CR9" s="15"/>
+      <c r="CS9" s="15"/>
+      <c r="CT9" s="15"/>
+      <c r="CU9" s="15"/>
+      <c r="CV9" s="15"/>
+      <c r="CW9" s="15"/>
+      <c r="CX9" s="15"/>
+      <c r="CY9" s="15"/>
+      <c r="CZ9" s="15"/>
+      <c r="DA9" s="15"/>
+      <c r="DB9" s="15"/>
+      <c r="DC9" s="15"/>
+      <c r="DD9" s="15"/>
+      <c r="DE9" s="15"/>
+      <c r="DF9" s="15"/>
+      <c r="DG9" s="15"/>
+      <c r="DH9" s="15"/>
+      <c r="DI9" s="15"/>
+      <c r="DJ9" s="15"/>
+      <c r="DK9" s="15"/>
+      <c r="DL9" s="15"/>
+      <c r="DM9" s="15"/>
+      <c r="DN9" s="15"/>
+      <c r="DO9" s="15"/>
+      <c r="DP9" s="15"/>
+      <c r="DQ9" s="15"/>
+      <c r="DR9" s="15"/>
+      <c r="DS9" s="15"/>
+      <c r="DT9" s="15"/>
+      <c r="DU9" s="15"/>
+      <c r="DV9" s="15"/>
+      <c r="DW9" s="15"/>
+      <c r="DX9" s="15"/>
+      <c r="DY9" s="15"/>
+      <c r="DZ9" s="15"/>
+      <c r="EA9" s="15"/>
+      <c r="EB9" s="15"/>
+      <c r="EC9" s="15"/>
+      <c r="ED9" s="15"/>
+      <c r="EE9" s="15"/>
+      <c r="EF9" s="15"/>
+      <c r="EG9" s="15"/>
+      <c r="EH9" s="15"/>
+      <c r="EI9" s="15"/>
+      <c r="EJ9" s="15"/>
+      <c r="EK9" s="15"/>
+      <c r="EL9" s="15"/>
+      <c r="EM9" s="15"/>
+      <c r="EN9" s="15"/>
+      <c r="EO9" s="15"/>
+      <c r="EP9" s="15"/>
+      <c r="EQ9" s="15"/>
+      <c r="ER9" s="15"/>
+      <c r="ES9" s="15"/>
+      <c r="ET9" s="15"/>
+      <c r="EU9" s="15"/>
+      <c r="EV9" s="15"/>
+      <c r="EW9" s="15"/>
+      <c r="EX9" s="15"/>
+      <c r="EY9" s="15"/>
+      <c r="EZ9" s="15"/>
+      <c r="FA9" s="15"/>
+      <c r="FB9" s="15"/>
+      <c r="FC9" s="15"/>
+      <c r="FD9" s="15"/>
+      <c r="FE9" s="15"/>
+      <c r="FF9" s="15"/>
+      <c r="FG9" s="15"/>
+      <c r="FH9" s="15"/>
+      <c r="FI9" s="15"/>
+      <c r="FJ9" s="15"/>
+      <c r="FK9" s="15"/>
+      <c r="FL9" s="15"/>
+      <c r="FM9" s="15"/>
+      <c r="FN9" s="15"/>
+      <c r="FO9" s="15"/>
+      <c r="FP9" s="15"/>
+      <c r="FQ9" s="15"/>
+      <c r="FR9" s="15"/>
+      <c r="FS9" s="15"/>
+      <c r="FT9" s="15"/>
+      <c r="FU9" s="15"/>
+      <c r="FV9" s="15"/>
+      <c r="FW9" s="15"/>
+      <c r="FX9" s="15"/>
+      <c r="FY9" s="15"/>
+      <c r="FZ9" s="15"/>
+      <c r="GA9" s="15"/>
+      <c r="GB9" s="15"/>
+      <c r="GC9" s="15"/>
+      <c r="GD9" s="15"/>
+      <c r="GE9" s="15"/>
+      <c r="GF9" s="15"/>
+      <c r="GG9" s="15"/>
+      <c r="GH9" s="15"/>
+      <c r="GI9" s="15"/>
+      <c r="GJ9" s="15"/>
+      <c r="GK9" s="15"/>
+      <c r="GL9" s="15"/>
+      <c r="GM9" s="15"/>
+      <c r="GN9" s="15"/>
+      <c r="GO9" s="15"/>
+      <c r="GP9" s="15"/>
+      <c r="GQ9" s="15"/>
+      <c r="GR9" s="15"/>
+      <c r="GS9" s="15"/>
+      <c r="GT9" s="15"/>
+      <c r="GU9" s="15"/>
+      <c r="GV9" s="15"/>
+      <c r="GW9" s="15"/>
+      <c r="GX9" s="15"/>
+      <c r="GY9" s="15"/>
+      <c r="GZ9" s="15"/>
+      <c r="HA9" s="15"/>
+      <c r="HB9" s="15"/>
+      <c r="HC9" s="15"/>
+      <c r="HD9" s="15"/>
+      <c r="HE9" s="15"/>
+      <c r="HF9" s="15"/>
+      <c r="HG9" s="15"/>
+      <c r="HH9" s="15"/>
+      <c r="HI9" s="15"/>
+      <c r="HJ9" s="15"/>
+      <c r="HK9" s="15"/>
+      <c r="HL9" s="15"/>
+      <c r="HM9" s="15"/>
+      <c r="HN9" s="15"/>
+      <c r="HO9" s="15"/>
+      <c r="HP9" s="15"/>
+      <c r="HQ9" s="15"/>
+      <c r="HR9" s="15"/>
+      <c r="HS9" s="15"/>
+      <c r="HT9" s="15"/>
+      <c r="HU9" s="15"/>
+      <c r="HV9" s="15"/>
+      <c r="HW9" s="15"/>
+      <c r="HX9" s="15"/>
+      <c r="HY9" s="15"/>
+      <c r="HZ9" s="15"/>
+      <c r="IA9" s="15"/>
+      <c r="IB9" s="15"/>
+      <c r="IC9" s="15"/>
+      <c r="ID9" s="15"/>
+      <c r="IE9" s="15"/>
+      <c r="IF9" s="15"/>
+      <c r="IG9" s="15"/>
+      <c r="IH9" s="15"/>
+      <c r="II9" s="15"/>
+      <c r="IJ9" s="15"/>
+      <c r="IK9" s="15"/>
+      <c r="IL9" s="15"/>
+      <c r="IM9" s="15"/>
+      <c r="IN9" s="15"/>
+      <c r="IO9" s="15"/>
+      <c r="IP9" s="15"/>
+      <c r="IQ9" s="15"/>
+      <c r="IR9" s="15"/>
+      <c r="IS9" s="15"/>
+      <c r="IT9" s="15"/>
+      <c r="IU9" s="15"/>
+      <c r="IV9" s="15"/>
+    </row>
+    <row r="10" spans="1:256" s="16" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s" s="10">
+      <c r="B10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s" s="11">
+      <c r="H10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s" s="11">
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="15"/>
+      <c r="BO10" s="15"/>
+      <c r="BP10" s="15"/>
+      <c r="BQ10" s="15"/>
+      <c r="BR10" s="15"/>
+      <c r="BS10" s="15"/>
+      <c r="BT10" s="15"/>
+      <c r="BU10" s="15"/>
+      <c r="BV10" s="15"/>
+      <c r="BW10" s="15"/>
+      <c r="BX10" s="15"/>
+      <c r="BY10" s="15"/>
+      <c r="BZ10" s="15"/>
+      <c r="CA10" s="15"/>
+      <c r="CB10" s="15"/>
+      <c r="CC10" s="15"/>
+      <c r="CD10" s="15"/>
+      <c r="CE10" s="15"/>
+      <c r="CF10" s="15"/>
+      <c r="CG10" s="15"/>
+      <c r="CH10" s="15"/>
+      <c r="CI10" s="15"/>
+      <c r="CJ10" s="15"/>
+      <c r="CK10" s="15"/>
+      <c r="CL10" s="15"/>
+      <c r="CM10" s="15"/>
+      <c r="CN10" s="15"/>
+      <c r="CO10" s="15"/>
+      <c r="CP10" s="15"/>
+      <c r="CQ10" s="15"/>
+      <c r="CR10" s="15"/>
+      <c r="CS10" s="15"/>
+      <c r="CT10" s="15"/>
+      <c r="CU10" s="15"/>
+      <c r="CV10" s="15"/>
+      <c r="CW10" s="15"/>
+      <c r="CX10" s="15"/>
+      <c r="CY10" s="15"/>
+      <c r="CZ10" s="15"/>
+      <c r="DA10" s="15"/>
+      <c r="DB10" s="15"/>
+      <c r="DC10" s="15"/>
+      <c r="DD10" s="15"/>
+      <c r="DE10" s="15"/>
+      <c r="DF10" s="15"/>
+      <c r="DG10" s="15"/>
+      <c r="DH10" s="15"/>
+      <c r="DI10" s="15"/>
+      <c r="DJ10" s="15"/>
+      <c r="DK10" s="15"/>
+      <c r="DL10" s="15"/>
+      <c r="DM10" s="15"/>
+      <c r="DN10" s="15"/>
+      <c r="DO10" s="15"/>
+      <c r="DP10" s="15"/>
+      <c r="DQ10" s="15"/>
+      <c r="DR10" s="15"/>
+      <c r="DS10" s="15"/>
+      <c r="DT10" s="15"/>
+      <c r="DU10" s="15"/>
+      <c r="DV10" s="15"/>
+      <c r="DW10" s="15"/>
+      <c r="DX10" s="15"/>
+      <c r="DY10" s="15"/>
+      <c r="DZ10" s="15"/>
+      <c r="EA10" s="15"/>
+      <c r="EB10" s="15"/>
+      <c r="EC10" s="15"/>
+      <c r="ED10" s="15"/>
+      <c r="EE10" s="15"/>
+      <c r="EF10" s="15"/>
+      <c r="EG10" s="15"/>
+      <c r="EH10" s="15"/>
+      <c r="EI10" s="15"/>
+      <c r="EJ10" s="15"/>
+      <c r="EK10" s="15"/>
+      <c r="EL10" s="15"/>
+      <c r="EM10" s="15"/>
+      <c r="EN10" s="15"/>
+      <c r="EO10" s="15"/>
+      <c r="EP10" s="15"/>
+      <c r="EQ10" s="15"/>
+      <c r="ER10" s="15"/>
+      <c r="ES10" s="15"/>
+      <c r="ET10" s="15"/>
+      <c r="EU10" s="15"/>
+      <c r="EV10" s="15"/>
+      <c r="EW10" s="15"/>
+      <c r="EX10" s="15"/>
+      <c r="EY10" s="15"/>
+      <c r="EZ10" s="15"/>
+      <c r="FA10" s="15"/>
+      <c r="FB10" s="15"/>
+      <c r="FC10" s="15"/>
+      <c r="FD10" s="15"/>
+      <c r="FE10" s="15"/>
+      <c r="FF10" s="15"/>
+      <c r="FG10" s="15"/>
+      <c r="FH10" s="15"/>
+      <c r="FI10" s="15"/>
+      <c r="FJ10" s="15"/>
+      <c r="FK10" s="15"/>
+      <c r="FL10" s="15"/>
+      <c r="FM10" s="15"/>
+      <c r="FN10" s="15"/>
+      <c r="FO10" s="15"/>
+      <c r="FP10" s="15"/>
+      <c r="FQ10" s="15"/>
+      <c r="FR10" s="15"/>
+      <c r="FS10" s="15"/>
+      <c r="FT10" s="15"/>
+      <c r="FU10" s="15"/>
+      <c r="FV10" s="15"/>
+      <c r="FW10" s="15"/>
+      <c r="FX10" s="15"/>
+      <c r="FY10" s="15"/>
+      <c r="FZ10" s="15"/>
+      <c r="GA10" s="15"/>
+      <c r="GB10" s="15"/>
+      <c r="GC10" s="15"/>
+      <c r="GD10" s="15"/>
+      <c r="GE10" s="15"/>
+      <c r="GF10" s="15"/>
+      <c r="GG10" s="15"/>
+      <c r="GH10" s="15"/>
+      <c r="GI10" s="15"/>
+      <c r="GJ10" s="15"/>
+      <c r="GK10" s="15"/>
+      <c r="GL10" s="15"/>
+      <c r="GM10" s="15"/>
+      <c r="GN10" s="15"/>
+      <c r="GO10" s="15"/>
+      <c r="GP10" s="15"/>
+      <c r="GQ10" s="15"/>
+      <c r="GR10" s="15"/>
+      <c r="GS10" s="15"/>
+      <c r="GT10" s="15"/>
+      <c r="GU10" s="15"/>
+      <c r="GV10" s="15"/>
+      <c r="GW10" s="15"/>
+      <c r="GX10" s="15"/>
+      <c r="GY10" s="15"/>
+      <c r="GZ10" s="15"/>
+      <c r="HA10" s="15"/>
+      <c r="HB10" s="15"/>
+      <c r="HC10" s="15"/>
+      <c r="HD10" s="15"/>
+      <c r="HE10" s="15"/>
+      <c r="HF10" s="15"/>
+      <c r="HG10" s="15"/>
+      <c r="HH10" s="15"/>
+      <c r="HI10" s="15"/>
+      <c r="HJ10" s="15"/>
+      <c r="HK10" s="15"/>
+      <c r="HL10" s="15"/>
+      <c r="HM10" s="15"/>
+      <c r="HN10" s="15"/>
+      <c r="HO10" s="15"/>
+      <c r="HP10" s="15"/>
+      <c r="HQ10" s="15"/>
+      <c r="HR10" s="15"/>
+      <c r="HS10" s="15"/>
+      <c r="HT10" s="15"/>
+      <c r="HU10" s="15"/>
+      <c r="HV10" s="15"/>
+      <c r="HW10" s="15"/>
+      <c r="HX10" s="15"/>
+      <c r="HY10" s="15"/>
+      <c r="HZ10" s="15"/>
+      <c r="IA10" s="15"/>
+      <c r="IB10" s="15"/>
+      <c r="IC10" s="15"/>
+      <c r="ID10" s="15"/>
+      <c r="IE10" s="15"/>
+      <c r="IF10" s="15"/>
+      <c r="IG10" s="15"/>
+      <c r="IH10" s="15"/>
+      <c r="II10" s="15"/>
+      <c r="IJ10" s="15"/>
+      <c r="IK10" s="15"/>
+      <c r="IL10" s="15"/>
+      <c r="IM10" s="15"/>
+      <c r="IN10" s="15"/>
+      <c r="IO10" s="15"/>
+      <c r="IP10" s="15"/>
+      <c r="IQ10" s="15"/>
+      <c r="IR10" s="15"/>
+      <c r="IS10" s="15"/>
+      <c r="IT10" s="15"/>
+      <c r="IU10" s="15"/>
+      <c r="IV10" s="15"/>
+    </row>
+    <row r="11" spans="1:256" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s" s="11">
-        <v>23</v>
-      </c>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s" s="13">
+    <row r="13" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s" s="14">
+      <c r="I13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s" s="14">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s" s="14">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s" s="14">
-        <v>31</v>
-      </c>
     </row>
-    <row r="5" ht="32.35" customHeight="1">
-      <c r="A5" t="s" s="12">
+    <row r="14" spans="1:256" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:256" s="16" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s" s="13">
+      <c r="G16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s" s="14">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s" s="14">
+      <c r="H16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s" s="14">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s" s="14">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s" s="14">
-        <v>40</v>
-      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="15"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="15"/>
+      <c r="AZ16" s="15"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="15"/>
+      <c r="BC16" s="15"/>
+      <c r="BD16" s="15"/>
+      <c r="BE16" s="15"/>
+      <c r="BF16" s="15"/>
+      <c r="BG16" s="15"/>
+      <c r="BH16" s="15"/>
+      <c r="BI16" s="15"/>
+      <c r="BJ16" s="15"/>
+      <c r="BK16" s="15"/>
+      <c r="BL16" s="15"/>
+      <c r="BM16" s="15"/>
+      <c r="BN16" s="15"/>
+      <c r="BO16" s="15"/>
+      <c r="BP16" s="15"/>
+      <c r="BQ16" s="15"/>
+      <c r="BR16" s="15"/>
+      <c r="BS16" s="15"/>
+      <c r="BT16" s="15"/>
+      <c r="BU16" s="15"/>
+      <c r="BV16" s="15"/>
+      <c r="BW16" s="15"/>
+      <c r="BX16" s="15"/>
+      <c r="BY16" s="15"/>
+      <c r="BZ16" s="15"/>
+      <c r="CA16" s="15"/>
+      <c r="CB16" s="15"/>
+      <c r="CC16" s="15"/>
+      <c r="CD16" s="15"/>
+      <c r="CE16" s="15"/>
+      <c r="CF16" s="15"/>
+      <c r="CG16" s="15"/>
+      <c r="CH16" s="15"/>
+      <c r="CI16" s="15"/>
+      <c r="CJ16" s="15"/>
+      <c r="CK16" s="15"/>
+      <c r="CL16" s="15"/>
+      <c r="CM16" s="15"/>
+      <c r="CN16" s="15"/>
+      <c r="CO16" s="15"/>
+      <c r="CP16" s="15"/>
+      <c r="CQ16" s="15"/>
+      <c r="CR16" s="15"/>
+      <c r="CS16" s="15"/>
+      <c r="CT16" s="15"/>
+      <c r="CU16" s="15"/>
+      <c r="CV16" s="15"/>
+      <c r="CW16" s="15"/>
+      <c r="CX16" s="15"/>
+      <c r="CY16" s="15"/>
+      <c r="CZ16" s="15"/>
+      <c r="DA16" s="15"/>
+      <c r="DB16" s="15"/>
+      <c r="DC16" s="15"/>
+      <c r="DD16" s="15"/>
+      <c r="DE16" s="15"/>
+      <c r="DF16" s="15"/>
+      <c r="DG16" s="15"/>
+      <c r="DH16" s="15"/>
+      <c r="DI16" s="15"/>
+      <c r="DJ16" s="15"/>
+      <c r="DK16" s="15"/>
+      <c r="DL16" s="15"/>
+      <c r="DM16" s="15"/>
+      <c r="DN16" s="15"/>
+      <c r="DO16" s="15"/>
+      <c r="DP16" s="15"/>
+      <c r="DQ16" s="15"/>
+      <c r="DR16" s="15"/>
+      <c r="DS16" s="15"/>
+      <c r="DT16" s="15"/>
+      <c r="DU16" s="15"/>
+      <c r="DV16" s="15"/>
+      <c r="DW16" s="15"/>
+      <c r="DX16" s="15"/>
+      <c r="DY16" s="15"/>
+      <c r="DZ16" s="15"/>
+      <c r="EA16" s="15"/>
+      <c r="EB16" s="15"/>
+      <c r="EC16" s="15"/>
+      <c r="ED16" s="15"/>
+      <c r="EE16" s="15"/>
+      <c r="EF16" s="15"/>
+      <c r="EG16" s="15"/>
+      <c r="EH16" s="15"/>
+      <c r="EI16" s="15"/>
+      <c r="EJ16" s="15"/>
+      <c r="EK16" s="15"/>
+      <c r="EL16" s="15"/>
+      <c r="EM16" s="15"/>
+      <c r="EN16" s="15"/>
+      <c r="EO16" s="15"/>
+      <c r="EP16" s="15"/>
+      <c r="EQ16" s="15"/>
+      <c r="ER16" s="15"/>
+      <c r="ES16" s="15"/>
+      <c r="ET16" s="15"/>
+      <c r="EU16" s="15"/>
+      <c r="EV16" s="15"/>
+      <c r="EW16" s="15"/>
+      <c r="EX16" s="15"/>
+      <c r="EY16" s="15"/>
+      <c r="EZ16" s="15"/>
+      <c r="FA16" s="15"/>
+      <c r="FB16" s="15"/>
+      <c r="FC16" s="15"/>
+      <c r="FD16" s="15"/>
+      <c r="FE16" s="15"/>
+      <c r="FF16" s="15"/>
+      <c r="FG16" s="15"/>
+      <c r="FH16" s="15"/>
+      <c r="FI16" s="15"/>
+      <c r="FJ16" s="15"/>
+      <c r="FK16" s="15"/>
+      <c r="FL16" s="15"/>
+      <c r="FM16" s="15"/>
+      <c r="FN16" s="15"/>
+      <c r="FO16" s="15"/>
+      <c r="FP16" s="15"/>
+      <c r="FQ16" s="15"/>
+      <c r="FR16" s="15"/>
+      <c r="FS16" s="15"/>
+      <c r="FT16" s="15"/>
+      <c r="FU16" s="15"/>
+      <c r="FV16" s="15"/>
+      <c r="FW16" s="15"/>
+      <c r="FX16" s="15"/>
+      <c r="FY16" s="15"/>
+      <c r="FZ16" s="15"/>
+      <c r="GA16" s="15"/>
+      <c r="GB16" s="15"/>
+      <c r="GC16" s="15"/>
+      <c r="GD16" s="15"/>
+      <c r="GE16" s="15"/>
+      <c r="GF16" s="15"/>
+      <c r="GG16" s="15"/>
+      <c r="GH16" s="15"/>
+      <c r="GI16" s="15"/>
+      <c r="GJ16" s="15"/>
+      <c r="GK16" s="15"/>
+      <c r="GL16" s="15"/>
+      <c r="GM16" s="15"/>
+      <c r="GN16" s="15"/>
+      <c r="GO16" s="15"/>
+      <c r="GP16" s="15"/>
+      <c r="GQ16" s="15"/>
+      <c r="GR16" s="15"/>
+      <c r="GS16" s="15"/>
+      <c r="GT16" s="15"/>
+      <c r="GU16" s="15"/>
+      <c r="GV16" s="15"/>
+      <c r="GW16" s="15"/>
+      <c r="GX16" s="15"/>
+      <c r="GY16" s="15"/>
+      <c r="GZ16" s="15"/>
+      <c r="HA16" s="15"/>
+      <c r="HB16" s="15"/>
+      <c r="HC16" s="15"/>
+      <c r="HD16" s="15"/>
+      <c r="HE16" s="15"/>
+      <c r="HF16" s="15"/>
+      <c r="HG16" s="15"/>
+      <c r="HH16" s="15"/>
+      <c r="HI16" s="15"/>
+      <c r="HJ16" s="15"/>
+      <c r="HK16" s="15"/>
+      <c r="HL16" s="15"/>
+      <c r="HM16" s="15"/>
+      <c r="HN16" s="15"/>
+      <c r="HO16" s="15"/>
+      <c r="HP16" s="15"/>
+      <c r="HQ16" s="15"/>
+      <c r="HR16" s="15"/>
+      <c r="HS16" s="15"/>
+      <c r="HT16" s="15"/>
+      <c r="HU16" s="15"/>
+      <c r="HV16" s="15"/>
+      <c r="HW16" s="15"/>
+      <c r="HX16" s="15"/>
+      <c r="HY16" s="15"/>
+      <c r="HZ16" s="15"/>
+      <c r="IA16" s="15"/>
+      <c r="IB16" s="15"/>
+      <c r="IC16" s="15"/>
+      <c r="ID16" s="15"/>
+      <c r="IE16" s="15"/>
+      <c r="IF16" s="15"/>
+      <c r="IG16" s="15"/>
+      <c r="IH16" s="15"/>
+      <c r="II16" s="15"/>
+      <c r="IJ16" s="15"/>
+      <c r="IK16" s="15"/>
+      <c r="IL16" s="15"/>
+      <c r="IM16" s="15"/>
+      <c r="IN16" s="15"/>
+      <c r="IO16" s="15"/>
+      <c r="IP16" s="15"/>
+      <c r="IQ16" s="15"/>
+      <c r="IR16" s="15"/>
+      <c r="IS16" s="15"/>
+      <c r="IT16" s="15"/>
+      <c r="IU16" s="15"/>
+      <c r="IV16" s="15"/>
     </row>
-    <row r="6" ht="32.35" customHeight="1">
-      <c r="A6" t="s" s="12">
+    <row r="17" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s" s="13">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s" s="14">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s" s="14">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s" s="14">
-        <v>45</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" t="s" s="14">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s" s="14">
-        <v>47</v>
-      </c>
-      <c r="I6" s="15"/>
+      <c r="H17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="9"/>
     </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="12">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s" s="13">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s" s="14">
-        <v>50</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" t="s" s="14">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s" s="14">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s" s="14">
-        <v>52</v>
-      </c>
-      <c r="I7" s="15"/>
+    <row r="18" spans="1:256" s="21" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="20"/>
+      <c r="AU18" s="20"/>
+      <c r="AV18" s="20"/>
+      <c r="AW18" s="20"/>
+      <c r="AX18" s="20"/>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="20"/>
+      <c r="BA18" s="20"/>
+      <c r="BB18" s="20"/>
+      <c r="BC18" s="20"/>
+      <c r="BD18" s="20"/>
+      <c r="BE18" s="20"/>
+      <c r="BF18" s="20"/>
+      <c r="BG18" s="20"/>
+      <c r="BH18" s="20"/>
+      <c r="BI18" s="20"/>
+      <c r="BJ18" s="20"/>
+      <c r="BK18" s="20"/>
+      <c r="BL18" s="20"/>
+      <c r="BM18" s="20"/>
+      <c r="BN18" s="20"/>
+      <c r="BO18" s="20"/>
+      <c r="BP18" s="20"/>
+      <c r="BQ18" s="20"/>
+      <c r="BR18" s="20"/>
+      <c r="BS18" s="20"/>
+      <c r="BT18" s="20"/>
+      <c r="BU18" s="20"/>
+      <c r="BV18" s="20"/>
+      <c r="BW18" s="20"/>
+      <c r="BX18" s="20"/>
+      <c r="BY18" s="20"/>
+      <c r="BZ18" s="20"/>
+      <c r="CA18" s="20"/>
+      <c r="CB18" s="20"/>
+      <c r="CC18" s="20"/>
+      <c r="CD18" s="20"/>
+      <c r="CE18" s="20"/>
+      <c r="CF18" s="20"/>
+      <c r="CG18" s="20"/>
+      <c r="CH18" s="20"/>
+      <c r="CI18" s="20"/>
+      <c r="CJ18" s="20"/>
+      <c r="CK18" s="20"/>
+      <c r="CL18" s="20"/>
+      <c r="CM18" s="20"/>
+      <c r="CN18" s="20"/>
+      <c r="CO18" s="20"/>
+      <c r="CP18" s="20"/>
+      <c r="CQ18" s="20"/>
+      <c r="CR18" s="20"/>
+      <c r="CS18" s="20"/>
+      <c r="CT18" s="20"/>
+      <c r="CU18" s="20"/>
+      <c r="CV18" s="20"/>
+      <c r="CW18" s="20"/>
+      <c r="CX18" s="20"/>
+      <c r="CY18" s="20"/>
+      <c r="CZ18" s="20"/>
+      <c r="DA18" s="20"/>
+      <c r="DB18" s="20"/>
+      <c r="DC18" s="20"/>
+      <c r="DD18" s="20"/>
+      <c r="DE18" s="20"/>
+      <c r="DF18" s="20"/>
+      <c r="DG18" s="20"/>
+      <c r="DH18" s="20"/>
+      <c r="DI18" s="20"/>
+      <c r="DJ18" s="20"/>
+      <c r="DK18" s="20"/>
+      <c r="DL18" s="20"/>
+      <c r="DM18" s="20"/>
+      <c r="DN18" s="20"/>
+      <c r="DO18" s="20"/>
+      <c r="DP18" s="20"/>
+      <c r="DQ18" s="20"/>
+      <c r="DR18" s="20"/>
+      <c r="DS18" s="20"/>
+      <c r="DT18" s="20"/>
+      <c r="DU18" s="20"/>
+      <c r="DV18" s="20"/>
+      <c r="DW18" s="20"/>
+      <c r="DX18" s="20"/>
+      <c r="DY18" s="20"/>
+      <c r="DZ18" s="20"/>
+      <c r="EA18" s="20"/>
+      <c r="EB18" s="20"/>
+      <c r="EC18" s="20"/>
+      <c r="ED18" s="20"/>
+      <c r="EE18" s="20"/>
+      <c r="EF18" s="20"/>
+      <c r="EG18" s="20"/>
+      <c r="EH18" s="20"/>
+      <c r="EI18" s="20"/>
+      <c r="EJ18" s="20"/>
+      <c r="EK18" s="20"/>
+      <c r="EL18" s="20"/>
+      <c r="EM18" s="20"/>
+      <c r="EN18" s="20"/>
+      <c r="EO18" s="20"/>
+      <c r="EP18" s="20"/>
+      <c r="EQ18" s="20"/>
+      <c r="ER18" s="20"/>
+      <c r="ES18" s="20"/>
+      <c r="ET18" s="20"/>
+      <c r="EU18" s="20"/>
+      <c r="EV18" s="20"/>
+      <c r="EW18" s="20"/>
+      <c r="EX18" s="20"/>
+      <c r="EY18" s="20"/>
+      <c r="EZ18" s="20"/>
+      <c r="FA18" s="20"/>
+      <c r="FB18" s="20"/>
+      <c r="FC18" s="20"/>
+      <c r="FD18" s="20"/>
+      <c r="FE18" s="20"/>
+      <c r="FF18" s="20"/>
+      <c r="FG18" s="20"/>
+      <c r="FH18" s="20"/>
+      <c r="FI18" s="20"/>
+      <c r="FJ18" s="20"/>
+      <c r="FK18" s="20"/>
+      <c r="FL18" s="20"/>
+      <c r="FM18" s="20"/>
+      <c r="FN18" s="20"/>
+      <c r="FO18" s="20"/>
+      <c r="FP18" s="20"/>
+      <c r="FQ18" s="20"/>
+      <c r="FR18" s="20"/>
+      <c r="FS18" s="20"/>
+      <c r="FT18" s="20"/>
+      <c r="FU18" s="20"/>
+      <c r="FV18" s="20"/>
+      <c r="FW18" s="20"/>
+      <c r="FX18" s="20"/>
+      <c r="FY18" s="20"/>
+      <c r="FZ18" s="20"/>
+      <c r="GA18" s="20"/>
+      <c r="GB18" s="20"/>
+      <c r="GC18" s="20"/>
+      <c r="GD18" s="20"/>
+      <c r="GE18" s="20"/>
+      <c r="GF18" s="20"/>
+      <c r="GG18" s="20"/>
+      <c r="GH18" s="20"/>
+      <c r="GI18" s="20"/>
+      <c r="GJ18" s="20"/>
+      <c r="GK18" s="20"/>
+      <c r="GL18" s="20"/>
+      <c r="GM18" s="20"/>
+      <c r="GN18" s="20"/>
+      <c r="GO18" s="20"/>
+      <c r="GP18" s="20"/>
+      <c r="GQ18" s="20"/>
+      <c r="GR18" s="20"/>
+      <c r="GS18" s="20"/>
+      <c r="GT18" s="20"/>
+      <c r="GU18" s="20"/>
+      <c r="GV18" s="20"/>
+      <c r="GW18" s="20"/>
+      <c r="GX18" s="20"/>
+      <c r="GY18" s="20"/>
+      <c r="GZ18" s="20"/>
+      <c r="HA18" s="20"/>
+      <c r="HB18" s="20"/>
+      <c r="HC18" s="20"/>
+      <c r="HD18" s="20"/>
+      <c r="HE18" s="20"/>
+      <c r="HF18" s="20"/>
+      <c r="HG18" s="20"/>
+      <c r="HH18" s="20"/>
+      <c r="HI18" s="20"/>
+      <c r="HJ18" s="20"/>
+      <c r="HK18" s="20"/>
+      <c r="HL18" s="20"/>
+      <c r="HM18" s="20"/>
+      <c r="HN18" s="20"/>
+      <c r="HO18" s="20"/>
+      <c r="HP18" s="20"/>
+      <c r="HQ18" s="20"/>
+      <c r="HR18" s="20"/>
+      <c r="HS18" s="20"/>
+      <c r="HT18" s="20"/>
+      <c r="HU18" s="20"/>
+      <c r="HV18" s="20"/>
+      <c r="HW18" s="20"/>
+      <c r="HX18" s="20"/>
+      <c r="HY18" s="20"/>
+      <c r="HZ18" s="20"/>
+      <c r="IA18" s="20"/>
+      <c r="IB18" s="20"/>
+      <c r="IC18" s="20"/>
+      <c r="ID18" s="20"/>
+      <c r="IE18" s="20"/>
+      <c r="IF18" s="20"/>
+      <c r="IG18" s="20"/>
+      <c r="IH18" s="20"/>
+      <c r="II18" s="20"/>
+      <c r="IJ18" s="20"/>
+      <c r="IK18" s="20"/>
+      <c r="IL18" s="20"/>
+      <c r="IM18" s="20"/>
+      <c r="IN18" s="20"/>
+      <c r="IO18" s="20"/>
+      <c r="IP18" s="20"/>
+      <c r="IQ18" s="20"/>
+      <c r="IR18" s="20"/>
+      <c r="IS18" s="20"/>
+      <c r="IT18" s="20"/>
+      <c r="IU18" s="20"/>
+      <c r="IV18" s="20"/>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="12">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s" s="13">
+    <row r="19" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:256" s="21" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s" s="14">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s" s="14">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s" s="14">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s" s="14">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s" s="14">
-        <v>60</v>
-      </c>
-      <c r="I8" s="15"/>
+      <c r="H20" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
+      <c r="AU20" s="20"/>
+      <c r="AV20" s="20"/>
+      <c r="AW20" s="20"/>
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="20"/>
+      <c r="AZ20" s="20"/>
+      <c r="BA20" s="20"/>
+      <c r="BB20" s="20"/>
+      <c r="BC20" s="20"/>
+      <c r="BD20" s="20"/>
+      <c r="BE20" s="20"/>
+      <c r="BF20" s="20"/>
+      <c r="BG20" s="20"/>
+      <c r="BH20" s="20"/>
+      <c r="BI20" s="20"/>
+      <c r="BJ20" s="20"/>
+      <c r="BK20" s="20"/>
+      <c r="BL20" s="20"/>
+      <c r="BM20" s="20"/>
+      <c r="BN20" s="20"/>
+      <c r="BO20" s="20"/>
+      <c r="BP20" s="20"/>
+      <c r="BQ20" s="20"/>
+      <c r="BR20" s="20"/>
+      <c r="BS20" s="20"/>
+      <c r="BT20" s="20"/>
+      <c r="BU20" s="20"/>
+      <c r="BV20" s="20"/>
+      <c r="BW20" s="20"/>
+      <c r="BX20" s="20"/>
+      <c r="BY20" s="20"/>
+      <c r="BZ20" s="20"/>
+      <c r="CA20" s="20"/>
+      <c r="CB20" s="20"/>
+      <c r="CC20" s="20"/>
+      <c r="CD20" s="20"/>
+      <c r="CE20" s="20"/>
+      <c r="CF20" s="20"/>
+      <c r="CG20" s="20"/>
+      <c r="CH20" s="20"/>
+      <c r="CI20" s="20"/>
+      <c r="CJ20" s="20"/>
+      <c r="CK20" s="20"/>
+      <c r="CL20" s="20"/>
+      <c r="CM20" s="20"/>
+      <c r="CN20" s="20"/>
+      <c r="CO20" s="20"/>
+      <c r="CP20" s="20"/>
+      <c r="CQ20" s="20"/>
+      <c r="CR20" s="20"/>
+      <c r="CS20" s="20"/>
+      <c r="CT20" s="20"/>
+      <c r="CU20" s="20"/>
+      <c r="CV20" s="20"/>
+      <c r="CW20" s="20"/>
+      <c r="CX20" s="20"/>
+      <c r="CY20" s="20"/>
+      <c r="CZ20" s="20"/>
+      <c r="DA20" s="20"/>
+      <c r="DB20" s="20"/>
+      <c r="DC20" s="20"/>
+      <c r="DD20" s="20"/>
+      <c r="DE20" s="20"/>
+      <c r="DF20" s="20"/>
+      <c r="DG20" s="20"/>
+      <c r="DH20" s="20"/>
+      <c r="DI20" s="20"/>
+      <c r="DJ20" s="20"/>
+      <c r="DK20" s="20"/>
+      <c r="DL20" s="20"/>
+      <c r="DM20" s="20"/>
+      <c r="DN20" s="20"/>
+      <c r="DO20" s="20"/>
+      <c r="DP20" s="20"/>
+      <c r="DQ20" s="20"/>
+      <c r="DR20" s="20"/>
+      <c r="DS20" s="20"/>
+      <c r="DT20" s="20"/>
+      <c r="DU20" s="20"/>
+      <c r="DV20" s="20"/>
+      <c r="DW20" s="20"/>
+      <c r="DX20" s="20"/>
+      <c r="DY20" s="20"/>
+      <c r="DZ20" s="20"/>
+      <c r="EA20" s="20"/>
+      <c r="EB20" s="20"/>
+      <c r="EC20" s="20"/>
+      <c r="ED20" s="20"/>
+      <c r="EE20" s="20"/>
+      <c r="EF20" s="20"/>
+      <c r="EG20" s="20"/>
+      <c r="EH20" s="20"/>
+      <c r="EI20" s="20"/>
+      <c r="EJ20" s="20"/>
+      <c r="EK20" s="20"/>
+      <c r="EL20" s="20"/>
+      <c r="EM20" s="20"/>
+      <c r="EN20" s="20"/>
+      <c r="EO20" s="20"/>
+      <c r="EP20" s="20"/>
+      <c r="EQ20" s="20"/>
+      <c r="ER20" s="20"/>
+      <c r="ES20" s="20"/>
+      <c r="ET20" s="20"/>
+      <c r="EU20" s="20"/>
+      <c r="EV20" s="20"/>
+      <c r="EW20" s="20"/>
+      <c r="EX20" s="20"/>
+      <c r="EY20" s="20"/>
+      <c r="EZ20" s="20"/>
+      <c r="FA20" s="20"/>
+      <c r="FB20" s="20"/>
+      <c r="FC20" s="20"/>
+      <c r="FD20" s="20"/>
+      <c r="FE20" s="20"/>
+      <c r="FF20" s="20"/>
+      <c r="FG20" s="20"/>
+      <c r="FH20" s="20"/>
+      <c r="FI20" s="20"/>
+      <c r="FJ20" s="20"/>
+      <c r="FK20" s="20"/>
+      <c r="FL20" s="20"/>
+      <c r="FM20" s="20"/>
+      <c r="FN20" s="20"/>
+      <c r="FO20" s="20"/>
+      <c r="FP20" s="20"/>
+      <c r="FQ20" s="20"/>
+      <c r="FR20" s="20"/>
+      <c r="FS20" s="20"/>
+      <c r="FT20" s="20"/>
+      <c r="FU20" s="20"/>
+      <c r="FV20" s="20"/>
+      <c r="FW20" s="20"/>
+      <c r="FX20" s="20"/>
+      <c r="FY20" s="20"/>
+      <c r="FZ20" s="20"/>
+      <c r="GA20" s="20"/>
+      <c r="GB20" s="20"/>
+      <c r="GC20" s="20"/>
+      <c r="GD20" s="20"/>
+      <c r="GE20" s="20"/>
+      <c r="GF20" s="20"/>
+      <c r="GG20" s="20"/>
+      <c r="GH20" s="20"/>
+      <c r="GI20" s="20"/>
+      <c r="GJ20" s="20"/>
+      <c r="GK20" s="20"/>
+      <c r="GL20" s="20"/>
+      <c r="GM20" s="20"/>
+      <c r="GN20" s="20"/>
+      <c r="GO20" s="20"/>
+      <c r="GP20" s="20"/>
+      <c r="GQ20" s="20"/>
+      <c r="GR20" s="20"/>
+      <c r="GS20" s="20"/>
+      <c r="GT20" s="20"/>
+      <c r="GU20" s="20"/>
+      <c r="GV20" s="20"/>
+      <c r="GW20" s="20"/>
+      <c r="GX20" s="20"/>
+      <c r="GY20" s="20"/>
+      <c r="GZ20" s="20"/>
+      <c r="HA20" s="20"/>
+      <c r="HB20" s="20"/>
+      <c r="HC20" s="20"/>
+      <c r="HD20" s="20"/>
+      <c r="HE20" s="20"/>
+      <c r="HF20" s="20"/>
+      <c r="HG20" s="20"/>
+      <c r="HH20" s="20"/>
+      <c r="HI20" s="20"/>
+      <c r="HJ20" s="20"/>
+      <c r="HK20" s="20"/>
+      <c r="HL20" s="20"/>
+      <c r="HM20" s="20"/>
+      <c r="HN20" s="20"/>
+      <c r="HO20" s="20"/>
+      <c r="HP20" s="20"/>
+      <c r="HQ20" s="20"/>
+      <c r="HR20" s="20"/>
+      <c r="HS20" s="20"/>
+      <c r="HT20" s="20"/>
+      <c r="HU20" s="20"/>
+      <c r="HV20" s="20"/>
+      <c r="HW20" s="20"/>
+      <c r="HX20" s="20"/>
+      <c r="HY20" s="20"/>
+      <c r="HZ20" s="20"/>
+      <c r="IA20" s="20"/>
+      <c r="IB20" s="20"/>
+      <c r="IC20" s="20"/>
+      <c r="ID20" s="20"/>
+      <c r="IE20" s="20"/>
+      <c r="IF20" s="20"/>
+      <c r="IG20" s="20"/>
+      <c r="IH20" s="20"/>
+      <c r="II20" s="20"/>
+      <c r="IJ20" s="20"/>
+      <c r="IK20" s="20"/>
+      <c r="IL20" s="20"/>
+      <c r="IM20" s="20"/>
+      <c r="IN20" s="20"/>
+      <c r="IO20" s="20"/>
+      <c r="IP20" s="20"/>
+      <c r="IQ20" s="20"/>
+      <c r="IR20" s="20"/>
+      <c r="IS20" s="20"/>
+      <c r="IT20" s="20"/>
+      <c r="IU20" s="20"/>
+      <c r="IV20" s="20"/>
     </row>
-    <row r="9" ht="32.35" customHeight="1">
-      <c r="A9" t="s" s="12">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s" s="13">
+    <row r="21" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="s" s="14">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s" s="14">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s" s="14">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s" s="14">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s" s="14">
-        <v>60</v>
-      </c>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" ht="32.35" customHeight="1">
-      <c r="A10" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s" s="13">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s" s="14">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s" s="14">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s" s="14">
-        <v>69</v>
-      </c>
-      <c r="G10" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" ht="32.35" customHeight="1">
-      <c r="A11" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s" s="13">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s" s="14">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s" s="14">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s" s="14">
-        <v>73</v>
-      </c>
-      <c r="G11" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s" s="14">
-        <v>30</v>
-      </c>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s" s="13">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s" s="14">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s" s="14">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s" s="14">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="12">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s" s="13">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s" s="14">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s" s="14">
-        <v>81</v>
-      </c>
-      <c r="F13" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s" s="14">
-        <v>30</v>
-      </c>
-      <c r="I13" t="s" s="14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" ht="32.35" customHeight="1">
-      <c r="A14" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s" s="13">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s" s="14">
-        <v>84</v>
-      </c>
-      <c r="D14" t="s" s="14">
-        <v>85</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" t="s" s="14">
-        <v>86</v>
-      </c>
-      <c r="H14" t="s" s="14">
-        <v>87</v>
-      </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s" s="13">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s" s="14">
-        <v>90</v>
-      </c>
-      <c r="D15" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" t="s" s="14">
-        <v>86</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" ht="32.35" customHeight="1">
-      <c r="A16" t="s" s="12">
-        <v>91</v>
-      </c>
-      <c r="B16" t="s" s="13">
-        <v>92</v>
-      </c>
-      <c r="C16" t="s" s="14">
-        <v>93</v>
-      </c>
-      <c r="D16" t="s" s="14">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s" s="14">
-        <v>94</v>
-      </c>
-      <c r="F16" t="s" s="14">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s" s="14">
-        <v>95</v>
-      </c>
-      <c r="I16" t="s" s="14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" t="s" s="12">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s" s="13">
-        <v>97</v>
-      </c>
-      <c r="C17" t="s" s="14">
-        <v>98</v>
-      </c>
-      <c r="D17" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" t="s" s="14">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s" s="14">
-        <v>99</v>
-      </c>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" ht="32.35" customHeight="1">
-      <c r="A18" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s" s="13">
-        <v>100</v>
-      </c>
-      <c r="C18" t="s" s="14">
-        <v>101</v>
-      </c>
-      <c r="D18" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s" s="14">
-        <v>102</v>
-      </c>
-      <c r="F18" t="s" s="14">
-        <v>103</v>
-      </c>
-      <c r="G18" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="H18" t="s" s="14">
-        <v>104</v>
-      </c>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" t="s" s="12">
-        <v>105</v>
-      </c>
-      <c r="B19" t="s" s="13">
-        <v>106</v>
-      </c>
-      <c r="C19" t="s" s="14">
-        <v>107</v>
-      </c>
-      <c r="D19" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s" s="14">
-        <v>108</v>
-      </c>
-      <c r="F19" t="s" s="14">
-        <v>109</v>
-      </c>
-      <c r="G19" t="s" s="14">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s" s="14">
-        <v>110</v>
-      </c>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" ht="32.35" customHeight="1">
-      <c r="A20" t="s" s="12">
-        <v>109</v>
-      </c>
-      <c r="B20" t="s" s="13">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s" s="14">
-        <v>112</v>
-      </c>
-      <c r="D20" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s" s="14">
-        <v>113</v>
-      </c>
-      <c r="F20" t="s" s="14">
-        <v>114</v>
-      </c>
-      <c r="G20" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="H20" t="s" s="14">
-        <v>115</v>
-      </c>
-      <c r="I20" t="s" s="14">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" t="s" s="12">
-        <v>117</v>
-      </c>
-      <c r="B21" t="s" s="13">
-        <v>118</v>
-      </c>
-      <c r="C21" t="s" s="14">
-        <v>119</v>
-      </c>
-      <c r="D21" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Specificaties en eisen/Scene Overview.xlsx
+++ b/Specificaties en eisen/Scene Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Make IT Work\Quizmaster\Quizmaster\Specificaties en eisen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1285B33-7896-4A08-9F9C-1DD4C03694C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF239156-07BA-48B6-A330-AD36EEFE74EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -576,9 +575,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -614,6 +610,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1810,10 +1809,10 @@
   <dimension ref="A1:IV21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1830,17 +1829,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:256" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2006,827 +2005,827 @@
       </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:256" s="16" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:256" s="15" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="15"/>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="15"/>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="15"/>
-      <c r="AZ8" s="15"/>
-      <c r="BA8" s="15"/>
-      <c r="BB8" s="15"/>
-      <c r="BC8" s="15"/>
-      <c r="BD8" s="15"/>
-      <c r="BE8" s="15"/>
-      <c r="BF8" s="15"/>
-      <c r="BG8" s="15"/>
-      <c r="BH8" s="15"/>
-      <c r="BI8" s="15"/>
-      <c r="BJ8" s="15"/>
-      <c r="BK8" s="15"/>
-      <c r="BL8" s="15"/>
-      <c r="BM8" s="15"/>
-      <c r="BN8" s="15"/>
-      <c r="BO8" s="15"/>
-      <c r="BP8" s="15"/>
-      <c r="BQ8" s="15"/>
-      <c r="BR8" s="15"/>
-      <c r="BS8" s="15"/>
-      <c r="BT8" s="15"/>
-      <c r="BU8" s="15"/>
-      <c r="BV8" s="15"/>
-      <c r="BW8" s="15"/>
-      <c r="BX8" s="15"/>
-      <c r="BY8" s="15"/>
-      <c r="BZ8" s="15"/>
-      <c r="CA8" s="15"/>
-      <c r="CB8" s="15"/>
-      <c r="CC8" s="15"/>
-      <c r="CD8" s="15"/>
-      <c r="CE8" s="15"/>
-      <c r="CF8" s="15"/>
-      <c r="CG8" s="15"/>
-      <c r="CH8" s="15"/>
-      <c r="CI8" s="15"/>
-      <c r="CJ8" s="15"/>
-      <c r="CK8" s="15"/>
-      <c r="CL8" s="15"/>
-      <c r="CM8" s="15"/>
-      <c r="CN8" s="15"/>
-      <c r="CO8" s="15"/>
-      <c r="CP8" s="15"/>
-      <c r="CQ8" s="15"/>
-      <c r="CR8" s="15"/>
-      <c r="CS8" s="15"/>
-      <c r="CT8" s="15"/>
-      <c r="CU8" s="15"/>
-      <c r="CV8" s="15"/>
-      <c r="CW8" s="15"/>
-      <c r="CX8" s="15"/>
-      <c r="CY8" s="15"/>
-      <c r="CZ8" s="15"/>
-      <c r="DA8" s="15"/>
-      <c r="DB8" s="15"/>
-      <c r="DC8" s="15"/>
-      <c r="DD8" s="15"/>
-      <c r="DE8" s="15"/>
-      <c r="DF8" s="15"/>
-      <c r="DG8" s="15"/>
-      <c r="DH8" s="15"/>
-      <c r="DI8" s="15"/>
-      <c r="DJ8" s="15"/>
-      <c r="DK8" s="15"/>
-      <c r="DL8" s="15"/>
-      <c r="DM8" s="15"/>
-      <c r="DN8" s="15"/>
-      <c r="DO8" s="15"/>
-      <c r="DP8" s="15"/>
-      <c r="DQ8" s="15"/>
-      <c r="DR8" s="15"/>
-      <c r="DS8" s="15"/>
-      <c r="DT8" s="15"/>
-      <c r="DU8" s="15"/>
-      <c r="DV8" s="15"/>
-      <c r="DW8" s="15"/>
-      <c r="DX8" s="15"/>
-      <c r="DY8" s="15"/>
-      <c r="DZ8" s="15"/>
-      <c r="EA8" s="15"/>
-      <c r="EB8" s="15"/>
-      <c r="EC8" s="15"/>
-      <c r="ED8" s="15"/>
-      <c r="EE8" s="15"/>
-      <c r="EF8" s="15"/>
-      <c r="EG8" s="15"/>
-      <c r="EH8" s="15"/>
-      <c r="EI8" s="15"/>
-      <c r="EJ8" s="15"/>
-      <c r="EK8" s="15"/>
-      <c r="EL8" s="15"/>
-      <c r="EM8" s="15"/>
-      <c r="EN8" s="15"/>
-      <c r="EO8" s="15"/>
-      <c r="EP8" s="15"/>
-      <c r="EQ8" s="15"/>
-      <c r="ER8" s="15"/>
-      <c r="ES8" s="15"/>
-      <c r="ET8" s="15"/>
-      <c r="EU8" s="15"/>
-      <c r="EV8" s="15"/>
-      <c r="EW8" s="15"/>
-      <c r="EX8" s="15"/>
-      <c r="EY8" s="15"/>
-      <c r="EZ8" s="15"/>
-      <c r="FA8" s="15"/>
-      <c r="FB8" s="15"/>
-      <c r="FC8" s="15"/>
-      <c r="FD8" s="15"/>
-      <c r="FE8" s="15"/>
-      <c r="FF8" s="15"/>
-      <c r="FG8" s="15"/>
-      <c r="FH8" s="15"/>
-      <c r="FI8" s="15"/>
-      <c r="FJ8" s="15"/>
-      <c r="FK8" s="15"/>
-      <c r="FL8" s="15"/>
-      <c r="FM8" s="15"/>
-      <c r="FN8" s="15"/>
-      <c r="FO8" s="15"/>
-      <c r="FP8" s="15"/>
-      <c r="FQ8" s="15"/>
-      <c r="FR8" s="15"/>
-      <c r="FS8" s="15"/>
-      <c r="FT8" s="15"/>
-      <c r="FU8" s="15"/>
-      <c r="FV8" s="15"/>
-      <c r="FW8" s="15"/>
-      <c r="FX8" s="15"/>
-      <c r="FY8" s="15"/>
-      <c r="FZ8" s="15"/>
-      <c r="GA8" s="15"/>
-      <c r="GB8" s="15"/>
-      <c r="GC8" s="15"/>
-      <c r="GD8" s="15"/>
-      <c r="GE8" s="15"/>
-      <c r="GF8" s="15"/>
-      <c r="GG8" s="15"/>
-      <c r="GH8" s="15"/>
-      <c r="GI8" s="15"/>
-      <c r="GJ8" s="15"/>
-      <c r="GK8" s="15"/>
-      <c r="GL8" s="15"/>
-      <c r="GM8" s="15"/>
-      <c r="GN8" s="15"/>
-      <c r="GO8" s="15"/>
-      <c r="GP8" s="15"/>
-      <c r="GQ8" s="15"/>
-      <c r="GR8" s="15"/>
-      <c r="GS8" s="15"/>
-      <c r="GT8" s="15"/>
-      <c r="GU8" s="15"/>
-      <c r="GV8" s="15"/>
-      <c r="GW8" s="15"/>
-      <c r="GX8" s="15"/>
-      <c r="GY8" s="15"/>
-      <c r="GZ8" s="15"/>
-      <c r="HA8" s="15"/>
-      <c r="HB8" s="15"/>
-      <c r="HC8" s="15"/>
-      <c r="HD8" s="15"/>
-      <c r="HE8" s="15"/>
-      <c r="HF8" s="15"/>
-      <c r="HG8" s="15"/>
-      <c r="HH8" s="15"/>
-      <c r="HI8" s="15"/>
-      <c r="HJ8" s="15"/>
-      <c r="HK8" s="15"/>
-      <c r="HL8" s="15"/>
-      <c r="HM8" s="15"/>
-      <c r="HN8" s="15"/>
-      <c r="HO8" s="15"/>
-      <c r="HP8" s="15"/>
-      <c r="HQ8" s="15"/>
-      <c r="HR8" s="15"/>
-      <c r="HS8" s="15"/>
-      <c r="HT8" s="15"/>
-      <c r="HU8" s="15"/>
-      <c r="HV8" s="15"/>
-      <c r="HW8" s="15"/>
-      <c r="HX8" s="15"/>
-      <c r="HY8" s="15"/>
-      <c r="HZ8" s="15"/>
-      <c r="IA8" s="15"/>
-      <c r="IB8" s="15"/>
-      <c r="IC8" s="15"/>
-      <c r="ID8" s="15"/>
-      <c r="IE8" s="15"/>
-      <c r="IF8" s="15"/>
-      <c r="IG8" s="15"/>
-      <c r="IH8" s="15"/>
-      <c r="II8" s="15"/>
-      <c r="IJ8" s="15"/>
-      <c r="IK8" s="15"/>
-      <c r="IL8" s="15"/>
-      <c r="IM8" s="15"/>
-      <c r="IN8" s="15"/>
-      <c r="IO8" s="15"/>
-      <c r="IP8" s="15"/>
-      <c r="IQ8" s="15"/>
-      <c r="IR8" s="15"/>
-      <c r="IS8" s="15"/>
-      <c r="IT8" s="15"/>
-      <c r="IU8" s="15"/>
-      <c r="IV8" s="15"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="14"/>
+      <c r="BP8" s="14"/>
+      <c r="BQ8" s="14"/>
+      <c r="BR8" s="14"/>
+      <c r="BS8" s="14"/>
+      <c r="BT8" s="14"/>
+      <c r="BU8" s="14"/>
+      <c r="BV8" s="14"/>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="14"/>
+      <c r="CA8" s="14"/>
+      <c r="CB8" s="14"/>
+      <c r="CC8" s="14"/>
+      <c r="CD8" s="14"/>
+      <c r="CE8" s="14"/>
+      <c r="CF8" s="14"/>
+      <c r="CG8" s="14"/>
+      <c r="CH8" s="14"/>
+      <c r="CI8" s="14"/>
+      <c r="CJ8" s="14"/>
+      <c r="CK8" s="14"/>
+      <c r="CL8" s="14"/>
+      <c r="CM8" s="14"/>
+      <c r="CN8" s="14"/>
+      <c r="CO8" s="14"/>
+      <c r="CP8" s="14"/>
+      <c r="CQ8" s="14"/>
+      <c r="CR8" s="14"/>
+      <c r="CS8" s="14"/>
+      <c r="CT8" s="14"/>
+      <c r="CU8" s="14"/>
+      <c r="CV8" s="14"/>
+      <c r="CW8" s="14"/>
+      <c r="CX8" s="14"/>
+      <c r="CY8" s="14"/>
+      <c r="CZ8" s="14"/>
+      <c r="DA8" s="14"/>
+      <c r="DB8" s="14"/>
+      <c r="DC8" s="14"/>
+      <c r="DD8" s="14"/>
+      <c r="DE8" s="14"/>
+      <c r="DF8" s="14"/>
+      <c r="DG8" s="14"/>
+      <c r="DH8" s="14"/>
+      <c r="DI8" s="14"/>
+      <c r="DJ8" s="14"/>
+      <c r="DK8" s="14"/>
+      <c r="DL8" s="14"/>
+      <c r="DM8" s="14"/>
+      <c r="DN8" s="14"/>
+      <c r="DO8" s="14"/>
+      <c r="DP8" s="14"/>
+      <c r="DQ8" s="14"/>
+      <c r="DR8" s="14"/>
+      <c r="DS8" s="14"/>
+      <c r="DT8" s="14"/>
+      <c r="DU8" s="14"/>
+      <c r="DV8" s="14"/>
+      <c r="DW8" s="14"/>
+      <c r="DX8" s="14"/>
+      <c r="DY8" s="14"/>
+      <c r="DZ8" s="14"/>
+      <c r="EA8" s="14"/>
+      <c r="EB8" s="14"/>
+      <c r="EC8" s="14"/>
+      <c r="ED8" s="14"/>
+      <c r="EE8" s="14"/>
+      <c r="EF8" s="14"/>
+      <c r="EG8" s="14"/>
+      <c r="EH8" s="14"/>
+      <c r="EI8" s="14"/>
+      <c r="EJ8" s="14"/>
+      <c r="EK8" s="14"/>
+      <c r="EL8" s="14"/>
+      <c r="EM8" s="14"/>
+      <c r="EN8" s="14"/>
+      <c r="EO8" s="14"/>
+      <c r="EP8" s="14"/>
+      <c r="EQ8" s="14"/>
+      <c r="ER8" s="14"/>
+      <c r="ES8" s="14"/>
+      <c r="ET8" s="14"/>
+      <c r="EU8" s="14"/>
+      <c r="EV8" s="14"/>
+      <c r="EW8" s="14"/>
+      <c r="EX8" s="14"/>
+      <c r="EY8" s="14"/>
+      <c r="EZ8" s="14"/>
+      <c r="FA8" s="14"/>
+      <c r="FB8" s="14"/>
+      <c r="FC8" s="14"/>
+      <c r="FD8" s="14"/>
+      <c r="FE8" s="14"/>
+      <c r="FF8" s="14"/>
+      <c r="FG8" s="14"/>
+      <c r="FH8" s="14"/>
+      <c r="FI8" s="14"/>
+      <c r="FJ8" s="14"/>
+      <c r="FK8" s="14"/>
+      <c r="FL8" s="14"/>
+      <c r="FM8" s="14"/>
+      <c r="FN8" s="14"/>
+      <c r="FO8" s="14"/>
+      <c r="FP8" s="14"/>
+      <c r="FQ8" s="14"/>
+      <c r="FR8" s="14"/>
+      <c r="FS8" s="14"/>
+      <c r="FT8" s="14"/>
+      <c r="FU8" s="14"/>
+      <c r="FV8" s="14"/>
+      <c r="FW8" s="14"/>
+      <c r="FX8" s="14"/>
+      <c r="FY8" s="14"/>
+      <c r="FZ8" s="14"/>
+      <c r="GA8" s="14"/>
+      <c r="GB8" s="14"/>
+      <c r="GC8" s="14"/>
+      <c r="GD8" s="14"/>
+      <c r="GE8" s="14"/>
+      <c r="GF8" s="14"/>
+      <c r="GG8" s="14"/>
+      <c r="GH8" s="14"/>
+      <c r="GI8" s="14"/>
+      <c r="GJ8" s="14"/>
+      <c r="GK8" s="14"/>
+      <c r="GL8" s="14"/>
+      <c r="GM8" s="14"/>
+      <c r="GN8" s="14"/>
+      <c r="GO8" s="14"/>
+      <c r="GP8" s="14"/>
+      <c r="GQ8" s="14"/>
+      <c r="GR8" s="14"/>
+      <c r="GS8" s="14"/>
+      <c r="GT8" s="14"/>
+      <c r="GU8" s="14"/>
+      <c r="GV8" s="14"/>
+      <c r="GW8" s="14"/>
+      <c r="GX8" s="14"/>
+      <c r="GY8" s="14"/>
+      <c r="GZ8" s="14"/>
+      <c r="HA8" s="14"/>
+      <c r="HB8" s="14"/>
+      <c r="HC8" s="14"/>
+      <c r="HD8" s="14"/>
+      <c r="HE8" s="14"/>
+      <c r="HF8" s="14"/>
+      <c r="HG8" s="14"/>
+      <c r="HH8" s="14"/>
+      <c r="HI8" s="14"/>
+      <c r="HJ8" s="14"/>
+      <c r="HK8" s="14"/>
+      <c r="HL8" s="14"/>
+      <c r="HM8" s="14"/>
+      <c r="HN8" s="14"/>
+      <c r="HO8" s="14"/>
+      <c r="HP8" s="14"/>
+      <c r="HQ8" s="14"/>
+      <c r="HR8" s="14"/>
+      <c r="HS8" s="14"/>
+      <c r="HT8" s="14"/>
+      <c r="HU8" s="14"/>
+      <c r="HV8" s="14"/>
+      <c r="HW8" s="14"/>
+      <c r="HX8" s="14"/>
+      <c r="HY8" s="14"/>
+      <c r="HZ8" s="14"/>
+      <c r="IA8" s="14"/>
+      <c r="IB8" s="14"/>
+      <c r="IC8" s="14"/>
+      <c r="ID8" s="14"/>
+      <c r="IE8" s="14"/>
+      <c r="IF8" s="14"/>
+      <c r="IG8" s="14"/>
+      <c r="IH8" s="14"/>
+      <c r="II8" s="14"/>
+      <c r="IJ8" s="14"/>
+      <c r="IK8" s="14"/>
+      <c r="IL8" s="14"/>
+      <c r="IM8" s="14"/>
+      <c r="IN8" s="14"/>
+      <c r="IO8" s="14"/>
+      <c r="IP8" s="14"/>
+      <c r="IQ8" s="14"/>
+      <c r="IR8" s="14"/>
+      <c r="IS8" s="14"/>
+      <c r="IT8" s="14"/>
+      <c r="IU8" s="14"/>
+      <c r="IV8" s="14"/>
     </row>
-    <row r="9" spans="1:256" s="16" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:256" s="15" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="15"/>
-      <c r="AW9" s="15"/>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="15"/>
-      <c r="AZ9" s="15"/>
-      <c r="BA9" s="15"/>
-      <c r="BB9" s="15"/>
-      <c r="BC9" s="15"/>
-      <c r="BD9" s="15"/>
-      <c r="BE9" s="15"/>
-      <c r="BF9" s="15"/>
-      <c r="BG9" s="15"/>
-      <c r="BH9" s="15"/>
-      <c r="BI9" s="15"/>
-      <c r="BJ9" s="15"/>
-      <c r="BK9" s="15"/>
-      <c r="BL9" s="15"/>
-      <c r="BM9" s="15"/>
-      <c r="BN9" s="15"/>
-      <c r="BO9" s="15"/>
-      <c r="BP9" s="15"/>
-      <c r="BQ9" s="15"/>
-      <c r="BR9" s="15"/>
-      <c r="BS9" s="15"/>
-      <c r="BT9" s="15"/>
-      <c r="BU9" s="15"/>
-      <c r="BV9" s="15"/>
-      <c r="BW9" s="15"/>
-      <c r="BX9" s="15"/>
-      <c r="BY9" s="15"/>
-      <c r="BZ9" s="15"/>
-      <c r="CA9" s="15"/>
-      <c r="CB9" s="15"/>
-      <c r="CC9" s="15"/>
-      <c r="CD9" s="15"/>
-      <c r="CE9" s="15"/>
-      <c r="CF9" s="15"/>
-      <c r="CG9" s="15"/>
-      <c r="CH9" s="15"/>
-      <c r="CI9" s="15"/>
-      <c r="CJ9" s="15"/>
-      <c r="CK9" s="15"/>
-      <c r="CL9" s="15"/>
-      <c r="CM9" s="15"/>
-      <c r="CN9" s="15"/>
-      <c r="CO9" s="15"/>
-      <c r="CP9" s="15"/>
-      <c r="CQ9" s="15"/>
-      <c r="CR9" s="15"/>
-      <c r="CS9" s="15"/>
-      <c r="CT9" s="15"/>
-      <c r="CU9" s="15"/>
-      <c r="CV9" s="15"/>
-      <c r="CW9" s="15"/>
-      <c r="CX9" s="15"/>
-      <c r="CY9" s="15"/>
-      <c r="CZ9" s="15"/>
-      <c r="DA9" s="15"/>
-      <c r="DB9" s="15"/>
-      <c r="DC9" s="15"/>
-      <c r="DD9" s="15"/>
-      <c r="DE9" s="15"/>
-      <c r="DF9" s="15"/>
-      <c r="DG9" s="15"/>
-      <c r="DH9" s="15"/>
-      <c r="DI9" s="15"/>
-      <c r="DJ9" s="15"/>
-      <c r="DK9" s="15"/>
-      <c r="DL9" s="15"/>
-      <c r="DM9" s="15"/>
-      <c r="DN9" s="15"/>
-      <c r="DO9" s="15"/>
-      <c r="DP9" s="15"/>
-      <c r="DQ9" s="15"/>
-      <c r="DR9" s="15"/>
-      <c r="DS9" s="15"/>
-      <c r="DT9" s="15"/>
-      <c r="DU9" s="15"/>
-      <c r="DV9" s="15"/>
-      <c r="DW9" s="15"/>
-      <c r="DX9" s="15"/>
-      <c r="DY9" s="15"/>
-      <c r="DZ9" s="15"/>
-      <c r="EA9" s="15"/>
-      <c r="EB9" s="15"/>
-      <c r="EC9" s="15"/>
-      <c r="ED9" s="15"/>
-      <c r="EE9" s="15"/>
-      <c r="EF9" s="15"/>
-      <c r="EG9" s="15"/>
-      <c r="EH9" s="15"/>
-      <c r="EI9" s="15"/>
-      <c r="EJ9" s="15"/>
-      <c r="EK9" s="15"/>
-      <c r="EL9" s="15"/>
-      <c r="EM9" s="15"/>
-      <c r="EN9" s="15"/>
-      <c r="EO9" s="15"/>
-      <c r="EP9" s="15"/>
-      <c r="EQ9" s="15"/>
-      <c r="ER9" s="15"/>
-      <c r="ES9" s="15"/>
-      <c r="ET9" s="15"/>
-      <c r="EU9" s="15"/>
-      <c r="EV9" s="15"/>
-      <c r="EW9" s="15"/>
-      <c r="EX9" s="15"/>
-      <c r="EY9" s="15"/>
-      <c r="EZ9" s="15"/>
-      <c r="FA9" s="15"/>
-      <c r="FB9" s="15"/>
-      <c r="FC9" s="15"/>
-      <c r="FD9" s="15"/>
-      <c r="FE9" s="15"/>
-      <c r="FF9" s="15"/>
-      <c r="FG9" s="15"/>
-      <c r="FH9" s="15"/>
-      <c r="FI9" s="15"/>
-      <c r="FJ9" s="15"/>
-      <c r="FK9" s="15"/>
-      <c r="FL9" s="15"/>
-      <c r="FM9" s="15"/>
-      <c r="FN9" s="15"/>
-      <c r="FO9" s="15"/>
-      <c r="FP9" s="15"/>
-      <c r="FQ9" s="15"/>
-      <c r="FR9" s="15"/>
-      <c r="FS9" s="15"/>
-      <c r="FT9" s="15"/>
-      <c r="FU9" s="15"/>
-      <c r="FV9" s="15"/>
-      <c r="FW9" s="15"/>
-      <c r="FX9" s="15"/>
-      <c r="FY9" s="15"/>
-      <c r="FZ9" s="15"/>
-      <c r="GA9" s="15"/>
-      <c r="GB9" s="15"/>
-      <c r="GC9" s="15"/>
-      <c r="GD9" s="15"/>
-      <c r="GE9" s="15"/>
-      <c r="GF9" s="15"/>
-      <c r="GG9" s="15"/>
-      <c r="GH9" s="15"/>
-      <c r="GI9" s="15"/>
-      <c r="GJ9" s="15"/>
-      <c r="GK9" s="15"/>
-      <c r="GL9" s="15"/>
-      <c r="GM9" s="15"/>
-      <c r="GN9" s="15"/>
-      <c r="GO9" s="15"/>
-      <c r="GP9" s="15"/>
-      <c r="GQ9" s="15"/>
-      <c r="GR9" s="15"/>
-      <c r="GS9" s="15"/>
-      <c r="GT9" s="15"/>
-      <c r="GU9" s="15"/>
-      <c r="GV9" s="15"/>
-      <c r="GW9" s="15"/>
-      <c r="GX9" s="15"/>
-      <c r="GY9" s="15"/>
-      <c r="GZ9" s="15"/>
-      <c r="HA9" s="15"/>
-      <c r="HB9" s="15"/>
-      <c r="HC9" s="15"/>
-      <c r="HD9" s="15"/>
-      <c r="HE9" s="15"/>
-      <c r="HF9" s="15"/>
-      <c r="HG9" s="15"/>
-      <c r="HH9" s="15"/>
-      <c r="HI9" s="15"/>
-      <c r="HJ9" s="15"/>
-      <c r="HK9" s="15"/>
-      <c r="HL9" s="15"/>
-      <c r="HM9" s="15"/>
-      <c r="HN9" s="15"/>
-      <c r="HO9" s="15"/>
-      <c r="HP9" s="15"/>
-      <c r="HQ9" s="15"/>
-      <c r="HR9" s="15"/>
-      <c r="HS9" s="15"/>
-      <c r="HT9" s="15"/>
-      <c r="HU9" s="15"/>
-      <c r="HV9" s="15"/>
-      <c r="HW9" s="15"/>
-      <c r="HX9" s="15"/>
-      <c r="HY9" s="15"/>
-      <c r="HZ9" s="15"/>
-      <c r="IA9" s="15"/>
-      <c r="IB9" s="15"/>
-      <c r="IC9" s="15"/>
-      <c r="ID9" s="15"/>
-      <c r="IE9" s="15"/>
-      <c r="IF9" s="15"/>
-      <c r="IG9" s="15"/>
-      <c r="IH9" s="15"/>
-      <c r="II9" s="15"/>
-      <c r="IJ9" s="15"/>
-      <c r="IK9" s="15"/>
-      <c r="IL9" s="15"/>
-      <c r="IM9" s="15"/>
-      <c r="IN9" s="15"/>
-      <c r="IO9" s="15"/>
-      <c r="IP9" s="15"/>
-      <c r="IQ9" s="15"/>
-      <c r="IR9" s="15"/>
-      <c r="IS9" s="15"/>
-      <c r="IT9" s="15"/>
-      <c r="IU9" s="15"/>
-      <c r="IV9" s="15"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14"/>
+      <c r="BK9" s="14"/>
+      <c r="BL9" s="14"/>
+      <c r="BM9" s="14"/>
+      <c r="BN9" s="14"/>
+      <c r="BO9" s="14"/>
+      <c r="BP9" s="14"/>
+      <c r="BQ9" s="14"/>
+      <c r="BR9" s="14"/>
+      <c r="BS9" s="14"/>
+      <c r="BT9" s="14"/>
+      <c r="BU9" s="14"/>
+      <c r="BV9" s="14"/>
+      <c r="BW9" s="14"/>
+      <c r="BX9" s="14"/>
+      <c r="BY9" s="14"/>
+      <c r="BZ9" s="14"/>
+      <c r="CA9" s="14"/>
+      <c r="CB9" s="14"/>
+      <c r="CC9" s="14"/>
+      <c r="CD9" s="14"/>
+      <c r="CE9" s="14"/>
+      <c r="CF9" s="14"/>
+      <c r="CG9" s="14"/>
+      <c r="CH9" s="14"/>
+      <c r="CI9" s="14"/>
+      <c r="CJ9" s="14"/>
+      <c r="CK9" s="14"/>
+      <c r="CL9" s="14"/>
+      <c r="CM9" s="14"/>
+      <c r="CN9" s="14"/>
+      <c r="CO9" s="14"/>
+      <c r="CP9" s="14"/>
+      <c r="CQ9" s="14"/>
+      <c r="CR9" s="14"/>
+      <c r="CS9" s="14"/>
+      <c r="CT9" s="14"/>
+      <c r="CU9" s="14"/>
+      <c r="CV9" s="14"/>
+      <c r="CW9" s="14"/>
+      <c r="CX9" s="14"/>
+      <c r="CY9" s="14"/>
+      <c r="CZ9" s="14"/>
+      <c r="DA9" s="14"/>
+      <c r="DB9" s="14"/>
+      <c r="DC9" s="14"/>
+      <c r="DD9" s="14"/>
+      <c r="DE9" s="14"/>
+      <c r="DF9" s="14"/>
+      <c r="DG9" s="14"/>
+      <c r="DH9" s="14"/>
+      <c r="DI9" s="14"/>
+      <c r="DJ9" s="14"/>
+      <c r="DK9" s="14"/>
+      <c r="DL9" s="14"/>
+      <c r="DM9" s="14"/>
+      <c r="DN9" s="14"/>
+      <c r="DO9" s="14"/>
+      <c r="DP9" s="14"/>
+      <c r="DQ9" s="14"/>
+      <c r="DR9" s="14"/>
+      <c r="DS9" s="14"/>
+      <c r="DT9" s="14"/>
+      <c r="DU9" s="14"/>
+      <c r="DV9" s="14"/>
+      <c r="DW9" s="14"/>
+      <c r="DX9" s="14"/>
+      <c r="DY9" s="14"/>
+      <c r="DZ9" s="14"/>
+      <c r="EA9" s="14"/>
+      <c r="EB9" s="14"/>
+      <c r="EC9" s="14"/>
+      <c r="ED9" s="14"/>
+      <c r="EE9" s="14"/>
+      <c r="EF9" s="14"/>
+      <c r="EG9" s="14"/>
+      <c r="EH9" s="14"/>
+      <c r="EI9" s="14"/>
+      <c r="EJ9" s="14"/>
+      <c r="EK9" s="14"/>
+      <c r="EL9" s="14"/>
+      <c r="EM9" s="14"/>
+      <c r="EN9" s="14"/>
+      <c r="EO9" s="14"/>
+      <c r="EP9" s="14"/>
+      <c r="EQ9" s="14"/>
+      <c r="ER9" s="14"/>
+      <c r="ES9" s="14"/>
+      <c r="ET9" s="14"/>
+      <c r="EU9" s="14"/>
+      <c r="EV9" s="14"/>
+      <c r="EW9" s="14"/>
+      <c r="EX9" s="14"/>
+      <c r="EY9" s="14"/>
+      <c r="EZ9" s="14"/>
+      <c r="FA9" s="14"/>
+      <c r="FB9" s="14"/>
+      <c r="FC9" s="14"/>
+      <c r="FD9" s="14"/>
+      <c r="FE9" s="14"/>
+      <c r="FF9" s="14"/>
+      <c r="FG9" s="14"/>
+      <c r="FH9" s="14"/>
+      <c r="FI9" s="14"/>
+      <c r="FJ9" s="14"/>
+      <c r="FK9" s="14"/>
+      <c r="FL9" s="14"/>
+      <c r="FM9" s="14"/>
+      <c r="FN9" s="14"/>
+      <c r="FO9" s="14"/>
+      <c r="FP9" s="14"/>
+      <c r="FQ9" s="14"/>
+      <c r="FR9" s="14"/>
+      <c r="FS9" s="14"/>
+      <c r="FT9" s="14"/>
+      <c r="FU9" s="14"/>
+      <c r="FV9" s="14"/>
+      <c r="FW9" s="14"/>
+      <c r="FX9" s="14"/>
+      <c r="FY9" s="14"/>
+      <c r="FZ9" s="14"/>
+      <c r="GA9" s="14"/>
+      <c r="GB9" s="14"/>
+      <c r="GC9" s="14"/>
+      <c r="GD9" s="14"/>
+      <c r="GE9" s="14"/>
+      <c r="GF9" s="14"/>
+      <c r="GG9" s="14"/>
+      <c r="GH9" s="14"/>
+      <c r="GI9" s="14"/>
+      <c r="GJ9" s="14"/>
+      <c r="GK9" s="14"/>
+      <c r="GL9" s="14"/>
+      <c r="GM9" s="14"/>
+      <c r="GN9" s="14"/>
+      <c r="GO9" s="14"/>
+      <c r="GP9" s="14"/>
+      <c r="GQ9" s="14"/>
+      <c r="GR9" s="14"/>
+      <c r="GS9" s="14"/>
+      <c r="GT9" s="14"/>
+      <c r="GU9" s="14"/>
+      <c r="GV9" s="14"/>
+      <c r="GW9" s="14"/>
+      <c r="GX9" s="14"/>
+      <c r="GY9" s="14"/>
+      <c r="GZ9" s="14"/>
+      <c r="HA9" s="14"/>
+      <c r="HB9" s="14"/>
+      <c r="HC9" s="14"/>
+      <c r="HD9" s="14"/>
+      <c r="HE9" s="14"/>
+      <c r="HF9" s="14"/>
+      <c r="HG9" s="14"/>
+      <c r="HH9" s="14"/>
+      <c r="HI9" s="14"/>
+      <c r="HJ9" s="14"/>
+      <c r="HK9" s="14"/>
+      <c r="HL9" s="14"/>
+      <c r="HM9" s="14"/>
+      <c r="HN9" s="14"/>
+      <c r="HO9" s="14"/>
+      <c r="HP9" s="14"/>
+      <c r="HQ9" s="14"/>
+      <c r="HR9" s="14"/>
+      <c r="HS9" s="14"/>
+      <c r="HT9" s="14"/>
+      <c r="HU9" s="14"/>
+      <c r="HV9" s="14"/>
+      <c r="HW9" s="14"/>
+      <c r="HX9" s="14"/>
+      <c r="HY9" s="14"/>
+      <c r="HZ9" s="14"/>
+      <c r="IA9" s="14"/>
+      <c r="IB9" s="14"/>
+      <c r="IC9" s="14"/>
+      <c r="ID9" s="14"/>
+      <c r="IE9" s="14"/>
+      <c r="IF9" s="14"/>
+      <c r="IG9" s="14"/>
+      <c r="IH9" s="14"/>
+      <c r="II9" s="14"/>
+      <c r="IJ9" s="14"/>
+      <c r="IK9" s="14"/>
+      <c r="IL9" s="14"/>
+      <c r="IM9" s="14"/>
+      <c r="IN9" s="14"/>
+      <c r="IO9" s="14"/>
+      <c r="IP9" s="14"/>
+      <c r="IQ9" s="14"/>
+      <c r="IR9" s="14"/>
+      <c r="IS9" s="14"/>
+      <c r="IT9" s="14"/>
+      <c r="IU9" s="14"/>
+      <c r="IV9" s="14"/>
     </row>
-    <row r="10" spans="1:256" s="16" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:256" s="15" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="15"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="15"/>
-      <c r="AU10" s="15"/>
-      <c r="AV10" s="15"/>
-      <c r="AW10" s="15"/>
-      <c r="AX10" s="15"/>
-      <c r="AY10" s="15"/>
-      <c r="AZ10" s="15"/>
-      <c r="BA10" s="15"/>
-      <c r="BB10" s="15"/>
-      <c r="BC10" s="15"/>
-      <c r="BD10" s="15"/>
-      <c r="BE10" s="15"/>
-      <c r="BF10" s="15"/>
-      <c r="BG10" s="15"/>
-      <c r="BH10" s="15"/>
-      <c r="BI10" s="15"/>
-      <c r="BJ10" s="15"/>
-      <c r="BK10" s="15"/>
-      <c r="BL10" s="15"/>
-      <c r="BM10" s="15"/>
-      <c r="BN10" s="15"/>
-      <c r="BO10" s="15"/>
-      <c r="BP10" s="15"/>
-      <c r="BQ10" s="15"/>
-      <c r="BR10" s="15"/>
-      <c r="BS10" s="15"/>
-      <c r="BT10" s="15"/>
-      <c r="BU10" s="15"/>
-      <c r="BV10" s="15"/>
-      <c r="BW10" s="15"/>
-      <c r="BX10" s="15"/>
-      <c r="BY10" s="15"/>
-      <c r="BZ10" s="15"/>
-      <c r="CA10" s="15"/>
-      <c r="CB10" s="15"/>
-      <c r="CC10" s="15"/>
-      <c r="CD10" s="15"/>
-      <c r="CE10" s="15"/>
-      <c r="CF10" s="15"/>
-      <c r="CG10" s="15"/>
-      <c r="CH10" s="15"/>
-      <c r="CI10" s="15"/>
-      <c r="CJ10" s="15"/>
-      <c r="CK10" s="15"/>
-      <c r="CL10" s="15"/>
-      <c r="CM10" s="15"/>
-      <c r="CN10" s="15"/>
-      <c r="CO10" s="15"/>
-      <c r="CP10" s="15"/>
-      <c r="CQ10" s="15"/>
-      <c r="CR10" s="15"/>
-      <c r="CS10" s="15"/>
-      <c r="CT10" s="15"/>
-      <c r="CU10" s="15"/>
-      <c r="CV10" s="15"/>
-      <c r="CW10" s="15"/>
-      <c r="CX10" s="15"/>
-      <c r="CY10" s="15"/>
-      <c r="CZ10" s="15"/>
-      <c r="DA10" s="15"/>
-      <c r="DB10" s="15"/>
-      <c r="DC10" s="15"/>
-      <c r="DD10" s="15"/>
-      <c r="DE10" s="15"/>
-      <c r="DF10" s="15"/>
-      <c r="DG10" s="15"/>
-      <c r="DH10" s="15"/>
-      <c r="DI10" s="15"/>
-      <c r="DJ10" s="15"/>
-      <c r="DK10" s="15"/>
-      <c r="DL10" s="15"/>
-      <c r="DM10" s="15"/>
-      <c r="DN10" s="15"/>
-      <c r="DO10" s="15"/>
-      <c r="DP10" s="15"/>
-      <c r="DQ10" s="15"/>
-      <c r="DR10" s="15"/>
-      <c r="DS10" s="15"/>
-      <c r="DT10" s="15"/>
-      <c r="DU10" s="15"/>
-      <c r="DV10" s="15"/>
-      <c r="DW10" s="15"/>
-      <c r="DX10" s="15"/>
-      <c r="DY10" s="15"/>
-      <c r="DZ10" s="15"/>
-      <c r="EA10" s="15"/>
-      <c r="EB10" s="15"/>
-      <c r="EC10" s="15"/>
-      <c r="ED10" s="15"/>
-      <c r="EE10" s="15"/>
-      <c r="EF10" s="15"/>
-      <c r="EG10" s="15"/>
-      <c r="EH10" s="15"/>
-      <c r="EI10" s="15"/>
-      <c r="EJ10" s="15"/>
-      <c r="EK10" s="15"/>
-      <c r="EL10" s="15"/>
-      <c r="EM10" s="15"/>
-      <c r="EN10" s="15"/>
-      <c r="EO10" s="15"/>
-      <c r="EP10" s="15"/>
-      <c r="EQ10" s="15"/>
-      <c r="ER10" s="15"/>
-      <c r="ES10" s="15"/>
-      <c r="ET10" s="15"/>
-      <c r="EU10" s="15"/>
-      <c r="EV10" s="15"/>
-      <c r="EW10" s="15"/>
-      <c r="EX10" s="15"/>
-      <c r="EY10" s="15"/>
-      <c r="EZ10" s="15"/>
-      <c r="FA10" s="15"/>
-      <c r="FB10" s="15"/>
-      <c r="FC10" s="15"/>
-      <c r="FD10" s="15"/>
-      <c r="FE10" s="15"/>
-      <c r="FF10" s="15"/>
-      <c r="FG10" s="15"/>
-      <c r="FH10" s="15"/>
-      <c r="FI10" s="15"/>
-      <c r="FJ10" s="15"/>
-      <c r="FK10" s="15"/>
-      <c r="FL10" s="15"/>
-      <c r="FM10" s="15"/>
-      <c r="FN10" s="15"/>
-      <c r="FO10" s="15"/>
-      <c r="FP10" s="15"/>
-      <c r="FQ10" s="15"/>
-      <c r="FR10" s="15"/>
-      <c r="FS10" s="15"/>
-      <c r="FT10" s="15"/>
-      <c r="FU10" s="15"/>
-      <c r="FV10" s="15"/>
-      <c r="FW10" s="15"/>
-      <c r="FX10" s="15"/>
-      <c r="FY10" s="15"/>
-      <c r="FZ10" s="15"/>
-      <c r="GA10" s="15"/>
-      <c r="GB10" s="15"/>
-      <c r="GC10" s="15"/>
-      <c r="GD10" s="15"/>
-      <c r="GE10" s="15"/>
-      <c r="GF10" s="15"/>
-      <c r="GG10" s="15"/>
-      <c r="GH10" s="15"/>
-      <c r="GI10" s="15"/>
-      <c r="GJ10" s="15"/>
-      <c r="GK10" s="15"/>
-      <c r="GL10" s="15"/>
-      <c r="GM10" s="15"/>
-      <c r="GN10" s="15"/>
-      <c r="GO10" s="15"/>
-      <c r="GP10" s="15"/>
-      <c r="GQ10" s="15"/>
-      <c r="GR10" s="15"/>
-      <c r="GS10" s="15"/>
-      <c r="GT10" s="15"/>
-      <c r="GU10" s="15"/>
-      <c r="GV10" s="15"/>
-      <c r="GW10" s="15"/>
-      <c r="GX10" s="15"/>
-      <c r="GY10" s="15"/>
-      <c r="GZ10" s="15"/>
-      <c r="HA10" s="15"/>
-      <c r="HB10" s="15"/>
-      <c r="HC10" s="15"/>
-      <c r="HD10" s="15"/>
-      <c r="HE10" s="15"/>
-      <c r="HF10" s="15"/>
-      <c r="HG10" s="15"/>
-      <c r="HH10" s="15"/>
-      <c r="HI10" s="15"/>
-      <c r="HJ10" s="15"/>
-      <c r="HK10" s="15"/>
-      <c r="HL10" s="15"/>
-      <c r="HM10" s="15"/>
-      <c r="HN10" s="15"/>
-      <c r="HO10" s="15"/>
-      <c r="HP10" s="15"/>
-      <c r="HQ10" s="15"/>
-      <c r="HR10" s="15"/>
-      <c r="HS10" s="15"/>
-      <c r="HT10" s="15"/>
-      <c r="HU10" s="15"/>
-      <c r="HV10" s="15"/>
-      <c r="HW10" s="15"/>
-      <c r="HX10" s="15"/>
-      <c r="HY10" s="15"/>
-      <c r="HZ10" s="15"/>
-      <c r="IA10" s="15"/>
-      <c r="IB10" s="15"/>
-      <c r="IC10" s="15"/>
-      <c r="ID10" s="15"/>
-      <c r="IE10" s="15"/>
-      <c r="IF10" s="15"/>
-      <c r="IG10" s="15"/>
-      <c r="IH10" s="15"/>
-      <c r="II10" s="15"/>
-      <c r="IJ10" s="15"/>
-      <c r="IK10" s="15"/>
-      <c r="IL10" s="15"/>
-      <c r="IM10" s="15"/>
-      <c r="IN10" s="15"/>
-      <c r="IO10" s="15"/>
-      <c r="IP10" s="15"/>
-      <c r="IQ10" s="15"/>
-      <c r="IR10" s="15"/>
-      <c r="IS10" s="15"/>
-      <c r="IT10" s="15"/>
-      <c r="IU10" s="15"/>
-      <c r="IV10" s="15"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+      <c r="BJ10" s="14"/>
+      <c r="BK10" s="14"/>
+      <c r="BL10" s="14"/>
+      <c r="BM10" s="14"/>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="14"/>
+      <c r="BP10" s="14"/>
+      <c r="BQ10" s="14"/>
+      <c r="BR10" s="14"/>
+      <c r="BS10" s="14"/>
+      <c r="BT10" s="14"/>
+      <c r="BU10" s="14"/>
+      <c r="BV10" s="14"/>
+      <c r="BW10" s="14"/>
+      <c r="BX10" s="14"/>
+      <c r="BY10" s="14"/>
+      <c r="BZ10" s="14"/>
+      <c r="CA10" s="14"/>
+      <c r="CB10" s="14"/>
+      <c r="CC10" s="14"/>
+      <c r="CD10" s="14"/>
+      <c r="CE10" s="14"/>
+      <c r="CF10" s="14"/>
+      <c r="CG10" s="14"/>
+      <c r="CH10" s="14"/>
+      <c r="CI10" s="14"/>
+      <c r="CJ10" s="14"/>
+      <c r="CK10" s="14"/>
+      <c r="CL10" s="14"/>
+      <c r="CM10" s="14"/>
+      <c r="CN10" s="14"/>
+      <c r="CO10" s="14"/>
+      <c r="CP10" s="14"/>
+      <c r="CQ10" s="14"/>
+      <c r="CR10" s="14"/>
+      <c r="CS10" s="14"/>
+      <c r="CT10" s="14"/>
+      <c r="CU10" s="14"/>
+      <c r="CV10" s="14"/>
+      <c r="CW10" s="14"/>
+      <c r="CX10" s="14"/>
+      <c r="CY10" s="14"/>
+      <c r="CZ10" s="14"/>
+      <c r="DA10" s="14"/>
+      <c r="DB10" s="14"/>
+      <c r="DC10" s="14"/>
+      <c r="DD10" s="14"/>
+      <c r="DE10" s="14"/>
+      <c r="DF10" s="14"/>
+      <c r="DG10" s="14"/>
+      <c r="DH10" s="14"/>
+      <c r="DI10" s="14"/>
+      <c r="DJ10" s="14"/>
+      <c r="DK10" s="14"/>
+      <c r="DL10" s="14"/>
+      <c r="DM10" s="14"/>
+      <c r="DN10" s="14"/>
+      <c r="DO10" s="14"/>
+      <c r="DP10" s="14"/>
+      <c r="DQ10" s="14"/>
+      <c r="DR10" s="14"/>
+      <c r="DS10" s="14"/>
+      <c r="DT10" s="14"/>
+      <c r="DU10" s="14"/>
+      <c r="DV10" s="14"/>
+      <c r="DW10" s="14"/>
+      <c r="DX10" s="14"/>
+      <c r="DY10" s="14"/>
+      <c r="DZ10" s="14"/>
+      <c r="EA10" s="14"/>
+      <c r="EB10" s="14"/>
+      <c r="EC10" s="14"/>
+      <c r="ED10" s="14"/>
+      <c r="EE10" s="14"/>
+      <c r="EF10" s="14"/>
+      <c r="EG10" s="14"/>
+      <c r="EH10" s="14"/>
+      <c r="EI10" s="14"/>
+      <c r="EJ10" s="14"/>
+      <c r="EK10" s="14"/>
+      <c r="EL10" s="14"/>
+      <c r="EM10" s="14"/>
+      <c r="EN10" s="14"/>
+      <c r="EO10" s="14"/>
+      <c r="EP10" s="14"/>
+      <c r="EQ10" s="14"/>
+      <c r="ER10" s="14"/>
+      <c r="ES10" s="14"/>
+      <c r="ET10" s="14"/>
+      <c r="EU10" s="14"/>
+      <c r="EV10" s="14"/>
+      <c r="EW10" s="14"/>
+      <c r="EX10" s="14"/>
+      <c r="EY10" s="14"/>
+      <c r="EZ10" s="14"/>
+      <c r="FA10" s="14"/>
+      <c r="FB10" s="14"/>
+      <c r="FC10" s="14"/>
+      <c r="FD10" s="14"/>
+      <c r="FE10" s="14"/>
+      <c r="FF10" s="14"/>
+      <c r="FG10" s="14"/>
+      <c r="FH10" s="14"/>
+      <c r="FI10" s="14"/>
+      <c r="FJ10" s="14"/>
+      <c r="FK10" s="14"/>
+      <c r="FL10" s="14"/>
+      <c r="FM10" s="14"/>
+      <c r="FN10" s="14"/>
+      <c r="FO10" s="14"/>
+      <c r="FP10" s="14"/>
+      <c r="FQ10" s="14"/>
+      <c r="FR10" s="14"/>
+      <c r="FS10" s="14"/>
+      <c r="FT10" s="14"/>
+      <c r="FU10" s="14"/>
+      <c r="FV10" s="14"/>
+      <c r="FW10" s="14"/>
+      <c r="FX10" s="14"/>
+      <c r="FY10" s="14"/>
+      <c r="FZ10" s="14"/>
+      <c r="GA10" s="14"/>
+      <c r="GB10" s="14"/>
+      <c r="GC10" s="14"/>
+      <c r="GD10" s="14"/>
+      <c r="GE10" s="14"/>
+      <c r="GF10" s="14"/>
+      <c r="GG10" s="14"/>
+      <c r="GH10" s="14"/>
+      <c r="GI10" s="14"/>
+      <c r="GJ10" s="14"/>
+      <c r="GK10" s="14"/>
+      <c r="GL10" s="14"/>
+      <c r="GM10" s="14"/>
+      <c r="GN10" s="14"/>
+      <c r="GO10" s="14"/>
+      <c r="GP10" s="14"/>
+      <c r="GQ10" s="14"/>
+      <c r="GR10" s="14"/>
+      <c r="GS10" s="14"/>
+      <c r="GT10" s="14"/>
+      <c r="GU10" s="14"/>
+      <c r="GV10" s="14"/>
+      <c r="GW10" s="14"/>
+      <c r="GX10" s="14"/>
+      <c r="GY10" s="14"/>
+      <c r="GZ10" s="14"/>
+      <c r="HA10" s="14"/>
+      <c r="HB10" s="14"/>
+      <c r="HC10" s="14"/>
+      <c r="HD10" s="14"/>
+      <c r="HE10" s="14"/>
+      <c r="HF10" s="14"/>
+      <c r="HG10" s="14"/>
+      <c r="HH10" s="14"/>
+      <c r="HI10" s="14"/>
+      <c r="HJ10" s="14"/>
+      <c r="HK10" s="14"/>
+      <c r="HL10" s="14"/>
+      <c r="HM10" s="14"/>
+      <c r="HN10" s="14"/>
+      <c r="HO10" s="14"/>
+      <c r="HP10" s="14"/>
+      <c r="HQ10" s="14"/>
+      <c r="HR10" s="14"/>
+      <c r="HS10" s="14"/>
+      <c r="HT10" s="14"/>
+      <c r="HU10" s="14"/>
+      <c r="HV10" s="14"/>
+      <c r="HW10" s="14"/>
+      <c r="HX10" s="14"/>
+      <c r="HY10" s="14"/>
+      <c r="HZ10" s="14"/>
+      <c r="IA10" s="14"/>
+      <c r="IB10" s="14"/>
+      <c r="IC10" s="14"/>
+      <c r="ID10" s="14"/>
+      <c r="IE10" s="14"/>
+      <c r="IF10" s="14"/>
+      <c r="IG10" s="14"/>
+      <c r="IH10" s="14"/>
+      <c r="II10" s="14"/>
+      <c r="IJ10" s="14"/>
+      <c r="IK10" s="14"/>
+      <c r="IL10" s="14"/>
+      <c r="IM10" s="14"/>
+      <c r="IN10" s="14"/>
+      <c r="IO10" s="14"/>
+      <c r="IP10" s="14"/>
+      <c r="IQ10" s="14"/>
+      <c r="IR10" s="14"/>
+      <c r="IS10" s="14"/>
+      <c r="IT10" s="14"/>
+      <c r="IU10" s="14"/>
+      <c r="IV10" s="14"/>
     </row>
     <row r="11" spans="1:256" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -2957,281 +2956,281 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:256" s="16" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:256" s="15" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="15"/>
-      <c r="AN16" s="15"/>
-      <c r="AO16" s="15"/>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="15"/>
-      <c r="AS16" s="15"/>
-      <c r="AT16" s="15"/>
-      <c r="AU16" s="15"/>
-      <c r="AV16" s="15"/>
-      <c r="AW16" s="15"/>
-      <c r="AX16" s="15"/>
-      <c r="AY16" s="15"/>
-      <c r="AZ16" s="15"/>
-      <c r="BA16" s="15"/>
-      <c r="BB16" s="15"/>
-      <c r="BC16" s="15"/>
-      <c r="BD16" s="15"/>
-      <c r="BE16" s="15"/>
-      <c r="BF16" s="15"/>
-      <c r="BG16" s="15"/>
-      <c r="BH16" s="15"/>
-      <c r="BI16" s="15"/>
-      <c r="BJ16" s="15"/>
-      <c r="BK16" s="15"/>
-      <c r="BL16" s="15"/>
-      <c r="BM16" s="15"/>
-      <c r="BN16" s="15"/>
-      <c r="BO16" s="15"/>
-      <c r="BP16" s="15"/>
-      <c r="BQ16" s="15"/>
-      <c r="BR16" s="15"/>
-      <c r="BS16" s="15"/>
-      <c r="BT16" s="15"/>
-      <c r="BU16" s="15"/>
-      <c r="BV16" s="15"/>
-      <c r="BW16" s="15"/>
-      <c r="BX16" s="15"/>
-      <c r="BY16" s="15"/>
-      <c r="BZ16" s="15"/>
-      <c r="CA16" s="15"/>
-      <c r="CB16" s="15"/>
-      <c r="CC16" s="15"/>
-      <c r="CD16" s="15"/>
-      <c r="CE16" s="15"/>
-      <c r="CF16" s="15"/>
-      <c r="CG16" s="15"/>
-      <c r="CH16" s="15"/>
-      <c r="CI16" s="15"/>
-      <c r="CJ16" s="15"/>
-      <c r="CK16" s="15"/>
-      <c r="CL16" s="15"/>
-      <c r="CM16" s="15"/>
-      <c r="CN16" s="15"/>
-      <c r="CO16" s="15"/>
-      <c r="CP16" s="15"/>
-      <c r="CQ16" s="15"/>
-      <c r="CR16" s="15"/>
-      <c r="CS16" s="15"/>
-      <c r="CT16" s="15"/>
-      <c r="CU16" s="15"/>
-      <c r="CV16" s="15"/>
-      <c r="CW16" s="15"/>
-      <c r="CX16" s="15"/>
-      <c r="CY16" s="15"/>
-      <c r="CZ16" s="15"/>
-      <c r="DA16" s="15"/>
-      <c r="DB16" s="15"/>
-      <c r="DC16" s="15"/>
-      <c r="DD16" s="15"/>
-      <c r="DE16" s="15"/>
-      <c r="DF16" s="15"/>
-      <c r="DG16" s="15"/>
-      <c r="DH16" s="15"/>
-      <c r="DI16" s="15"/>
-      <c r="DJ16" s="15"/>
-      <c r="DK16" s="15"/>
-      <c r="DL16" s="15"/>
-      <c r="DM16" s="15"/>
-      <c r="DN16" s="15"/>
-      <c r="DO16" s="15"/>
-      <c r="DP16" s="15"/>
-      <c r="DQ16" s="15"/>
-      <c r="DR16" s="15"/>
-      <c r="DS16" s="15"/>
-      <c r="DT16" s="15"/>
-      <c r="DU16" s="15"/>
-      <c r="DV16" s="15"/>
-      <c r="DW16" s="15"/>
-      <c r="DX16" s="15"/>
-      <c r="DY16" s="15"/>
-      <c r="DZ16" s="15"/>
-      <c r="EA16" s="15"/>
-      <c r="EB16" s="15"/>
-      <c r="EC16" s="15"/>
-      <c r="ED16" s="15"/>
-      <c r="EE16" s="15"/>
-      <c r="EF16" s="15"/>
-      <c r="EG16" s="15"/>
-      <c r="EH16" s="15"/>
-      <c r="EI16" s="15"/>
-      <c r="EJ16" s="15"/>
-      <c r="EK16" s="15"/>
-      <c r="EL16" s="15"/>
-      <c r="EM16" s="15"/>
-      <c r="EN16" s="15"/>
-      <c r="EO16" s="15"/>
-      <c r="EP16" s="15"/>
-      <c r="EQ16" s="15"/>
-      <c r="ER16" s="15"/>
-      <c r="ES16" s="15"/>
-      <c r="ET16" s="15"/>
-      <c r="EU16" s="15"/>
-      <c r="EV16" s="15"/>
-      <c r="EW16" s="15"/>
-      <c r="EX16" s="15"/>
-      <c r="EY16" s="15"/>
-      <c r="EZ16" s="15"/>
-      <c r="FA16" s="15"/>
-      <c r="FB16" s="15"/>
-      <c r="FC16" s="15"/>
-      <c r="FD16" s="15"/>
-      <c r="FE16" s="15"/>
-      <c r="FF16" s="15"/>
-      <c r="FG16" s="15"/>
-      <c r="FH16" s="15"/>
-      <c r="FI16" s="15"/>
-      <c r="FJ16" s="15"/>
-      <c r="FK16" s="15"/>
-      <c r="FL16" s="15"/>
-      <c r="FM16" s="15"/>
-      <c r="FN16" s="15"/>
-      <c r="FO16" s="15"/>
-      <c r="FP16" s="15"/>
-      <c r="FQ16" s="15"/>
-      <c r="FR16" s="15"/>
-      <c r="FS16" s="15"/>
-      <c r="FT16" s="15"/>
-      <c r="FU16" s="15"/>
-      <c r="FV16" s="15"/>
-      <c r="FW16" s="15"/>
-      <c r="FX16" s="15"/>
-      <c r="FY16" s="15"/>
-      <c r="FZ16" s="15"/>
-      <c r="GA16" s="15"/>
-      <c r="GB16" s="15"/>
-      <c r="GC16" s="15"/>
-      <c r="GD16" s="15"/>
-      <c r="GE16" s="15"/>
-      <c r="GF16" s="15"/>
-      <c r="GG16" s="15"/>
-      <c r="GH16" s="15"/>
-      <c r="GI16" s="15"/>
-      <c r="GJ16" s="15"/>
-      <c r="GK16" s="15"/>
-      <c r="GL16" s="15"/>
-      <c r="GM16" s="15"/>
-      <c r="GN16" s="15"/>
-      <c r="GO16" s="15"/>
-      <c r="GP16" s="15"/>
-      <c r="GQ16" s="15"/>
-      <c r="GR16" s="15"/>
-      <c r="GS16" s="15"/>
-      <c r="GT16" s="15"/>
-      <c r="GU16" s="15"/>
-      <c r="GV16" s="15"/>
-      <c r="GW16" s="15"/>
-      <c r="GX16" s="15"/>
-      <c r="GY16" s="15"/>
-      <c r="GZ16" s="15"/>
-      <c r="HA16" s="15"/>
-      <c r="HB16" s="15"/>
-      <c r="HC16" s="15"/>
-      <c r="HD16" s="15"/>
-      <c r="HE16" s="15"/>
-      <c r="HF16" s="15"/>
-      <c r="HG16" s="15"/>
-      <c r="HH16" s="15"/>
-      <c r="HI16" s="15"/>
-      <c r="HJ16" s="15"/>
-      <c r="HK16" s="15"/>
-      <c r="HL16" s="15"/>
-      <c r="HM16" s="15"/>
-      <c r="HN16" s="15"/>
-      <c r="HO16" s="15"/>
-      <c r="HP16" s="15"/>
-      <c r="HQ16" s="15"/>
-      <c r="HR16" s="15"/>
-      <c r="HS16" s="15"/>
-      <c r="HT16" s="15"/>
-      <c r="HU16" s="15"/>
-      <c r="HV16" s="15"/>
-      <c r="HW16" s="15"/>
-      <c r="HX16" s="15"/>
-      <c r="HY16" s="15"/>
-      <c r="HZ16" s="15"/>
-      <c r="IA16" s="15"/>
-      <c r="IB16" s="15"/>
-      <c r="IC16" s="15"/>
-      <c r="ID16" s="15"/>
-      <c r="IE16" s="15"/>
-      <c r="IF16" s="15"/>
-      <c r="IG16" s="15"/>
-      <c r="IH16" s="15"/>
-      <c r="II16" s="15"/>
-      <c r="IJ16" s="15"/>
-      <c r="IK16" s="15"/>
-      <c r="IL16" s="15"/>
-      <c r="IM16" s="15"/>
-      <c r="IN16" s="15"/>
-      <c r="IO16" s="15"/>
-      <c r="IP16" s="15"/>
-      <c r="IQ16" s="15"/>
-      <c r="IR16" s="15"/>
-      <c r="IS16" s="15"/>
-      <c r="IT16" s="15"/>
-      <c r="IU16" s="15"/>
-      <c r="IV16" s="15"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="14"/>
+      <c r="BG16" s="14"/>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="14"/>
+      <c r="BJ16" s="14"/>
+      <c r="BK16" s="14"/>
+      <c r="BL16" s="14"/>
+      <c r="BM16" s="14"/>
+      <c r="BN16" s="14"/>
+      <c r="BO16" s="14"/>
+      <c r="BP16" s="14"/>
+      <c r="BQ16" s="14"/>
+      <c r="BR16" s="14"/>
+      <c r="BS16" s="14"/>
+      <c r="BT16" s="14"/>
+      <c r="BU16" s="14"/>
+      <c r="BV16" s="14"/>
+      <c r="BW16" s="14"/>
+      <c r="BX16" s="14"/>
+      <c r="BY16" s="14"/>
+      <c r="BZ16" s="14"/>
+      <c r="CA16" s="14"/>
+      <c r="CB16" s="14"/>
+      <c r="CC16" s="14"/>
+      <c r="CD16" s="14"/>
+      <c r="CE16" s="14"/>
+      <c r="CF16" s="14"/>
+      <c r="CG16" s="14"/>
+      <c r="CH16" s="14"/>
+      <c r="CI16" s="14"/>
+      <c r="CJ16" s="14"/>
+      <c r="CK16" s="14"/>
+      <c r="CL16" s="14"/>
+      <c r="CM16" s="14"/>
+      <c r="CN16" s="14"/>
+      <c r="CO16" s="14"/>
+      <c r="CP16" s="14"/>
+      <c r="CQ16" s="14"/>
+      <c r="CR16" s="14"/>
+      <c r="CS16" s="14"/>
+      <c r="CT16" s="14"/>
+      <c r="CU16" s="14"/>
+      <c r="CV16" s="14"/>
+      <c r="CW16" s="14"/>
+      <c r="CX16" s="14"/>
+      <c r="CY16" s="14"/>
+      <c r="CZ16" s="14"/>
+      <c r="DA16" s="14"/>
+      <c r="DB16" s="14"/>
+      <c r="DC16" s="14"/>
+      <c r="DD16" s="14"/>
+      <c r="DE16" s="14"/>
+      <c r="DF16" s="14"/>
+      <c r="DG16" s="14"/>
+      <c r="DH16" s="14"/>
+      <c r="DI16" s="14"/>
+      <c r="DJ16" s="14"/>
+      <c r="DK16" s="14"/>
+      <c r="DL16" s="14"/>
+      <c r="DM16" s="14"/>
+      <c r="DN16" s="14"/>
+      <c r="DO16" s="14"/>
+      <c r="DP16" s="14"/>
+      <c r="DQ16" s="14"/>
+      <c r="DR16" s="14"/>
+      <c r="DS16" s="14"/>
+      <c r="DT16" s="14"/>
+      <c r="DU16" s="14"/>
+      <c r="DV16" s="14"/>
+      <c r="DW16" s="14"/>
+      <c r="DX16" s="14"/>
+      <c r="DY16" s="14"/>
+      <c r="DZ16" s="14"/>
+      <c r="EA16" s="14"/>
+      <c r="EB16" s="14"/>
+      <c r="EC16" s="14"/>
+      <c r="ED16" s="14"/>
+      <c r="EE16" s="14"/>
+      <c r="EF16" s="14"/>
+      <c r="EG16" s="14"/>
+      <c r="EH16" s="14"/>
+      <c r="EI16" s="14"/>
+      <c r="EJ16" s="14"/>
+      <c r="EK16" s="14"/>
+      <c r="EL16" s="14"/>
+      <c r="EM16" s="14"/>
+      <c r="EN16" s="14"/>
+      <c r="EO16" s="14"/>
+      <c r="EP16" s="14"/>
+      <c r="EQ16" s="14"/>
+      <c r="ER16" s="14"/>
+      <c r="ES16" s="14"/>
+      <c r="ET16" s="14"/>
+      <c r="EU16" s="14"/>
+      <c r="EV16" s="14"/>
+      <c r="EW16" s="14"/>
+      <c r="EX16" s="14"/>
+      <c r="EY16" s="14"/>
+      <c r="EZ16" s="14"/>
+      <c r="FA16" s="14"/>
+      <c r="FB16" s="14"/>
+      <c r="FC16" s="14"/>
+      <c r="FD16" s="14"/>
+      <c r="FE16" s="14"/>
+      <c r="FF16" s="14"/>
+      <c r="FG16" s="14"/>
+      <c r="FH16" s="14"/>
+      <c r="FI16" s="14"/>
+      <c r="FJ16" s="14"/>
+      <c r="FK16" s="14"/>
+      <c r="FL16" s="14"/>
+      <c r="FM16" s="14"/>
+      <c r="FN16" s="14"/>
+      <c r="FO16" s="14"/>
+      <c r="FP16" s="14"/>
+      <c r="FQ16" s="14"/>
+      <c r="FR16" s="14"/>
+      <c r="FS16" s="14"/>
+      <c r="FT16" s="14"/>
+      <c r="FU16" s="14"/>
+      <c r="FV16" s="14"/>
+      <c r="FW16" s="14"/>
+      <c r="FX16" s="14"/>
+      <c r="FY16" s="14"/>
+      <c r="FZ16" s="14"/>
+      <c r="GA16" s="14"/>
+      <c r="GB16" s="14"/>
+      <c r="GC16" s="14"/>
+      <c r="GD16" s="14"/>
+      <c r="GE16" s="14"/>
+      <c r="GF16" s="14"/>
+      <c r="GG16" s="14"/>
+      <c r="GH16" s="14"/>
+      <c r="GI16" s="14"/>
+      <c r="GJ16" s="14"/>
+      <c r="GK16" s="14"/>
+      <c r="GL16" s="14"/>
+      <c r="GM16" s="14"/>
+      <c r="GN16" s="14"/>
+      <c r="GO16" s="14"/>
+      <c r="GP16" s="14"/>
+      <c r="GQ16" s="14"/>
+      <c r="GR16" s="14"/>
+      <c r="GS16" s="14"/>
+      <c r="GT16" s="14"/>
+      <c r="GU16" s="14"/>
+      <c r="GV16" s="14"/>
+      <c r="GW16" s="14"/>
+      <c r="GX16" s="14"/>
+      <c r="GY16" s="14"/>
+      <c r="GZ16" s="14"/>
+      <c r="HA16" s="14"/>
+      <c r="HB16" s="14"/>
+      <c r="HC16" s="14"/>
+      <c r="HD16" s="14"/>
+      <c r="HE16" s="14"/>
+      <c r="HF16" s="14"/>
+      <c r="HG16" s="14"/>
+      <c r="HH16" s="14"/>
+      <c r="HI16" s="14"/>
+      <c r="HJ16" s="14"/>
+      <c r="HK16" s="14"/>
+      <c r="HL16" s="14"/>
+      <c r="HM16" s="14"/>
+      <c r="HN16" s="14"/>
+      <c r="HO16" s="14"/>
+      <c r="HP16" s="14"/>
+      <c r="HQ16" s="14"/>
+      <c r="HR16" s="14"/>
+      <c r="HS16" s="14"/>
+      <c r="HT16" s="14"/>
+      <c r="HU16" s="14"/>
+      <c r="HV16" s="14"/>
+      <c r="HW16" s="14"/>
+      <c r="HX16" s="14"/>
+      <c r="HY16" s="14"/>
+      <c r="HZ16" s="14"/>
+      <c r="IA16" s="14"/>
+      <c r="IB16" s="14"/>
+      <c r="IC16" s="14"/>
+      <c r="ID16" s="14"/>
+      <c r="IE16" s="14"/>
+      <c r="IF16" s="14"/>
+      <c r="IG16" s="14"/>
+      <c r="IH16" s="14"/>
+      <c r="II16" s="14"/>
+      <c r="IJ16" s="14"/>
+      <c r="IK16" s="14"/>
+      <c r="IL16" s="14"/>
+      <c r="IM16" s="14"/>
+      <c r="IN16" s="14"/>
+      <c r="IO16" s="14"/>
+      <c r="IP16" s="14"/>
+      <c r="IQ16" s="14"/>
+      <c r="IR16" s="14"/>
+      <c r="IS16" s="14"/>
+      <c r="IT16" s="14"/>
+      <c r="IU16" s="14"/>
+      <c r="IV16" s="14"/>
     </row>
     <row r="17" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -3256,279 +3255,279 @@
       </c>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:256" s="21" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:256" s="20" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="20"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="20"/>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="20"/>
-      <c r="AN18" s="20"/>
-      <c r="AO18" s="20"/>
-      <c r="AP18" s="20"/>
-      <c r="AQ18" s="20"/>
-      <c r="AR18" s="20"/>
-      <c r="AS18" s="20"/>
-      <c r="AT18" s="20"/>
-      <c r="AU18" s="20"/>
-      <c r="AV18" s="20"/>
-      <c r="AW18" s="20"/>
-      <c r="AX18" s="20"/>
-      <c r="AY18" s="20"/>
-      <c r="AZ18" s="20"/>
-      <c r="BA18" s="20"/>
-      <c r="BB18" s="20"/>
-      <c r="BC18" s="20"/>
-      <c r="BD18" s="20"/>
-      <c r="BE18" s="20"/>
-      <c r="BF18" s="20"/>
-      <c r="BG18" s="20"/>
-      <c r="BH18" s="20"/>
-      <c r="BI18" s="20"/>
-      <c r="BJ18" s="20"/>
-      <c r="BK18" s="20"/>
-      <c r="BL18" s="20"/>
-      <c r="BM18" s="20"/>
-      <c r="BN18" s="20"/>
-      <c r="BO18" s="20"/>
-      <c r="BP18" s="20"/>
-      <c r="BQ18" s="20"/>
-      <c r="BR18" s="20"/>
-      <c r="BS18" s="20"/>
-      <c r="BT18" s="20"/>
-      <c r="BU18" s="20"/>
-      <c r="BV18" s="20"/>
-      <c r="BW18" s="20"/>
-      <c r="BX18" s="20"/>
-      <c r="BY18" s="20"/>
-      <c r="BZ18" s="20"/>
-      <c r="CA18" s="20"/>
-      <c r="CB18" s="20"/>
-      <c r="CC18" s="20"/>
-      <c r="CD18" s="20"/>
-      <c r="CE18" s="20"/>
-      <c r="CF18" s="20"/>
-      <c r="CG18" s="20"/>
-      <c r="CH18" s="20"/>
-      <c r="CI18" s="20"/>
-      <c r="CJ18" s="20"/>
-      <c r="CK18" s="20"/>
-      <c r="CL18" s="20"/>
-      <c r="CM18" s="20"/>
-      <c r="CN18" s="20"/>
-      <c r="CO18" s="20"/>
-      <c r="CP18" s="20"/>
-      <c r="CQ18" s="20"/>
-      <c r="CR18" s="20"/>
-      <c r="CS18" s="20"/>
-      <c r="CT18" s="20"/>
-      <c r="CU18" s="20"/>
-      <c r="CV18" s="20"/>
-      <c r="CW18" s="20"/>
-      <c r="CX18" s="20"/>
-      <c r="CY18" s="20"/>
-      <c r="CZ18" s="20"/>
-      <c r="DA18" s="20"/>
-      <c r="DB18" s="20"/>
-      <c r="DC18" s="20"/>
-      <c r="DD18" s="20"/>
-      <c r="DE18" s="20"/>
-      <c r="DF18" s="20"/>
-      <c r="DG18" s="20"/>
-      <c r="DH18" s="20"/>
-      <c r="DI18" s="20"/>
-      <c r="DJ18" s="20"/>
-      <c r="DK18" s="20"/>
-      <c r="DL18" s="20"/>
-      <c r="DM18" s="20"/>
-      <c r="DN18" s="20"/>
-      <c r="DO18" s="20"/>
-      <c r="DP18" s="20"/>
-      <c r="DQ18" s="20"/>
-      <c r="DR18" s="20"/>
-      <c r="DS18" s="20"/>
-      <c r="DT18" s="20"/>
-      <c r="DU18" s="20"/>
-      <c r="DV18" s="20"/>
-      <c r="DW18" s="20"/>
-      <c r="DX18" s="20"/>
-      <c r="DY18" s="20"/>
-      <c r="DZ18" s="20"/>
-      <c r="EA18" s="20"/>
-      <c r="EB18" s="20"/>
-      <c r="EC18" s="20"/>
-      <c r="ED18" s="20"/>
-      <c r="EE18" s="20"/>
-      <c r="EF18" s="20"/>
-      <c r="EG18" s="20"/>
-      <c r="EH18" s="20"/>
-      <c r="EI18" s="20"/>
-      <c r="EJ18" s="20"/>
-      <c r="EK18" s="20"/>
-      <c r="EL18" s="20"/>
-      <c r="EM18" s="20"/>
-      <c r="EN18" s="20"/>
-      <c r="EO18" s="20"/>
-      <c r="EP18" s="20"/>
-      <c r="EQ18" s="20"/>
-      <c r="ER18" s="20"/>
-      <c r="ES18" s="20"/>
-      <c r="ET18" s="20"/>
-      <c r="EU18" s="20"/>
-      <c r="EV18" s="20"/>
-      <c r="EW18" s="20"/>
-      <c r="EX18" s="20"/>
-      <c r="EY18" s="20"/>
-      <c r="EZ18" s="20"/>
-      <c r="FA18" s="20"/>
-      <c r="FB18" s="20"/>
-      <c r="FC18" s="20"/>
-      <c r="FD18" s="20"/>
-      <c r="FE18" s="20"/>
-      <c r="FF18" s="20"/>
-      <c r="FG18" s="20"/>
-      <c r="FH18" s="20"/>
-      <c r="FI18" s="20"/>
-      <c r="FJ18" s="20"/>
-      <c r="FK18" s="20"/>
-      <c r="FL18" s="20"/>
-      <c r="FM18" s="20"/>
-      <c r="FN18" s="20"/>
-      <c r="FO18" s="20"/>
-      <c r="FP18" s="20"/>
-      <c r="FQ18" s="20"/>
-      <c r="FR18" s="20"/>
-      <c r="FS18" s="20"/>
-      <c r="FT18" s="20"/>
-      <c r="FU18" s="20"/>
-      <c r="FV18" s="20"/>
-      <c r="FW18" s="20"/>
-      <c r="FX18" s="20"/>
-      <c r="FY18" s="20"/>
-      <c r="FZ18" s="20"/>
-      <c r="GA18" s="20"/>
-      <c r="GB18" s="20"/>
-      <c r="GC18" s="20"/>
-      <c r="GD18" s="20"/>
-      <c r="GE18" s="20"/>
-      <c r="GF18" s="20"/>
-      <c r="GG18" s="20"/>
-      <c r="GH18" s="20"/>
-      <c r="GI18" s="20"/>
-      <c r="GJ18" s="20"/>
-      <c r="GK18" s="20"/>
-      <c r="GL18" s="20"/>
-      <c r="GM18" s="20"/>
-      <c r="GN18" s="20"/>
-      <c r="GO18" s="20"/>
-      <c r="GP18" s="20"/>
-      <c r="GQ18" s="20"/>
-      <c r="GR18" s="20"/>
-      <c r="GS18" s="20"/>
-      <c r="GT18" s="20"/>
-      <c r="GU18" s="20"/>
-      <c r="GV18" s="20"/>
-      <c r="GW18" s="20"/>
-      <c r="GX18" s="20"/>
-      <c r="GY18" s="20"/>
-      <c r="GZ18" s="20"/>
-      <c r="HA18" s="20"/>
-      <c r="HB18" s="20"/>
-      <c r="HC18" s="20"/>
-      <c r="HD18" s="20"/>
-      <c r="HE18" s="20"/>
-      <c r="HF18" s="20"/>
-      <c r="HG18" s="20"/>
-      <c r="HH18" s="20"/>
-      <c r="HI18" s="20"/>
-      <c r="HJ18" s="20"/>
-      <c r="HK18" s="20"/>
-      <c r="HL18" s="20"/>
-      <c r="HM18" s="20"/>
-      <c r="HN18" s="20"/>
-      <c r="HO18" s="20"/>
-      <c r="HP18" s="20"/>
-      <c r="HQ18" s="20"/>
-      <c r="HR18" s="20"/>
-      <c r="HS18" s="20"/>
-      <c r="HT18" s="20"/>
-      <c r="HU18" s="20"/>
-      <c r="HV18" s="20"/>
-      <c r="HW18" s="20"/>
-      <c r="HX18" s="20"/>
-      <c r="HY18" s="20"/>
-      <c r="HZ18" s="20"/>
-      <c r="IA18" s="20"/>
-      <c r="IB18" s="20"/>
-      <c r="IC18" s="20"/>
-      <c r="ID18" s="20"/>
-      <c r="IE18" s="20"/>
-      <c r="IF18" s="20"/>
-      <c r="IG18" s="20"/>
-      <c r="IH18" s="20"/>
-      <c r="II18" s="20"/>
-      <c r="IJ18" s="20"/>
-      <c r="IK18" s="20"/>
-      <c r="IL18" s="20"/>
-      <c r="IM18" s="20"/>
-      <c r="IN18" s="20"/>
-      <c r="IO18" s="20"/>
-      <c r="IP18" s="20"/>
-      <c r="IQ18" s="20"/>
-      <c r="IR18" s="20"/>
-      <c r="IS18" s="20"/>
-      <c r="IT18" s="20"/>
-      <c r="IU18" s="20"/>
-      <c r="IV18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="19"/>
+      <c r="AZ18" s="19"/>
+      <c r="BA18" s="19"/>
+      <c r="BB18" s="19"/>
+      <c r="BC18" s="19"/>
+      <c r="BD18" s="19"/>
+      <c r="BE18" s="19"/>
+      <c r="BF18" s="19"/>
+      <c r="BG18" s="19"/>
+      <c r="BH18" s="19"/>
+      <c r="BI18" s="19"/>
+      <c r="BJ18" s="19"/>
+      <c r="BK18" s="19"/>
+      <c r="BL18" s="19"/>
+      <c r="BM18" s="19"/>
+      <c r="BN18" s="19"/>
+      <c r="BO18" s="19"/>
+      <c r="BP18" s="19"/>
+      <c r="BQ18" s="19"/>
+      <c r="BR18" s="19"/>
+      <c r="BS18" s="19"/>
+      <c r="BT18" s="19"/>
+      <c r="BU18" s="19"/>
+      <c r="BV18" s="19"/>
+      <c r="BW18" s="19"/>
+      <c r="BX18" s="19"/>
+      <c r="BY18" s="19"/>
+      <c r="BZ18" s="19"/>
+      <c r="CA18" s="19"/>
+      <c r="CB18" s="19"/>
+      <c r="CC18" s="19"/>
+      <c r="CD18" s="19"/>
+      <c r="CE18" s="19"/>
+      <c r="CF18" s="19"/>
+      <c r="CG18" s="19"/>
+      <c r="CH18" s="19"/>
+      <c r="CI18" s="19"/>
+      <c r="CJ18" s="19"/>
+      <c r="CK18" s="19"/>
+      <c r="CL18" s="19"/>
+      <c r="CM18" s="19"/>
+      <c r="CN18" s="19"/>
+      <c r="CO18" s="19"/>
+      <c r="CP18" s="19"/>
+      <c r="CQ18" s="19"/>
+      <c r="CR18" s="19"/>
+      <c r="CS18" s="19"/>
+      <c r="CT18" s="19"/>
+      <c r="CU18" s="19"/>
+      <c r="CV18" s="19"/>
+      <c r="CW18" s="19"/>
+      <c r="CX18" s="19"/>
+      <c r="CY18" s="19"/>
+      <c r="CZ18" s="19"/>
+      <c r="DA18" s="19"/>
+      <c r="DB18" s="19"/>
+      <c r="DC18" s="19"/>
+      <c r="DD18" s="19"/>
+      <c r="DE18" s="19"/>
+      <c r="DF18" s="19"/>
+      <c r="DG18" s="19"/>
+      <c r="DH18" s="19"/>
+      <c r="DI18" s="19"/>
+      <c r="DJ18" s="19"/>
+      <c r="DK18" s="19"/>
+      <c r="DL18" s="19"/>
+      <c r="DM18" s="19"/>
+      <c r="DN18" s="19"/>
+      <c r="DO18" s="19"/>
+      <c r="DP18" s="19"/>
+      <c r="DQ18" s="19"/>
+      <c r="DR18" s="19"/>
+      <c r="DS18" s="19"/>
+      <c r="DT18" s="19"/>
+      <c r="DU18" s="19"/>
+      <c r="DV18" s="19"/>
+      <c r="DW18" s="19"/>
+      <c r="DX18" s="19"/>
+      <c r="DY18" s="19"/>
+      <c r="DZ18" s="19"/>
+      <c r="EA18" s="19"/>
+      <c r="EB18" s="19"/>
+      <c r="EC18" s="19"/>
+      <c r="ED18" s="19"/>
+      <c r="EE18" s="19"/>
+      <c r="EF18" s="19"/>
+      <c r="EG18" s="19"/>
+      <c r="EH18" s="19"/>
+      <c r="EI18" s="19"/>
+      <c r="EJ18" s="19"/>
+      <c r="EK18" s="19"/>
+      <c r="EL18" s="19"/>
+      <c r="EM18" s="19"/>
+      <c r="EN18" s="19"/>
+      <c r="EO18" s="19"/>
+      <c r="EP18" s="19"/>
+      <c r="EQ18" s="19"/>
+      <c r="ER18" s="19"/>
+      <c r="ES18" s="19"/>
+      <c r="ET18" s="19"/>
+      <c r="EU18" s="19"/>
+      <c r="EV18" s="19"/>
+      <c r="EW18" s="19"/>
+      <c r="EX18" s="19"/>
+      <c r="EY18" s="19"/>
+      <c r="EZ18" s="19"/>
+      <c r="FA18" s="19"/>
+      <c r="FB18" s="19"/>
+      <c r="FC18" s="19"/>
+      <c r="FD18" s="19"/>
+      <c r="FE18" s="19"/>
+      <c r="FF18" s="19"/>
+      <c r="FG18" s="19"/>
+      <c r="FH18" s="19"/>
+      <c r="FI18" s="19"/>
+      <c r="FJ18" s="19"/>
+      <c r="FK18" s="19"/>
+      <c r="FL18" s="19"/>
+      <c r="FM18" s="19"/>
+      <c r="FN18" s="19"/>
+      <c r="FO18" s="19"/>
+      <c r="FP18" s="19"/>
+      <c r="FQ18" s="19"/>
+      <c r="FR18" s="19"/>
+      <c r="FS18" s="19"/>
+      <c r="FT18" s="19"/>
+      <c r="FU18" s="19"/>
+      <c r="FV18" s="19"/>
+      <c r="FW18" s="19"/>
+      <c r="FX18" s="19"/>
+      <c r="FY18" s="19"/>
+      <c r="FZ18" s="19"/>
+      <c r="GA18" s="19"/>
+      <c r="GB18" s="19"/>
+      <c r="GC18" s="19"/>
+      <c r="GD18" s="19"/>
+      <c r="GE18" s="19"/>
+      <c r="GF18" s="19"/>
+      <c r="GG18" s="19"/>
+      <c r="GH18" s="19"/>
+      <c r="GI18" s="19"/>
+      <c r="GJ18" s="19"/>
+      <c r="GK18" s="19"/>
+      <c r="GL18" s="19"/>
+      <c r="GM18" s="19"/>
+      <c r="GN18" s="19"/>
+      <c r="GO18" s="19"/>
+      <c r="GP18" s="19"/>
+      <c r="GQ18" s="19"/>
+      <c r="GR18" s="19"/>
+      <c r="GS18" s="19"/>
+      <c r="GT18" s="19"/>
+      <c r="GU18" s="19"/>
+      <c r="GV18" s="19"/>
+      <c r="GW18" s="19"/>
+      <c r="GX18" s="19"/>
+      <c r="GY18" s="19"/>
+      <c r="GZ18" s="19"/>
+      <c r="HA18" s="19"/>
+      <c r="HB18" s="19"/>
+      <c r="HC18" s="19"/>
+      <c r="HD18" s="19"/>
+      <c r="HE18" s="19"/>
+      <c r="HF18" s="19"/>
+      <c r="HG18" s="19"/>
+      <c r="HH18" s="19"/>
+      <c r="HI18" s="19"/>
+      <c r="HJ18" s="19"/>
+      <c r="HK18" s="19"/>
+      <c r="HL18" s="19"/>
+      <c r="HM18" s="19"/>
+      <c r="HN18" s="19"/>
+      <c r="HO18" s="19"/>
+      <c r="HP18" s="19"/>
+      <c r="HQ18" s="19"/>
+      <c r="HR18" s="19"/>
+      <c r="HS18" s="19"/>
+      <c r="HT18" s="19"/>
+      <c r="HU18" s="19"/>
+      <c r="HV18" s="19"/>
+      <c r="HW18" s="19"/>
+      <c r="HX18" s="19"/>
+      <c r="HY18" s="19"/>
+      <c r="HZ18" s="19"/>
+      <c r="IA18" s="19"/>
+      <c r="IB18" s="19"/>
+      <c r="IC18" s="19"/>
+      <c r="ID18" s="19"/>
+      <c r="IE18" s="19"/>
+      <c r="IF18" s="19"/>
+      <c r="IG18" s="19"/>
+      <c r="IH18" s="19"/>
+      <c r="II18" s="19"/>
+      <c r="IJ18" s="19"/>
+      <c r="IK18" s="19"/>
+      <c r="IL18" s="19"/>
+      <c r="IM18" s="19"/>
+      <c r="IN18" s="19"/>
+      <c r="IO18" s="19"/>
+      <c r="IP18" s="19"/>
+      <c r="IQ18" s="19"/>
+      <c r="IR18" s="19"/>
+      <c r="IS18" s="19"/>
+      <c r="IT18" s="19"/>
+      <c r="IU18" s="19"/>
+      <c r="IV18" s="19"/>
     </row>
     <row r="19" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -3557,281 +3556,281 @@
       </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:256" s="21" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:256" s="15" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="20"/>
-      <c r="AN20" s="20"/>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="20"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="20"/>
-      <c r="AT20" s="20"/>
-      <c r="AU20" s="20"/>
-      <c r="AV20" s="20"/>
-      <c r="AW20" s="20"/>
-      <c r="AX20" s="20"/>
-      <c r="AY20" s="20"/>
-      <c r="AZ20" s="20"/>
-      <c r="BA20" s="20"/>
-      <c r="BB20" s="20"/>
-      <c r="BC20" s="20"/>
-      <c r="BD20" s="20"/>
-      <c r="BE20" s="20"/>
-      <c r="BF20" s="20"/>
-      <c r="BG20" s="20"/>
-      <c r="BH20" s="20"/>
-      <c r="BI20" s="20"/>
-      <c r="BJ20" s="20"/>
-      <c r="BK20" s="20"/>
-      <c r="BL20" s="20"/>
-      <c r="BM20" s="20"/>
-      <c r="BN20" s="20"/>
-      <c r="BO20" s="20"/>
-      <c r="BP20" s="20"/>
-      <c r="BQ20" s="20"/>
-      <c r="BR20" s="20"/>
-      <c r="BS20" s="20"/>
-      <c r="BT20" s="20"/>
-      <c r="BU20" s="20"/>
-      <c r="BV20" s="20"/>
-      <c r="BW20" s="20"/>
-      <c r="BX20" s="20"/>
-      <c r="BY20" s="20"/>
-      <c r="BZ20" s="20"/>
-      <c r="CA20" s="20"/>
-      <c r="CB20" s="20"/>
-      <c r="CC20" s="20"/>
-      <c r="CD20" s="20"/>
-      <c r="CE20" s="20"/>
-      <c r="CF20" s="20"/>
-      <c r="CG20" s="20"/>
-      <c r="CH20" s="20"/>
-      <c r="CI20" s="20"/>
-      <c r="CJ20" s="20"/>
-      <c r="CK20" s="20"/>
-      <c r="CL20" s="20"/>
-      <c r="CM20" s="20"/>
-      <c r="CN20" s="20"/>
-      <c r="CO20" s="20"/>
-      <c r="CP20" s="20"/>
-      <c r="CQ20" s="20"/>
-      <c r="CR20" s="20"/>
-      <c r="CS20" s="20"/>
-      <c r="CT20" s="20"/>
-      <c r="CU20" s="20"/>
-      <c r="CV20" s="20"/>
-      <c r="CW20" s="20"/>
-      <c r="CX20" s="20"/>
-      <c r="CY20" s="20"/>
-      <c r="CZ20" s="20"/>
-      <c r="DA20" s="20"/>
-      <c r="DB20" s="20"/>
-      <c r="DC20" s="20"/>
-      <c r="DD20" s="20"/>
-      <c r="DE20" s="20"/>
-      <c r="DF20" s="20"/>
-      <c r="DG20" s="20"/>
-      <c r="DH20" s="20"/>
-      <c r="DI20" s="20"/>
-      <c r="DJ20" s="20"/>
-      <c r="DK20" s="20"/>
-      <c r="DL20" s="20"/>
-      <c r="DM20" s="20"/>
-      <c r="DN20" s="20"/>
-      <c r="DO20" s="20"/>
-      <c r="DP20" s="20"/>
-      <c r="DQ20" s="20"/>
-      <c r="DR20" s="20"/>
-      <c r="DS20" s="20"/>
-      <c r="DT20" s="20"/>
-      <c r="DU20" s="20"/>
-      <c r="DV20" s="20"/>
-      <c r="DW20" s="20"/>
-      <c r="DX20" s="20"/>
-      <c r="DY20" s="20"/>
-      <c r="DZ20" s="20"/>
-      <c r="EA20" s="20"/>
-      <c r="EB20" s="20"/>
-      <c r="EC20" s="20"/>
-      <c r="ED20" s="20"/>
-      <c r="EE20" s="20"/>
-      <c r="EF20" s="20"/>
-      <c r="EG20" s="20"/>
-      <c r="EH20" s="20"/>
-      <c r="EI20" s="20"/>
-      <c r="EJ20" s="20"/>
-      <c r="EK20" s="20"/>
-      <c r="EL20" s="20"/>
-      <c r="EM20" s="20"/>
-      <c r="EN20" s="20"/>
-      <c r="EO20" s="20"/>
-      <c r="EP20" s="20"/>
-      <c r="EQ20" s="20"/>
-      <c r="ER20" s="20"/>
-      <c r="ES20" s="20"/>
-      <c r="ET20" s="20"/>
-      <c r="EU20" s="20"/>
-      <c r="EV20" s="20"/>
-      <c r="EW20" s="20"/>
-      <c r="EX20" s="20"/>
-      <c r="EY20" s="20"/>
-      <c r="EZ20" s="20"/>
-      <c r="FA20" s="20"/>
-      <c r="FB20" s="20"/>
-      <c r="FC20" s="20"/>
-      <c r="FD20" s="20"/>
-      <c r="FE20" s="20"/>
-      <c r="FF20" s="20"/>
-      <c r="FG20" s="20"/>
-      <c r="FH20" s="20"/>
-      <c r="FI20" s="20"/>
-      <c r="FJ20" s="20"/>
-      <c r="FK20" s="20"/>
-      <c r="FL20" s="20"/>
-      <c r="FM20" s="20"/>
-      <c r="FN20" s="20"/>
-      <c r="FO20" s="20"/>
-      <c r="FP20" s="20"/>
-      <c r="FQ20" s="20"/>
-      <c r="FR20" s="20"/>
-      <c r="FS20" s="20"/>
-      <c r="FT20" s="20"/>
-      <c r="FU20" s="20"/>
-      <c r="FV20" s="20"/>
-      <c r="FW20" s="20"/>
-      <c r="FX20" s="20"/>
-      <c r="FY20" s="20"/>
-      <c r="FZ20" s="20"/>
-      <c r="GA20" s="20"/>
-      <c r="GB20" s="20"/>
-      <c r="GC20" s="20"/>
-      <c r="GD20" s="20"/>
-      <c r="GE20" s="20"/>
-      <c r="GF20" s="20"/>
-      <c r="GG20" s="20"/>
-      <c r="GH20" s="20"/>
-      <c r="GI20" s="20"/>
-      <c r="GJ20" s="20"/>
-      <c r="GK20" s="20"/>
-      <c r="GL20" s="20"/>
-      <c r="GM20" s="20"/>
-      <c r="GN20" s="20"/>
-      <c r="GO20" s="20"/>
-      <c r="GP20" s="20"/>
-      <c r="GQ20" s="20"/>
-      <c r="GR20" s="20"/>
-      <c r="GS20" s="20"/>
-      <c r="GT20" s="20"/>
-      <c r="GU20" s="20"/>
-      <c r="GV20" s="20"/>
-      <c r="GW20" s="20"/>
-      <c r="GX20" s="20"/>
-      <c r="GY20" s="20"/>
-      <c r="GZ20" s="20"/>
-      <c r="HA20" s="20"/>
-      <c r="HB20" s="20"/>
-      <c r="HC20" s="20"/>
-      <c r="HD20" s="20"/>
-      <c r="HE20" s="20"/>
-      <c r="HF20" s="20"/>
-      <c r="HG20" s="20"/>
-      <c r="HH20" s="20"/>
-      <c r="HI20" s="20"/>
-      <c r="HJ20" s="20"/>
-      <c r="HK20" s="20"/>
-      <c r="HL20" s="20"/>
-      <c r="HM20" s="20"/>
-      <c r="HN20" s="20"/>
-      <c r="HO20" s="20"/>
-      <c r="HP20" s="20"/>
-      <c r="HQ20" s="20"/>
-      <c r="HR20" s="20"/>
-      <c r="HS20" s="20"/>
-      <c r="HT20" s="20"/>
-      <c r="HU20" s="20"/>
-      <c r="HV20" s="20"/>
-      <c r="HW20" s="20"/>
-      <c r="HX20" s="20"/>
-      <c r="HY20" s="20"/>
-      <c r="HZ20" s="20"/>
-      <c r="IA20" s="20"/>
-      <c r="IB20" s="20"/>
-      <c r="IC20" s="20"/>
-      <c r="ID20" s="20"/>
-      <c r="IE20" s="20"/>
-      <c r="IF20" s="20"/>
-      <c r="IG20" s="20"/>
-      <c r="IH20" s="20"/>
-      <c r="II20" s="20"/>
-      <c r="IJ20" s="20"/>
-      <c r="IK20" s="20"/>
-      <c r="IL20" s="20"/>
-      <c r="IM20" s="20"/>
-      <c r="IN20" s="20"/>
-      <c r="IO20" s="20"/>
-      <c r="IP20" s="20"/>
-      <c r="IQ20" s="20"/>
-      <c r="IR20" s="20"/>
-      <c r="IS20" s="20"/>
-      <c r="IT20" s="20"/>
-      <c r="IU20" s="20"/>
-      <c r="IV20" s="20"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="14"/>
+      <c r="BB20" s="14"/>
+      <c r="BC20" s="14"/>
+      <c r="BD20" s="14"/>
+      <c r="BE20" s="14"/>
+      <c r="BF20" s="14"/>
+      <c r="BG20" s="14"/>
+      <c r="BH20" s="14"/>
+      <c r="BI20" s="14"/>
+      <c r="BJ20" s="14"/>
+      <c r="BK20" s="14"/>
+      <c r="BL20" s="14"/>
+      <c r="BM20" s="14"/>
+      <c r="BN20" s="14"/>
+      <c r="BO20" s="14"/>
+      <c r="BP20" s="14"/>
+      <c r="BQ20" s="14"/>
+      <c r="BR20" s="14"/>
+      <c r="BS20" s="14"/>
+      <c r="BT20" s="14"/>
+      <c r="BU20" s="14"/>
+      <c r="BV20" s="14"/>
+      <c r="BW20" s="14"/>
+      <c r="BX20" s="14"/>
+      <c r="BY20" s="14"/>
+      <c r="BZ20" s="14"/>
+      <c r="CA20" s="14"/>
+      <c r="CB20" s="14"/>
+      <c r="CC20" s="14"/>
+      <c r="CD20" s="14"/>
+      <c r="CE20" s="14"/>
+      <c r="CF20" s="14"/>
+      <c r="CG20" s="14"/>
+      <c r="CH20" s="14"/>
+      <c r="CI20" s="14"/>
+      <c r="CJ20" s="14"/>
+      <c r="CK20" s="14"/>
+      <c r="CL20" s="14"/>
+      <c r="CM20" s="14"/>
+      <c r="CN20" s="14"/>
+      <c r="CO20" s="14"/>
+      <c r="CP20" s="14"/>
+      <c r="CQ20" s="14"/>
+      <c r="CR20" s="14"/>
+      <c r="CS20" s="14"/>
+      <c r="CT20" s="14"/>
+      <c r="CU20" s="14"/>
+      <c r="CV20" s="14"/>
+      <c r="CW20" s="14"/>
+      <c r="CX20" s="14"/>
+      <c r="CY20" s="14"/>
+      <c r="CZ20" s="14"/>
+      <c r="DA20" s="14"/>
+      <c r="DB20" s="14"/>
+      <c r="DC20" s="14"/>
+      <c r="DD20" s="14"/>
+      <c r="DE20" s="14"/>
+      <c r="DF20" s="14"/>
+      <c r="DG20" s="14"/>
+      <c r="DH20" s="14"/>
+      <c r="DI20" s="14"/>
+      <c r="DJ20" s="14"/>
+      <c r="DK20" s="14"/>
+      <c r="DL20" s="14"/>
+      <c r="DM20" s="14"/>
+      <c r="DN20" s="14"/>
+      <c r="DO20" s="14"/>
+      <c r="DP20" s="14"/>
+      <c r="DQ20" s="14"/>
+      <c r="DR20" s="14"/>
+      <c r="DS20" s="14"/>
+      <c r="DT20" s="14"/>
+      <c r="DU20" s="14"/>
+      <c r="DV20" s="14"/>
+      <c r="DW20" s="14"/>
+      <c r="DX20" s="14"/>
+      <c r="DY20" s="14"/>
+      <c r="DZ20" s="14"/>
+      <c r="EA20" s="14"/>
+      <c r="EB20" s="14"/>
+      <c r="EC20" s="14"/>
+      <c r="ED20" s="14"/>
+      <c r="EE20" s="14"/>
+      <c r="EF20" s="14"/>
+      <c r="EG20" s="14"/>
+      <c r="EH20" s="14"/>
+      <c r="EI20" s="14"/>
+      <c r="EJ20" s="14"/>
+      <c r="EK20" s="14"/>
+      <c r="EL20" s="14"/>
+      <c r="EM20" s="14"/>
+      <c r="EN20" s="14"/>
+      <c r="EO20" s="14"/>
+      <c r="EP20" s="14"/>
+      <c r="EQ20" s="14"/>
+      <c r="ER20" s="14"/>
+      <c r="ES20" s="14"/>
+      <c r="ET20" s="14"/>
+      <c r="EU20" s="14"/>
+      <c r="EV20" s="14"/>
+      <c r="EW20" s="14"/>
+      <c r="EX20" s="14"/>
+      <c r="EY20" s="14"/>
+      <c r="EZ20" s="14"/>
+      <c r="FA20" s="14"/>
+      <c r="FB20" s="14"/>
+      <c r="FC20" s="14"/>
+      <c r="FD20" s="14"/>
+      <c r="FE20" s="14"/>
+      <c r="FF20" s="14"/>
+      <c r="FG20" s="14"/>
+      <c r="FH20" s="14"/>
+      <c r="FI20" s="14"/>
+      <c r="FJ20" s="14"/>
+      <c r="FK20" s="14"/>
+      <c r="FL20" s="14"/>
+      <c r="FM20" s="14"/>
+      <c r="FN20" s="14"/>
+      <c r="FO20" s="14"/>
+      <c r="FP20" s="14"/>
+      <c r="FQ20" s="14"/>
+      <c r="FR20" s="14"/>
+      <c r="FS20" s="14"/>
+      <c r="FT20" s="14"/>
+      <c r="FU20" s="14"/>
+      <c r="FV20" s="14"/>
+      <c r="FW20" s="14"/>
+      <c r="FX20" s="14"/>
+      <c r="FY20" s="14"/>
+      <c r="FZ20" s="14"/>
+      <c r="GA20" s="14"/>
+      <c r="GB20" s="14"/>
+      <c r="GC20" s="14"/>
+      <c r="GD20" s="14"/>
+      <c r="GE20" s="14"/>
+      <c r="GF20" s="14"/>
+      <c r="GG20" s="14"/>
+      <c r="GH20" s="14"/>
+      <c r="GI20" s="14"/>
+      <c r="GJ20" s="14"/>
+      <c r="GK20" s="14"/>
+      <c r="GL20" s="14"/>
+      <c r="GM20" s="14"/>
+      <c r="GN20" s="14"/>
+      <c r="GO20" s="14"/>
+      <c r="GP20" s="14"/>
+      <c r="GQ20" s="14"/>
+      <c r="GR20" s="14"/>
+      <c r="GS20" s="14"/>
+      <c r="GT20" s="14"/>
+      <c r="GU20" s="14"/>
+      <c r="GV20" s="14"/>
+      <c r="GW20" s="14"/>
+      <c r="GX20" s="14"/>
+      <c r="GY20" s="14"/>
+      <c r="GZ20" s="14"/>
+      <c r="HA20" s="14"/>
+      <c r="HB20" s="14"/>
+      <c r="HC20" s="14"/>
+      <c r="HD20" s="14"/>
+      <c r="HE20" s="14"/>
+      <c r="HF20" s="14"/>
+      <c r="HG20" s="14"/>
+      <c r="HH20" s="14"/>
+      <c r="HI20" s="14"/>
+      <c r="HJ20" s="14"/>
+      <c r="HK20" s="14"/>
+      <c r="HL20" s="14"/>
+      <c r="HM20" s="14"/>
+      <c r="HN20" s="14"/>
+      <c r="HO20" s="14"/>
+      <c r="HP20" s="14"/>
+      <c r="HQ20" s="14"/>
+      <c r="HR20" s="14"/>
+      <c r="HS20" s="14"/>
+      <c r="HT20" s="14"/>
+      <c r="HU20" s="14"/>
+      <c r="HV20" s="14"/>
+      <c r="HW20" s="14"/>
+      <c r="HX20" s="14"/>
+      <c r="HY20" s="14"/>
+      <c r="HZ20" s="14"/>
+      <c r="IA20" s="14"/>
+      <c r="IB20" s="14"/>
+      <c r="IC20" s="14"/>
+      <c r="ID20" s="14"/>
+      <c r="IE20" s="14"/>
+      <c r="IF20" s="14"/>
+      <c r="IG20" s="14"/>
+      <c r="IH20" s="14"/>
+      <c r="II20" s="14"/>
+      <c r="IJ20" s="14"/>
+      <c r="IK20" s="14"/>
+      <c r="IL20" s="14"/>
+      <c r="IM20" s="14"/>
+      <c r="IN20" s="14"/>
+      <c r="IO20" s="14"/>
+      <c r="IP20" s="14"/>
+      <c r="IQ20" s="14"/>
+      <c r="IR20" s="14"/>
+      <c r="IS20" s="14"/>
+      <c r="IT20" s="14"/>
+      <c r="IU20" s="14"/>
+      <c r="IV20" s="14"/>
     </row>
     <row r="21" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">

--- a/Specificaties en eisen/Scene Overview.xlsx
+++ b/Specificaties en eisen/Scene Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Make IT Work\Quizmaster\Quizmaster\Specificaties en eisen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF239156-07BA-48B6-A330-AD36EEFE74EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BCB0F8-B3E2-4FF9-B595-0326F3781FA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,15 +554,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -613,6 +604,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1809,10 +1809,10 @@
   <dimension ref="A1:IV21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1829,17 +1829,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:256" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1870,1986 +1870,2727 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:256" s="12" customFormat="1" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="22" t="s">
         <v>18</v>
       </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="11"/>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="11"/>
+      <c r="BQ3" s="11"/>
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="11"/>
+      <c r="BT3" s="11"/>
+      <c r="BU3" s="11"/>
+      <c r="BV3" s="11"/>
+      <c r="BW3" s="11"/>
+      <c r="BX3" s="11"/>
+      <c r="BY3" s="11"/>
+      <c r="BZ3" s="11"/>
+      <c r="CA3" s="11"/>
+      <c r="CB3" s="11"/>
+      <c r="CC3" s="11"/>
+      <c r="CD3" s="11"/>
+      <c r="CE3" s="11"/>
+      <c r="CF3" s="11"/>
+      <c r="CG3" s="11"/>
+      <c r="CH3" s="11"/>
+      <c r="CI3" s="11"/>
+      <c r="CJ3" s="11"/>
+      <c r="CK3" s="11"/>
+      <c r="CL3" s="11"/>
+      <c r="CM3" s="11"/>
+      <c r="CN3" s="11"/>
+      <c r="CO3" s="11"/>
+      <c r="CP3" s="11"/>
+      <c r="CQ3" s="11"/>
+      <c r="CR3" s="11"/>
+      <c r="CS3" s="11"/>
+      <c r="CT3" s="11"/>
+      <c r="CU3" s="11"/>
+      <c r="CV3" s="11"/>
+      <c r="CW3" s="11"/>
+      <c r="CX3" s="11"/>
+      <c r="CY3" s="11"/>
+      <c r="CZ3" s="11"/>
+      <c r="DA3" s="11"/>
+      <c r="DB3" s="11"/>
+      <c r="DC3" s="11"/>
+      <c r="DD3" s="11"/>
+      <c r="DE3" s="11"/>
+      <c r="DF3" s="11"/>
+      <c r="DG3" s="11"/>
+      <c r="DH3" s="11"/>
+      <c r="DI3" s="11"/>
+      <c r="DJ3" s="11"/>
+      <c r="DK3" s="11"/>
+      <c r="DL3" s="11"/>
+      <c r="DM3" s="11"/>
+      <c r="DN3" s="11"/>
+      <c r="DO3" s="11"/>
+      <c r="DP3" s="11"/>
+      <c r="DQ3" s="11"/>
+      <c r="DR3" s="11"/>
+      <c r="DS3" s="11"/>
+      <c r="DT3" s="11"/>
+      <c r="DU3" s="11"/>
+      <c r="DV3" s="11"/>
+      <c r="DW3" s="11"/>
+      <c r="DX3" s="11"/>
+      <c r="DY3" s="11"/>
+      <c r="DZ3" s="11"/>
+      <c r="EA3" s="11"/>
+      <c r="EB3" s="11"/>
+      <c r="EC3" s="11"/>
+      <c r="ED3" s="11"/>
+      <c r="EE3" s="11"/>
+      <c r="EF3" s="11"/>
+      <c r="EG3" s="11"/>
+      <c r="EH3" s="11"/>
+      <c r="EI3" s="11"/>
+      <c r="EJ3" s="11"/>
+      <c r="EK3" s="11"/>
+      <c r="EL3" s="11"/>
+      <c r="EM3" s="11"/>
+      <c r="EN3" s="11"/>
+      <c r="EO3" s="11"/>
+      <c r="EP3" s="11"/>
+      <c r="EQ3" s="11"/>
+      <c r="ER3" s="11"/>
+      <c r="ES3" s="11"/>
+      <c r="ET3" s="11"/>
+      <c r="EU3" s="11"/>
+      <c r="EV3" s="11"/>
+      <c r="EW3" s="11"/>
+      <c r="EX3" s="11"/>
+      <c r="EY3" s="11"/>
+      <c r="EZ3" s="11"/>
+      <c r="FA3" s="11"/>
+      <c r="FB3" s="11"/>
+      <c r="FC3" s="11"/>
+      <c r="FD3" s="11"/>
+      <c r="FE3" s="11"/>
+      <c r="FF3" s="11"/>
+      <c r="FG3" s="11"/>
+      <c r="FH3" s="11"/>
+      <c r="FI3" s="11"/>
+      <c r="FJ3" s="11"/>
+      <c r="FK3" s="11"/>
+      <c r="FL3" s="11"/>
+      <c r="FM3" s="11"/>
+      <c r="FN3" s="11"/>
+      <c r="FO3" s="11"/>
+      <c r="FP3" s="11"/>
+      <c r="FQ3" s="11"/>
+      <c r="FR3" s="11"/>
+      <c r="FS3" s="11"/>
+      <c r="FT3" s="11"/>
+      <c r="FU3" s="11"/>
+      <c r="FV3" s="11"/>
+      <c r="FW3" s="11"/>
+      <c r="FX3" s="11"/>
+      <c r="FY3" s="11"/>
+      <c r="FZ3" s="11"/>
+      <c r="GA3" s="11"/>
+      <c r="GB3" s="11"/>
+      <c r="GC3" s="11"/>
+      <c r="GD3" s="11"/>
+      <c r="GE3" s="11"/>
+      <c r="GF3" s="11"/>
+      <c r="GG3" s="11"/>
+      <c r="GH3" s="11"/>
+      <c r="GI3" s="11"/>
+      <c r="GJ3" s="11"/>
+      <c r="GK3" s="11"/>
+      <c r="GL3" s="11"/>
+      <c r="GM3" s="11"/>
+      <c r="GN3" s="11"/>
+      <c r="GO3" s="11"/>
+      <c r="GP3" s="11"/>
+      <c r="GQ3" s="11"/>
+      <c r="GR3" s="11"/>
+      <c r="GS3" s="11"/>
+      <c r="GT3" s="11"/>
+      <c r="GU3" s="11"/>
+      <c r="GV3" s="11"/>
+      <c r="GW3" s="11"/>
+      <c r="GX3" s="11"/>
+      <c r="GY3" s="11"/>
+      <c r="GZ3" s="11"/>
+      <c r="HA3" s="11"/>
+      <c r="HB3" s="11"/>
+      <c r="HC3" s="11"/>
+      <c r="HD3" s="11"/>
+      <c r="HE3" s="11"/>
+      <c r="HF3" s="11"/>
+      <c r="HG3" s="11"/>
+      <c r="HH3" s="11"/>
+      <c r="HI3" s="11"/>
+      <c r="HJ3" s="11"/>
+      <c r="HK3" s="11"/>
+      <c r="HL3" s="11"/>
+      <c r="HM3" s="11"/>
+      <c r="HN3" s="11"/>
+      <c r="HO3" s="11"/>
+      <c r="HP3" s="11"/>
+      <c r="HQ3" s="11"/>
+      <c r="HR3" s="11"/>
+      <c r="HS3" s="11"/>
+      <c r="HT3" s="11"/>
+      <c r="HU3" s="11"/>
+      <c r="HV3" s="11"/>
+      <c r="HW3" s="11"/>
+      <c r="HX3" s="11"/>
+      <c r="HY3" s="11"/>
+      <c r="HZ3" s="11"/>
+      <c r="IA3" s="11"/>
+      <c r="IB3" s="11"/>
+      <c r="IC3" s="11"/>
+      <c r="ID3" s="11"/>
+      <c r="IE3" s="11"/>
+      <c r="IF3" s="11"/>
+      <c r="IG3" s="11"/>
+      <c r="IH3" s="11"/>
+      <c r="II3" s="11"/>
+      <c r="IJ3" s="11"/>
+      <c r="IK3" s="11"/>
+      <c r="IL3" s="11"/>
+      <c r="IM3" s="11"/>
+      <c r="IN3" s="11"/>
+      <c r="IO3" s="11"/>
+      <c r="IP3" s="11"/>
+      <c r="IQ3" s="11"/>
+      <c r="IR3" s="11"/>
+      <c r="IS3" s="11"/>
+      <c r="IT3" s="11"/>
+      <c r="IU3" s="11"/>
+      <c r="IV3" s="11"/>
     </row>
     <row r="4" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:256" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:256" s="12" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="11"/>
+      <c r="BN5" s="11"/>
+      <c r="BO5" s="11"/>
+      <c r="BP5" s="11"/>
+      <c r="BQ5" s="11"/>
+      <c r="BR5" s="11"/>
+      <c r="BS5" s="11"/>
+      <c r="BT5" s="11"/>
+      <c r="BU5" s="11"/>
+      <c r="BV5" s="11"/>
+      <c r="BW5" s="11"/>
+      <c r="BX5" s="11"/>
+      <c r="BY5" s="11"/>
+      <c r="BZ5" s="11"/>
+      <c r="CA5" s="11"/>
+      <c r="CB5" s="11"/>
+      <c r="CC5" s="11"/>
+      <c r="CD5" s="11"/>
+      <c r="CE5" s="11"/>
+      <c r="CF5" s="11"/>
+      <c r="CG5" s="11"/>
+      <c r="CH5" s="11"/>
+      <c r="CI5" s="11"/>
+      <c r="CJ5" s="11"/>
+      <c r="CK5" s="11"/>
+      <c r="CL5" s="11"/>
+      <c r="CM5" s="11"/>
+      <c r="CN5" s="11"/>
+      <c r="CO5" s="11"/>
+      <c r="CP5" s="11"/>
+      <c r="CQ5" s="11"/>
+      <c r="CR5" s="11"/>
+      <c r="CS5" s="11"/>
+      <c r="CT5" s="11"/>
+      <c r="CU5" s="11"/>
+      <c r="CV5" s="11"/>
+      <c r="CW5" s="11"/>
+      <c r="CX5" s="11"/>
+      <c r="CY5" s="11"/>
+      <c r="CZ5" s="11"/>
+      <c r="DA5" s="11"/>
+      <c r="DB5" s="11"/>
+      <c r="DC5" s="11"/>
+      <c r="DD5" s="11"/>
+      <c r="DE5" s="11"/>
+      <c r="DF5" s="11"/>
+      <c r="DG5" s="11"/>
+      <c r="DH5" s="11"/>
+      <c r="DI5" s="11"/>
+      <c r="DJ5" s="11"/>
+      <c r="DK5" s="11"/>
+      <c r="DL5" s="11"/>
+      <c r="DM5" s="11"/>
+      <c r="DN5" s="11"/>
+      <c r="DO5" s="11"/>
+      <c r="DP5" s="11"/>
+      <c r="DQ5" s="11"/>
+      <c r="DR5" s="11"/>
+      <c r="DS5" s="11"/>
+      <c r="DT5" s="11"/>
+      <c r="DU5" s="11"/>
+      <c r="DV5" s="11"/>
+      <c r="DW5" s="11"/>
+      <c r="DX5" s="11"/>
+      <c r="DY5" s="11"/>
+      <c r="DZ5" s="11"/>
+      <c r="EA5" s="11"/>
+      <c r="EB5" s="11"/>
+      <c r="EC5" s="11"/>
+      <c r="ED5" s="11"/>
+      <c r="EE5" s="11"/>
+      <c r="EF5" s="11"/>
+      <c r="EG5" s="11"/>
+      <c r="EH5" s="11"/>
+      <c r="EI5" s="11"/>
+      <c r="EJ5" s="11"/>
+      <c r="EK5" s="11"/>
+      <c r="EL5" s="11"/>
+      <c r="EM5" s="11"/>
+      <c r="EN5" s="11"/>
+      <c r="EO5" s="11"/>
+      <c r="EP5" s="11"/>
+      <c r="EQ5" s="11"/>
+      <c r="ER5" s="11"/>
+      <c r="ES5" s="11"/>
+      <c r="ET5" s="11"/>
+      <c r="EU5" s="11"/>
+      <c r="EV5" s="11"/>
+      <c r="EW5" s="11"/>
+      <c r="EX5" s="11"/>
+      <c r="EY5" s="11"/>
+      <c r="EZ5" s="11"/>
+      <c r="FA5" s="11"/>
+      <c r="FB5" s="11"/>
+      <c r="FC5" s="11"/>
+      <c r="FD5" s="11"/>
+      <c r="FE5" s="11"/>
+      <c r="FF5" s="11"/>
+      <c r="FG5" s="11"/>
+      <c r="FH5" s="11"/>
+      <c r="FI5" s="11"/>
+      <c r="FJ5" s="11"/>
+      <c r="FK5" s="11"/>
+      <c r="FL5" s="11"/>
+      <c r="FM5" s="11"/>
+      <c r="FN5" s="11"/>
+      <c r="FO5" s="11"/>
+      <c r="FP5" s="11"/>
+      <c r="FQ5" s="11"/>
+      <c r="FR5" s="11"/>
+      <c r="FS5" s="11"/>
+      <c r="FT5" s="11"/>
+      <c r="FU5" s="11"/>
+      <c r="FV5" s="11"/>
+      <c r="FW5" s="11"/>
+      <c r="FX5" s="11"/>
+      <c r="FY5" s="11"/>
+      <c r="FZ5" s="11"/>
+      <c r="GA5" s="11"/>
+      <c r="GB5" s="11"/>
+      <c r="GC5" s="11"/>
+      <c r="GD5" s="11"/>
+      <c r="GE5" s="11"/>
+      <c r="GF5" s="11"/>
+      <c r="GG5" s="11"/>
+      <c r="GH5" s="11"/>
+      <c r="GI5" s="11"/>
+      <c r="GJ5" s="11"/>
+      <c r="GK5" s="11"/>
+      <c r="GL5" s="11"/>
+      <c r="GM5" s="11"/>
+      <c r="GN5" s="11"/>
+      <c r="GO5" s="11"/>
+      <c r="GP5" s="11"/>
+      <c r="GQ5" s="11"/>
+      <c r="GR5" s="11"/>
+      <c r="GS5" s="11"/>
+      <c r="GT5" s="11"/>
+      <c r="GU5" s="11"/>
+      <c r="GV5" s="11"/>
+      <c r="GW5" s="11"/>
+      <c r="GX5" s="11"/>
+      <c r="GY5" s="11"/>
+      <c r="GZ5" s="11"/>
+      <c r="HA5" s="11"/>
+      <c r="HB5" s="11"/>
+      <c r="HC5" s="11"/>
+      <c r="HD5" s="11"/>
+      <c r="HE5" s="11"/>
+      <c r="HF5" s="11"/>
+      <c r="HG5" s="11"/>
+      <c r="HH5" s="11"/>
+      <c r="HI5" s="11"/>
+      <c r="HJ5" s="11"/>
+      <c r="HK5" s="11"/>
+      <c r="HL5" s="11"/>
+      <c r="HM5" s="11"/>
+      <c r="HN5" s="11"/>
+      <c r="HO5" s="11"/>
+      <c r="HP5" s="11"/>
+      <c r="HQ5" s="11"/>
+      <c r="HR5" s="11"/>
+      <c r="HS5" s="11"/>
+      <c r="HT5" s="11"/>
+      <c r="HU5" s="11"/>
+      <c r="HV5" s="11"/>
+      <c r="HW5" s="11"/>
+      <c r="HX5" s="11"/>
+      <c r="HY5" s="11"/>
+      <c r="HZ5" s="11"/>
+      <c r="IA5" s="11"/>
+      <c r="IB5" s="11"/>
+      <c r="IC5" s="11"/>
+      <c r="ID5" s="11"/>
+      <c r="IE5" s="11"/>
+      <c r="IF5" s="11"/>
+      <c r="IG5" s="11"/>
+      <c r="IH5" s="11"/>
+      <c r="II5" s="11"/>
+      <c r="IJ5" s="11"/>
+      <c r="IK5" s="11"/>
+      <c r="IL5" s="11"/>
+      <c r="IM5" s="11"/>
+      <c r="IN5" s="11"/>
+      <c r="IO5" s="11"/>
+      <c r="IP5" s="11"/>
+      <c r="IQ5" s="11"/>
+      <c r="IR5" s="11"/>
+      <c r="IS5" s="11"/>
+      <c r="IT5" s="11"/>
+      <c r="IU5" s="11"/>
+      <c r="IV5" s="11"/>
     </row>
     <row r="6" spans="1:256" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:256" s="15" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:256" s="12" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="14"/>
-      <c r="BB8" s="14"/>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="14"/>
-      <c r="BE8" s="14"/>
-      <c r="BF8" s="14"/>
-      <c r="BG8" s="14"/>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="14"/>
-      <c r="BK8" s="14"/>
-      <c r="BL8" s="14"/>
-      <c r="BM8" s="14"/>
-      <c r="BN8" s="14"/>
-      <c r="BO8" s="14"/>
-      <c r="BP8" s="14"/>
-      <c r="BQ8" s="14"/>
-      <c r="BR8" s="14"/>
-      <c r="BS8" s="14"/>
-      <c r="BT8" s="14"/>
-      <c r="BU8" s="14"/>
-      <c r="BV8" s="14"/>
-      <c r="BW8" s="14"/>
-      <c r="BX8" s="14"/>
-      <c r="BY8" s="14"/>
-      <c r="BZ8" s="14"/>
-      <c r="CA8" s="14"/>
-      <c r="CB8" s="14"/>
-      <c r="CC8" s="14"/>
-      <c r="CD8" s="14"/>
-      <c r="CE8" s="14"/>
-      <c r="CF8" s="14"/>
-      <c r="CG8" s="14"/>
-      <c r="CH8" s="14"/>
-      <c r="CI8" s="14"/>
-      <c r="CJ8" s="14"/>
-      <c r="CK8" s="14"/>
-      <c r="CL8" s="14"/>
-      <c r="CM8" s="14"/>
-      <c r="CN8" s="14"/>
-      <c r="CO8" s="14"/>
-      <c r="CP8" s="14"/>
-      <c r="CQ8" s="14"/>
-      <c r="CR8" s="14"/>
-      <c r="CS8" s="14"/>
-      <c r="CT8" s="14"/>
-      <c r="CU8" s="14"/>
-      <c r="CV8" s="14"/>
-      <c r="CW8" s="14"/>
-      <c r="CX8" s="14"/>
-      <c r="CY8" s="14"/>
-      <c r="CZ8" s="14"/>
-      <c r="DA8" s="14"/>
-      <c r="DB8" s="14"/>
-      <c r="DC8" s="14"/>
-      <c r="DD8" s="14"/>
-      <c r="DE8" s="14"/>
-      <c r="DF8" s="14"/>
-      <c r="DG8" s="14"/>
-      <c r="DH8" s="14"/>
-      <c r="DI8" s="14"/>
-      <c r="DJ8" s="14"/>
-      <c r="DK8" s="14"/>
-      <c r="DL8" s="14"/>
-      <c r="DM8" s="14"/>
-      <c r="DN8" s="14"/>
-      <c r="DO8" s="14"/>
-      <c r="DP8" s="14"/>
-      <c r="DQ8" s="14"/>
-      <c r="DR8" s="14"/>
-      <c r="DS8" s="14"/>
-      <c r="DT8" s="14"/>
-      <c r="DU8" s="14"/>
-      <c r="DV8" s="14"/>
-      <c r="DW8" s="14"/>
-      <c r="DX8" s="14"/>
-      <c r="DY8" s="14"/>
-      <c r="DZ8" s="14"/>
-      <c r="EA8" s="14"/>
-      <c r="EB8" s="14"/>
-      <c r="EC8" s="14"/>
-      <c r="ED8" s="14"/>
-      <c r="EE8" s="14"/>
-      <c r="EF8" s="14"/>
-      <c r="EG8" s="14"/>
-      <c r="EH8" s="14"/>
-      <c r="EI8" s="14"/>
-      <c r="EJ8" s="14"/>
-      <c r="EK8" s="14"/>
-      <c r="EL8" s="14"/>
-      <c r="EM8" s="14"/>
-      <c r="EN8" s="14"/>
-      <c r="EO8" s="14"/>
-      <c r="EP8" s="14"/>
-      <c r="EQ8" s="14"/>
-      <c r="ER8" s="14"/>
-      <c r="ES8" s="14"/>
-      <c r="ET8" s="14"/>
-      <c r="EU8" s="14"/>
-      <c r="EV8" s="14"/>
-      <c r="EW8" s="14"/>
-      <c r="EX8" s="14"/>
-      <c r="EY8" s="14"/>
-      <c r="EZ8" s="14"/>
-      <c r="FA8" s="14"/>
-      <c r="FB8" s="14"/>
-      <c r="FC8" s="14"/>
-      <c r="FD8" s="14"/>
-      <c r="FE8" s="14"/>
-      <c r="FF8" s="14"/>
-      <c r="FG8" s="14"/>
-      <c r="FH8" s="14"/>
-      <c r="FI8" s="14"/>
-      <c r="FJ8" s="14"/>
-      <c r="FK8" s="14"/>
-      <c r="FL8" s="14"/>
-      <c r="FM8" s="14"/>
-      <c r="FN8" s="14"/>
-      <c r="FO8" s="14"/>
-      <c r="FP8" s="14"/>
-      <c r="FQ8" s="14"/>
-      <c r="FR8" s="14"/>
-      <c r="FS8" s="14"/>
-      <c r="FT8" s="14"/>
-      <c r="FU8" s="14"/>
-      <c r="FV8" s="14"/>
-      <c r="FW8" s="14"/>
-      <c r="FX8" s="14"/>
-      <c r="FY8" s="14"/>
-      <c r="FZ8" s="14"/>
-      <c r="GA8" s="14"/>
-      <c r="GB8" s="14"/>
-      <c r="GC8" s="14"/>
-      <c r="GD8" s="14"/>
-      <c r="GE8" s="14"/>
-      <c r="GF8" s="14"/>
-      <c r="GG8" s="14"/>
-      <c r="GH8" s="14"/>
-      <c r="GI8" s="14"/>
-      <c r="GJ8" s="14"/>
-      <c r="GK8" s="14"/>
-      <c r="GL8" s="14"/>
-      <c r="GM8" s="14"/>
-      <c r="GN8" s="14"/>
-      <c r="GO8" s="14"/>
-      <c r="GP8" s="14"/>
-      <c r="GQ8" s="14"/>
-      <c r="GR8" s="14"/>
-      <c r="GS8" s="14"/>
-      <c r="GT8" s="14"/>
-      <c r="GU8" s="14"/>
-      <c r="GV8" s="14"/>
-      <c r="GW8" s="14"/>
-      <c r="GX8" s="14"/>
-      <c r="GY8" s="14"/>
-      <c r="GZ8" s="14"/>
-      <c r="HA8" s="14"/>
-      <c r="HB8" s="14"/>
-      <c r="HC8" s="14"/>
-      <c r="HD8" s="14"/>
-      <c r="HE8" s="14"/>
-      <c r="HF8" s="14"/>
-      <c r="HG8" s="14"/>
-      <c r="HH8" s="14"/>
-      <c r="HI8" s="14"/>
-      <c r="HJ8" s="14"/>
-      <c r="HK8" s="14"/>
-      <c r="HL8" s="14"/>
-      <c r="HM8" s="14"/>
-      <c r="HN8" s="14"/>
-      <c r="HO8" s="14"/>
-      <c r="HP8" s="14"/>
-      <c r="HQ8" s="14"/>
-      <c r="HR8" s="14"/>
-      <c r="HS8" s="14"/>
-      <c r="HT8" s="14"/>
-      <c r="HU8" s="14"/>
-      <c r="HV8" s="14"/>
-      <c r="HW8" s="14"/>
-      <c r="HX8" s="14"/>
-      <c r="HY8" s="14"/>
-      <c r="HZ8" s="14"/>
-      <c r="IA8" s="14"/>
-      <c r="IB8" s="14"/>
-      <c r="IC8" s="14"/>
-      <c r="ID8" s="14"/>
-      <c r="IE8" s="14"/>
-      <c r="IF8" s="14"/>
-      <c r="IG8" s="14"/>
-      <c r="IH8" s="14"/>
-      <c r="II8" s="14"/>
-      <c r="IJ8" s="14"/>
-      <c r="IK8" s="14"/>
-      <c r="IL8" s="14"/>
-      <c r="IM8" s="14"/>
-      <c r="IN8" s="14"/>
-      <c r="IO8" s="14"/>
-      <c r="IP8" s="14"/>
-      <c r="IQ8" s="14"/>
-      <c r="IR8" s="14"/>
-      <c r="IS8" s="14"/>
-      <c r="IT8" s="14"/>
-      <c r="IU8" s="14"/>
-      <c r="IV8" s="14"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="11"/>
+      <c r="BF8" s="11"/>
+      <c r="BG8" s="11"/>
+      <c r="BH8" s="11"/>
+      <c r="BI8" s="11"/>
+      <c r="BJ8" s="11"/>
+      <c r="BK8" s="11"/>
+      <c r="BL8" s="11"/>
+      <c r="BM8" s="11"/>
+      <c r="BN8" s="11"/>
+      <c r="BO8" s="11"/>
+      <c r="BP8" s="11"/>
+      <c r="BQ8" s="11"/>
+      <c r="BR8" s="11"/>
+      <c r="BS8" s="11"/>
+      <c r="BT8" s="11"/>
+      <c r="BU8" s="11"/>
+      <c r="BV8" s="11"/>
+      <c r="BW8" s="11"/>
+      <c r="BX8" s="11"/>
+      <c r="BY8" s="11"/>
+      <c r="BZ8" s="11"/>
+      <c r="CA8" s="11"/>
+      <c r="CB8" s="11"/>
+      <c r="CC8" s="11"/>
+      <c r="CD8" s="11"/>
+      <c r="CE8" s="11"/>
+      <c r="CF8" s="11"/>
+      <c r="CG8" s="11"/>
+      <c r="CH8" s="11"/>
+      <c r="CI8" s="11"/>
+      <c r="CJ8" s="11"/>
+      <c r="CK8" s="11"/>
+      <c r="CL8" s="11"/>
+      <c r="CM8" s="11"/>
+      <c r="CN8" s="11"/>
+      <c r="CO8" s="11"/>
+      <c r="CP8" s="11"/>
+      <c r="CQ8" s="11"/>
+      <c r="CR8" s="11"/>
+      <c r="CS8" s="11"/>
+      <c r="CT8" s="11"/>
+      <c r="CU8" s="11"/>
+      <c r="CV8" s="11"/>
+      <c r="CW8" s="11"/>
+      <c r="CX8" s="11"/>
+      <c r="CY8" s="11"/>
+      <c r="CZ8" s="11"/>
+      <c r="DA8" s="11"/>
+      <c r="DB8" s="11"/>
+      <c r="DC8" s="11"/>
+      <c r="DD8" s="11"/>
+      <c r="DE8" s="11"/>
+      <c r="DF8" s="11"/>
+      <c r="DG8" s="11"/>
+      <c r="DH8" s="11"/>
+      <c r="DI8" s="11"/>
+      <c r="DJ8" s="11"/>
+      <c r="DK8" s="11"/>
+      <c r="DL8" s="11"/>
+      <c r="DM8" s="11"/>
+      <c r="DN8" s="11"/>
+      <c r="DO8" s="11"/>
+      <c r="DP8" s="11"/>
+      <c r="DQ8" s="11"/>
+      <c r="DR8" s="11"/>
+      <c r="DS8" s="11"/>
+      <c r="DT8" s="11"/>
+      <c r="DU8" s="11"/>
+      <c r="DV8" s="11"/>
+      <c r="DW8" s="11"/>
+      <c r="DX8" s="11"/>
+      <c r="DY8" s="11"/>
+      <c r="DZ8" s="11"/>
+      <c r="EA8" s="11"/>
+      <c r="EB8" s="11"/>
+      <c r="EC8" s="11"/>
+      <c r="ED8" s="11"/>
+      <c r="EE8" s="11"/>
+      <c r="EF8" s="11"/>
+      <c r="EG8" s="11"/>
+      <c r="EH8" s="11"/>
+      <c r="EI8" s="11"/>
+      <c r="EJ8" s="11"/>
+      <c r="EK8" s="11"/>
+      <c r="EL8" s="11"/>
+      <c r="EM8" s="11"/>
+      <c r="EN8" s="11"/>
+      <c r="EO8" s="11"/>
+      <c r="EP8" s="11"/>
+      <c r="EQ8" s="11"/>
+      <c r="ER8" s="11"/>
+      <c r="ES8" s="11"/>
+      <c r="ET8" s="11"/>
+      <c r="EU8" s="11"/>
+      <c r="EV8" s="11"/>
+      <c r="EW8" s="11"/>
+      <c r="EX8" s="11"/>
+      <c r="EY8" s="11"/>
+      <c r="EZ8" s="11"/>
+      <c r="FA8" s="11"/>
+      <c r="FB8" s="11"/>
+      <c r="FC8" s="11"/>
+      <c r="FD8" s="11"/>
+      <c r="FE8" s="11"/>
+      <c r="FF8" s="11"/>
+      <c r="FG8" s="11"/>
+      <c r="FH8" s="11"/>
+      <c r="FI8" s="11"/>
+      <c r="FJ8" s="11"/>
+      <c r="FK8" s="11"/>
+      <c r="FL8" s="11"/>
+      <c r="FM8" s="11"/>
+      <c r="FN8" s="11"/>
+      <c r="FO8" s="11"/>
+      <c r="FP8" s="11"/>
+      <c r="FQ8" s="11"/>
+      <c r="FR8" s="11"/>
+      <c r="FS8" s="11"/>
+      <c r="FT8" s="11"/>
+      <c r="FU8" s="11"/>
+      <c r="FV8" s="11"/>
+      <c r="FW8" s="11"/>
+      <c r="FX8" s="11"/>
+      <c r="FY8" s="11"/>
+      <c r="FZ8" s="11"/>
+      <c r="GA8" s="11"/>
+      <c r="GB8" s="11"/>
+      <c r="GC8" s="11"/>
+      <c r="GD8" s="11"/>
+      <c r="GE8" s="11"/>
+      <c r="GF8" s="11"/>
+      <c r="GG8" s="11"/>
+      <c r="GH8" s="11"/>
+      <c r="GI8" s="11"/>
+      <c r="GJ8" s="11"/>
+      <c r="GK8" s="11"/>
+      <c r="GL8" s="11"/>
+      <c r="GM8" s="11"/>
+      <c r="GN8" s="11"/>
+      <c r="GO8" s="11"/>
+      <c r="GP8" s="11"/>
+      <c r="GQ8" s="11"/>
+      <c r="GR8" s="11"/>
+      <c r="GS8" s="11"/>
+      <c r="GT8" s="11"/>
+      <c r="GU8" s="11"/>
+      <c r="GV8" s="11"/>
+      <c r="GW8" s="11"/>
+      <c r="GX8" s="11"/>
+      <c r="GY8" s="11"/>
+      <c r="GZ8" s="11"/>
+      <c r="HA8" s="11"/>
+      <c r="HB8" s="11"/>
+      <c r="HC8" s="11"/>
+      <c r="HD8" s="11"/>
+      <c r="HE8" s="11"/>
+      <c r="HF8" s="11"/>
+      <c r="HG8" s="11"/>
+      <c r="HH8" s="11"/>
+      <c r="HI8" s="11"/>
+      <c r="HJ8" s="11"/>
+      <c r="HK8" s="11"/>
+      <c r="HL8" s="11"/>
+      <c r="HM8" s="11"/>
+      <c r="HN8" s="11"/>
+      <c r="HO8" s="11"/>
+      <c r="HP8" s="11"/>
+      <c r="HQ8" s="11"/>
+      <c r="HR8" s="11"/>
+      <c r="HS8" s="11"/>
+      <c r="HT8" s="11"/>
+      <c r="HU8" s="11"/>
+      <c r="HV8" s="11"/>
+      <c r="HW8" s="11"/>
+      <c r="HX8" s="11"/>
+      <c r="HY8" s="11"/>
+      <c r="HZ8" s="11"/>
+      <c r="IA8" s="11"/>
+      <c r="IB8" s="11"/>
+      <c r="IC8" s="11"/>
+      <c r="ID8" s="11"/>
+      <c r="IE8" s="11"/>
+      <c r="IF8" s="11"/>
+      <c r="IG8" s="11"/>
+      <c r="IH8" s="11"/>
+      <c r="II8" s="11"/>
+      <c r="IJ8" s="11"/>
+      <c r="IK8" s="11"/>
+      <c r="IL8" s="11"/>
+      <c r="IM8" s="11"/>
+      <c r="IN8" s="11"/>
+      <c r="IO8" s="11"/>
+      <c r="IP8" s="11"/>
+      <c r="IQ8" s="11"/>
+      <c r="IR8" s="11"/>
+      <c r="IS8" s="11"/>
+      <c r="IT8" s="11"/>
+      <c r="IU8" s="11"/>
+      <c r="IV8" s="11"/>
     </row>
-    <row r="9" spans="1:256" s="15" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:256" s="12" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="14"/>
-      <c r="BD9" s="14"/>
-      <c r="BE9" s="14"/>
-      <c r="BF9" s="14"/>
-      <c r="BG9" s="14"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14"/>
-      <c r="BK9" s="14"/>
-      <c r="BL9" s="14"/>
-      <c r="BM9" s="14"/>
-      <c r="BN9" s="14"/>
-      <c r="BO9" s="14"/>
-      <c r="BP9" s="14"/>
-      <c r="BQ9" s="14"/>
-      <c r="BR9" s="14"/>
-      <c r="BS9" s="14"/>
-      <c r="BT9" s="14"/>
-      <c r="BU9" s="14"/>
-      <c r="BV9" s="14"/>
-      <c r="BW9" s="14"/>
-      <c r="BX9" s="14"/>
-      <c r="BY9" s="14"/>
-      <c r="BZ9" s="14"/>
-      <c r="CA9" s="14"/>
-      <c r="CB9" s="14"/>
-      <c r="CC9" s="14"/>
-      <c r="CD9" s="14"/>
-      <c r="CE9" s="14"/>
-      <c r="CF9" s="14"/>
-      <c r="CG9" s="14"/>
-      <c r="CH9" s="14"/>
-      <c r="CI9" s="14"/>
-      <c r="CJ9" s="14"/>
-      <c r="CK9" s="14"/>
-      <c r="CL9" s="14"/>
-      <c r="CM9" s="14"/>
-      <c r="CN9" s="14"/>
-      <c r="CO9" s="14"/>
-      <c r="CP9" s="14"/>
-      <c r="CQ9" s="14"/>
-      <c r="CR9" s="14"/>
-      <c r="CS9" s="14"/>
-      <c r="CT9" s="14"/>
-      <c r="CU9" s="14"/>
-      <c r="CV9" s="14"/>
-      <c r="CW9" s="14"/>
-      <c r="CX9" s="14"/>
-      <c r="CY9" s="14"/>
-      <c r="CZ9" s="14"/>
-      <c r="DA9" s="14"/>
-      <c r="DB9" s="14"/>
-      <c r="DC9" s="14"/>
-      <c r="DD9" s="14"/>
-      <c r="DE9" s="14"/>
-      <c r="DF9" s="14"/>
-      <c r="DG9" s="14"/>
-      <c r="DH9" s="14"/>
-      <c r="DI9" s="14"/>
-      <c r="DJ9" s="14"/>
-      <c r="DK9" s="14"/>
-      <c r="DL9" s="14"/>
-      <c r="DM9" s="14"/>
-      <c r="DN9" s="14"/>
-      <c r="DO9" s="14"/>
-      <c r="DP9" s="14"/>
-      <c r="DQ9" s="14"/>
-      <c r="DR9" s="14"/>
-      <c r="DS9" s="14"/>
-      <c r="DT9" s="14"/>
-      <c r="DU9" s="14"/>
-      <c r="DV9" s="14"/>
-      <c r="DW9" s="14"/>
-      <c r="DX9" s="14"/>
-      <c r="DY9" s="14"/>
-      <c r="DZ9" s="14"/>
-      <c r="EA9" s="14"/>
-      <c r="EB9" s="14"/>
-      <c r="EC9" s="14"/>
-      <c r="ED9" s="14"/>
-      <c r="EE9" s="14"/>
-      <c r="EF9" s="14"/>
-      <c r="EG9" s="14"/>
-      <c r="EH9" s="14"/>
-      <c r="EI9" s="14"/>
-      <c r="EJ9" s="14"/>
-      <c r="EK9" s="14"/>
-      <c r="EL9" s="14"/>
-      <c r="EM9" s="14"/>
-      <c r="EN9" s="14"/>
-      <c r="EO9" s="14"/>
-      <c r="EP9" s="14"/>
-      <c r="EQ9" s="14"/>
-      <c r="ER9" s="14"/>
-      <c r="ES9" s="14"/>
-      <c r="ET9" s="14"/>
-      <c r="EU9" s="14"/>
-      <c r="EV9" s="14"/>
-      <c r="EW9" s="14"/>
-      <c r="EX9" s="14"/>
-      <c r="EY9" s="14"/>
-      <c r="EZ9" s="14"/>
-      <c r="FA9" s="14"/>
-      <c r="FB9" s="14"/>
-      <c r="FC9" s="14"/>
-      <c r="FD9" s="14"/>
-      <c r="FE9" s="14"/>
-      <c r="FF9" s="14"/>
-      <c r="FG9" s="14"/>
-      <c r="FH9" s="14"/>
-      <c r="FI9" s="14"/>
-      <c r="FJ9" s="14"/>
-      <c r="FK9" s="14"/>
-      <c r="FL9" s="14"/>
-      <c r="FM9" s="14"/>
-      <c r="FN9" s="14"/>
-      <c r="FO9" s="14"/>
-      <c r="FP9" s="14"/>
-      <c r="FQ9" s="14"/>
-      <c r="FR9" s="14"/>
-      <c r="FS9" s="14"/>
-      <c r="FT9" s="14"/>
-      <c r="FU9" s="14"/>
-      <c r="FV9" s="14"/>
-      <c r="FW9" s="14"/>
-      <c r="FX9" s="14"/>
-      <c r="FY9" s="14"/>
-      <c r="FZ9" s="14"/>
-      <c r="GA9" s="14"/>
-      <c r="GB9" s="14"/>
-      <c r="GC9" s="14"/>
-      <c r="GD9" s="14"/>
-      <c r="GE9" s="14"/>
-      <c r="GF9" s="14"/>
-      <c r="GG9" s="14"/>
-      <c r="GH9" s="14"/>
-      <c r="GI9" s="14"/>
-      <c r="GJ9" s="14"/>
-      <c r="GK9" s="14"/>
-      <c r="GL9" s="14"/>
-      <c r="GM9" s="14"/>
-      <c r="GN9" s="14"/>
-      <c r="GO9" s="14"/>
-      <c r="GP9" s="14"/>
-      <c r="GQ9" s="14"/>
-      <c r="GR9" s="14"/>
-      <c r="GS9" s="14"/>
-      <c r="GT9" s="14"/>
-      <c r="GU9" s="14"/>
-      <c r="GV9" s="14"/>
-      <c r="GW9" s="14"/>
-      <c r="GX9" s="14"/>
-      <c r="GY9" s="14"/>
-      <c r="GZ9" s="14"/>
-      <c r="HA9" s="14"/>
-      <c r="HB9" s="14"/>
-      <c r="HC9" s="14"/>
-      <c r="HD9" s="14"/>
-      <c r="HE9" s="14"/>
-      <c r="HF9" s="14"/>
-      <c r="HG9" s="14"/>
-      <c r="HH9" s="14"/>
-      <c r="HI9" s="14"/>
-      <c r="HJ9" s="14"/>
-      <c r="HK9" s="14"/>
-      <c r="HL9" s="14"/>
-      <c r="HM9" s="14"/>
-      <c r="HN9" s="14"/>
-      <c r="HO9" s="14"/>
-      <c r="HP9" s="14"/>
-      <c r="HQ9" s="14"/>
-      <c r="HR9" s="14"/>
-      <c r="HS9" s="14"/>
-      <c r="HT9" s="14"/>
-      <c r="HU9" s="14"/>
-      <c r="HV9" s="14"/>
-      <c r="HW9" s="14"/>
-      <c r="HX9" s="14"/>
-      <c r="HY9" s="14"/>
-      <c r="HZ9" s="14"/>
-      <c r="IA9" s="14"/>
-      <c r="IB9" s="14"/>
-      <c r="IC9" s="14"/>
-      <c r="ID9" s="14"/>
-      <c r="IE9" s="14"/>
-      <c r="IF9" s="14"/>
-      <c r="IG9" s="14"/>
-      <c r="IH9" s="14"/>
-      <c r="II9" s="14"/>
-      <c r="IJ9" s="14"/>
-      <c r="IK9" s="14"/>
-      <c r="IL9" s="14"/>
-      <c r="IM9" s="14"/>
-      <c r="IN9" s="14"/>
-      <c r="IO9" s="14"/>
-      <c r="IP9" s="14"/>
-      <c r="IQ9" s="14"/>
-      <c r="IR9" s="14"/>
-      <c r="IS9" s="14"/>
-      <c r="IT9" s="14"/>
-      <c r="IU9" s="14"/>
-      <c r="IV9" s="14"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
+      <c r="BF9" s="11"/>
+      <c r="BG9" s="11"/>
+      <c r="BH9" s="11"/>
+      <c r="BI9" s="11"/>
+      <c r="BJ9" s="11"/>
+      <c r="BK9" s="11"/>
+      <c r="BL9" s="11"/>
+      <c r="BM9" s="11"/>
+      <c r="BN9" s="11"/>
+      <c r="BO9" s="11"/>
+      <c r="BP9" s="11"/>
+      <c r="BQ9" s="11"/>
+      <c r="BR9" s="11"/>
+      <c r="BS9" s="11"/>
+      <c r="BT9" s="11"/>
+      <c r="BU9" s="11"/>
+      <c r="BV9" s="11"/>
+      <c r="BW9" s="11"/>
+      <c r="BX9" s="11"/>
+      <c r="BY9" s="11"/>
+      <c r="BZ9" s="11"/>
+      <c r="CA9" s="11"/>
+      <c r="CB9" s="11"/>
+      <c r="CC9" s="11"/>
+      <c r="CD9" s="11"/>
+      <c r="CE9" s="11"/>
+      <c r="CF9" s="11"/>
+      <c r="CG9" s="11"/>
+      <c r="CH9" s="11"/>
+      <c r="CI9" s="11"/>
+      <c r="CJ9" s="11"/>
+      <c r="CK9" s="11"/>
+      <c r="CL9" s="11"/>
+      <c r="CM9" s="11"/>
+      <c r="CN9" s="11"/>
+      <c r="CO9" s="11"/>
+      <c r="CP9" s="11"/>
+      <c r="CQ9" s="11"/>
+      <c r="CR9" s="11"/>
+      <c r="CS9" s="11"/>
+      <c r="CT9" s="11"/>
+      <c r="CU9" s="11"/>
+      <c r="CV9" s="11"/>
+      <c r="CW9" s="11"/>
+      <c r="CX9" s="11"/>
+      <c r="CY9" s="11"/>
+      <c r="CZ9" s="11"/>
+      <c r="DA9" s="11"/>
+      <c r="DB9" s="11"/>
+      <c r="DC9" s="11"/>
+      <c r="DD9" s="11"/>
+      <c r="DE9" s="11"/>
+      <c r="DF9" s="11"/>
+      <c r="DG9" s="11"/>
+      <c r="DH9" s="11"/>
+      <c r="DI9" s="11"/>
+      <c r="DJ9" s="11"/>
+      <c r="DK9" s="11"/>
+      <c r="DL9" s="11"/>
+      <c r="DM9" s="11"/>
+      <c r="DN9" s="11"/>
+      <c r="DO9" s="11"/>
+      <c r="DP9" s="11"/>
+      <c r="DQ9" s="11"/>
+      <c r="DR9" s="11"/>
+      <c r="DS9" s="11"/>
+      <c r="DT9" s="11"/>
+      <c r="DU9" s="11"/>
+      <c r="DV9" s="11"/>
+      <c r="DW9" s="11"/>
+      <c r="DX9" s="11"/>
+      <c r="DY9" s="11"/>
+      <c r="DZ9" s="11"/>
+      <c r="EA9" s="11"/>
+      <c r="EB9" s="11"/>
+      <c r="EC9" s="11"/>
+      <c r="ED9" s="11"/>
+      <c r="EE9" s="11"/>
+      <c r="EF9" s="11"/>
+      <c r="EG9" s="11"/>
+      <c r="EH9" s="11"/>
+      <c r="EI9" s="11"/>
+      <c r="EJ9" s="11"/>
+      <c r="EK9" s="11"/>
+      <c r="EL9" s="11"/>
+      <c r="EM9" s="11"/>
+      <c r="EN9" s="11"/>
+      <c r="EO9" s="11"/>
+      <c r="EP9" s="11"/>
+      <c r="EQ9" s="11"/>
+      <c r="ER9" s="11"/>
+      <c r="ES9" s="11"/>
+      <c r="ET9" s="11"/>
+      <c r="EU9" s="11"/>
+      <c r="EV9" s="11"/>
+      <c r="EW9" s="11"/>
+      <c r="EX9" s="11"/>
+      <c r="EY9" s="11"/>
+      <c r="EZ9" s="11"/>
+      <c r="FA9" s="11"/>
+      <c r="FB9" s="11"/>
+      <c r="FC9" s="11"/>
+      <c r="FD9" s="11"/>
+      <c r="FE9" s="11"/>
+      <c r="FF9" s="11"/>
+      <c r="FG9" s="11"/>
+      <c r="FH9" s="11"/>
+      <c r="FI9" s="11"/>
+      <c r="FJ9" s="11"/>
+      <c r="FK9" s="11"/>
+      <c r="FL9" s="11"/>
+      <c r="FM9" s="11"/>
+      <c r="FN9" s="11"/>
+      <c r="FO9" s="11"/>
+      <c r="FP9" s="11"/>
+      <c r="FQ9" s="11"/>
+      <c r="FR9" s="11"/>
+      <c r="FS9" s="11"/>
+      <c r="FT9" s="11"/>
+      <c r="FU9" s="11"/>
+      <c r="FV9" s="11"/>
+      <c r="FW9" s="11"/>
+      <c r="FX9" s="11"/>
+      <c r="FY9" s="11"/>
+      <c r="FZ9" s="11"/>
+      <c r="GA9" s="11"/>
+      <c r="GB9" s="11"/>
+      <c r="GC9" s="11"/>
+      <c r="GD9" s="11"/>
+      <c r="GE9" s="11"/>
+      <c r="GF9" s="11"/>
+      <c r="GG9" s="11"/>
+      <c r="GH9" s="11"/>
+      <c r="GI9" s="11"/>
+      <c r="GJ9" s="11"/>
+      <c r="GK9" s="11"/>
+      <c r="GL9" s="11"/>
+      <c r="GM9" s="11"/>
+      <c r="GN9" s="11"/>
+      <c r="GO9" s="11"/>
+      <c r="GP9" s="11"/>
+      <c r="GQ9" s="11"/>
+      <c r="GR9" s="11"/>
+      <c r="GS9" s="11"/>
+      <c r="GT9" s="11"/>
+      <c r="GU9" s="11"/>
+      <c r="GV9" s="11"/>
+      <c r="GW9" s="11"/>
+      <c r="GX9" s="11"/>
+      <c r="GY9" s="11"/>
+      <c r="GZ9" s="11"/>
+      <c r="HA9" s="11"/>
+      <c r="HB9" s="11"/>
+      <c r="HC9" s="11"/>
+      <c r="HD9" s="11"/>
+      <c r="HE9" s="11"/>
+      <c r="HF9" s="11"/>
+      <c r="HG9" s="11"/>
+      <c r="HH9" s="11"/>
+      <c r="HI9" s="11"/>
+      <c r="HJ9" s="11"/>
+      <c r="HK9" s="11"/>
+      <c r="HL9" s="11"/>
+      <c r="HM9" s="11"/>
+      <c r="HN9" s="11"/>
+      <c r="HO9" s="11"/>
+      <c r="HP9" s="11"/>
+      <c r="HQ9" s="11"/>
+      <c r="HR9" s="11"/>
+      <c r="HS9" s="11"/>
+      <c r="HT9" s="11"/>
+      <c r="HU9" s="11"/>
+      <c r="HV9" s="11"/>
+      <c r="HW9" s="11"/>
+      <c r="HX9" s="11"/>
+      <c r="HY9" s="11"/>
+      <c r="HZ9" s="11"/>
+      <c r="IA9" s="11"/>
+      <c r="IB9" s="11"/>
+      <c r="IC9" s="11"/>
+      <c r="ID9" s="11"/>
+      <c r="IE9" s="11"/>
+      <c r="IF9" s="11"/>
+      <c r="IG9" s="11"/>
+      <c r="IH9" s="11"/>
+      <c r="II9" s="11"/>
+      <c r="IJ9" s="11"/>
+      <c r="IK9" s="11"/>
+      <c r="IL9" s="11"/>
+      <c r="IM9" s="11"/>
+      <c r="IN9" s="11"/>
+      <c r="IO9" s="11"/>
+      <c r="IP9" s="11"/>
+      <c r="IQ9" s="11"/>
+      <c r="IR9" s="11"/>
+      <c r="IS9" s="11"/>
+      <c r="IT9" s="11"/>
+      <c r="IU9" s="11"/>
+      <c r="IV9" s="11"/>
     </row>
-    <row r="10" spans="1:256" s="15" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:256" s="12" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="14"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="14"/>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="14"/>
-      <c r="BB10" s="14"/>
-      <c r="BC10" s="14"/>
-      <c r="BD10" s="14"/>
-      <c r="BE10" s="14"/>
-      <c r="BF10" s="14"/>
-      <c r="BG10" s="14"/>
-      <c r="BH10" s="14"/>
-      <c r="BI10" s="14"/>
-      <c r="BJ10" s="14"/>
-      <c r="BK10" s="14"/>
-      <c r="BL10" s="14"/>
-      <c r="BM10" s="14"/>
-      <c r="BN10" s="14"/>
-      <c r="BO10" s="14"/>
-      <c r="BP10" s="14"/>
-      <c r="BQ10" s="14"/>
-      <c r="BR10" s="14"/>
-      <c r="BS10" s="14"/>
-      <c r="BT10" s="14"/>
-      <c r="BU10" s="14"/>
-      <c r="BV10" s="14"/>
-      <c r="BW10" s="14"/>
-      <c r="BX10" s="14"/>
-      <c r="BY10" s="14"/>
-      <c r="BZ10" s="14"/>
-      <c r="CA10" s="14"/>
-      <c r="CB10" s="14"/>
-      <c r="CC10" s="14"/>
-      <c r="CD10" s="14"/>
-      <c r="CE10" s="14"/>
-      <c r="CF10" s="14"/>
-      <c r="CG10" s="14"/>
-      <c r="CH10" s="14"/>
-      <c r="CI10" s="14"/>
-      <c r="CJ10" s="14"/>
-      <c r="CK10" s="14"/>
-      <c r="CL10" s="14"/>
-      <c r="CM10" s="14"/>
-      <c r="CN10" s="14"/>
-      <c r="CO10" s="14"/>
-      <c r="CP10" s="14"/>
-      <c r="CQ10" s="14"/>
-      <c r="CR10" s="14"/>
-      <c r="CS10" s="14"/>
-      <c r="CT10" s="14"/>
-      <c r="CU10" s="14"/>
-      <c r="CV10" s="14"/>
-      <c r="CW10" s="14"/>
-      <c r="CX10" s="14"/>
-      <c r="CY10" s="14"/>
-      <c r="CZ10" s="14"/>
-      <c r="DA10" s="14"/>
-      <c r="DB10" s="14"/>
-      <c r="DC10" s="14"/>
-      <c r="DD10" s="14"/>
-      <c r="DE10" s="14"/>
-      <c r="DF10" s="14"/>
-      <c r="DG10" s="14"/>
-      <c r="DH10" s="14"/>
-      <c r="DI10" s="14"/>
-      <c r="DJ10" s="14"/>
-      <c r="DK10" s="14"/>
-      <c r="DL10" s="14"/>
-      <c r="DM10" s="14"/>
-      <c r="DN10" s="14"/>
-      <c r="DO10" s="14"/>
-      <c r="DP10" s="14"/>
-      <c r="DQ10" s="14"/>
-      <c r="DR10" s="14"/>
-      <c r="DS10" s="14"/>
-      <c r="DT10" s="14"/>
-      <c r="DU10" s="14"/>
-      <c r="DV10" s="14"/>
-      <c r="DW10" s="14"/>
-      <c r="DX10" s="14"/>
-      <c r="DY10" s="14"/>
-      <c r="DZ10" s="14"/>
-      <c r="EA10" s="14"/>
-      <c r="EB10" s="14"/>
-      <c r="EC10" s="14"/>
-      <c r="ED10" s="14"/>
-      <c r="EE10" s="14"/>
-      <c r="EF10" s="14"/>
-      <c r="EG10" s="14"/>
-      <c r="EH10" s="14"/>
-      <c r="EI10" s="14"/>
-      <c r="EJ10" s="14"/>
-      <c r="EK10" s="14"/>
-      <c r="EL10" s="14"/>
-      <c r="EM10" s="14"/>
-      <c r="EN10" s="14"/>
-      <c r="EO10" s="14"/>
-      <c r="EP10" s="14"/>
-      <c r="EQ10" s="14"/>
-      <c r="ER10" s="14"/>
-      <c r="ES10" s="14"/>
-      <c r="ET10" s="14"/>
-      <c r="EU10" s="14"/>
-      <c r="EV10" s="14"/>
-      <c r="EW10" s="14"/>
-      <c r="EX10" s="14"/>
-      <c r="EY10" s="14"/>
-      <c r="EZ10" s="14"/>
-      <c r="FA10" s="14"/>
-      <c r="FB10" s="14"/>
-      <c r="FC10" s="14"/>
-      <c r="FD10" s="14"/>
-      <c r="FE10" s="14"/>
-      <c r="FF10" s="14"/>
-      <c r="FG10" s="14"/>
-      <c r="FH10" s="14"/>
-      <c r="FI10" s="14"/>
-      <c r="FJ10" s="14"/>
-      <c r="FK10" s="14"/>
-      <c r="FL10" s="14"/>
-      <c r="FM10" s="14"/>
-      <c r="FN10" s="14"/>
-      <c r="FO10" s="14"/>
-      <c r="FP10" s="14"/>
-      <c r="FQ10" s="14"/>
-      <c r="FR10" s="14"/>
-      <c r="FS10" s="14"/>
-      <c r="FT10" s="14"/>
-      <c r="FU10" s="14"/>
-      <c r="FV10" s="14"/>
-      <c r="FW10" s="14"/>
-      <c r="FX10" s="14"/>
-      <c r="FY10" s="14"/>
-      <c r="FZ10" s="14"/>
-      <c r="GA10" s="14"/>
-      <c r="GB10" s="14"/>
-      <c r="GC10" s="14"/>
-      <c r="GD10" s="14"/>
-      <c r="GE10" s="14"/>
-      <c r="GF10" s="14"/>
-      <c r="GG10" s="14"/>
-      <c r="GH10" s="14"/>
-      <c r="GI10" s="14"/>
-      <c r="GJ10" s="14"/>
-      <c r="GK10" s="14"/>
-      <c r="GL10" s="14"/>
-      <c r="GM10" s="14"/>
-      <c r="GN10" s="14"/>
-      <c r="GO10" s="14"/>
-      <c r="GP10" s="14"/>
-      <c r="GQ10" s="14"/>
-      <c r="GR10" s="14"/>
-      <c r="GS10" s="14"/>
-      <c r="GT10" s="14"/>
-      <c r="GU10" s="14"/>
-      <c r="GV10" s="14"/>
-      <c r="GW10" s="14"/>
-      <c r="GX10" s="14"/>
-      <c r="GY10" s="14"/>
-      <c r="GZ10" s="14"/>
-      <c r="HA10" s="14"/>
-      <c r="HB10" s="14"/>
-      <c r="HC10" s="14"/>
-      <c r="HD10" s="14"/>
-      <c r="HE10" s="14"/>
-      <c r="HF10" s="14"/>
-      <c r="HG10" s="14"/>
-      <c r="HH10" s="14"/>
-      <c r="HI10" s="14"/>
-      <c r="HJ10" s="14"/>
-      <c r="HK10" s="14"/>
-      <c r="HL10" s="14"/>
-      <c r="HM10" s="14"/>
-      <c r="HN10" s="14"/>
-      <c r="HO10" s="14"/>
-      <c r="HP10" s="14"/>
-      <c r="HQ10" s="14"/>
-      <c r="HR10" s="14"/>
-      <c r="HS10" s="14"/>
-      <c r="HT10" s="14"/>
-      <c r="HU10" s="14"/>
-      <c r="HV10" s="14"/>
-      <c r="HW10" s="14"/>
-      <c r="HX10" s="14"/>
-      <c r="HY10" s="14"/>
-      <c r="HZ10" s="14"/>
-      <c r="IA10" s="14"/>
-      <c r="IB10" s="14"/>
-      <c r="IC10" s="14"/>
-      <c r="ID10" s="14"/>
-      <c r="IE10" s="14"/>
-      <c r="IF10" s="14"/>
-      <c r="IG10" s="14"/>
-      <c r="IH10" s="14"/>
-      <c r="II10" s="14"/>
-      <c r="IJ10" s="14"/>
-      <c r="IK10" s="14"/>
-      <c r="IL10" s="14"/>
-      <c r="IM10" s="14"/>
-      <c r="IN10" s="14"/>
-      <c r="IO10" s="14"/>
-      <c r="IP10" s="14"/>
-      <c r="IQ10" s="14"/>
-      <c r="IR10" s="14"/>
-      <c r="IS10" s="14"/>
-      <c r="IT10" s="14"/>
-      <c r="IU10" s="14"/>
-      <c r="IV10" s="14"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="11"/>
+      <c r="BF10" s="11"/>
+      <c r="BG10" s="11"/>
+      <c r="BH10" s="11"/>
+      <c r="BI10" s="11"/>
+      <c r="BJ10" s="11"/>
+      <c r="BK10" s="11"/>
+      <c r="BL10" s="11"/>
+      <c r="BM10" s="11"/>
+      <c r="BN10" s="11"/>
+      <c r="BO10" s="11"/>
+      <c r="BP10" s="11"/>
+      <c r="BQ10" s="11"/>
+      <c r="BR10" s="11"/>
+      <c r="BS10" s="11"/>
+      <c r="BT10" s="11"/>
+      <c r="BU10" s="11"/>
+      <c r="BV10" s="11"/>
+      <c r="BW10" s="11"/>
+      <c r="BX10" s="11"/>
+      <c r="BY10" s="11"/>
+      <c r="BZ10" s="11"/>
+      <c r="CA10" s="11"/>
+      <c r="CB10" s="11"/>
+      <c r="CC10" s="11"/>
+      <c r="CD10" s="11"/>
+      <c r="CE10" s="11"/>
+      <c r="CF10" s="11"/>
+      <c r="CG10" s="11"/>
+      <c r="CH10" s="11"/>
+      <c r="CI10" s="11"/>
+      <c r="CJ10" s="11"/>
+      <c r="CK10" s="11"/>
+      <c r="CL10" s="11"/>
+      <c r="CM10" s="11"/>
+      <c r="CN10" s="11"/>
+      <c r="CO10" s="11"/>
+      <c r="CP10" s="11"/>
+      <c r="CQ10" s="11"/>
+      <c r="CR10" s="11"/>
+      <c r="CS10" s="11"/>
+      <c r="CT10" s="11"/>
+      <c r="CU10" s="11"/>
+      <c r="CV10" s="11"/>
+      <c r="CW10" s="11"/>
+      <c r="CX10" s="11"/>
+      <c r="CY10" s="11"/>
+      <c r="CZ10" s="11"/>
+      <c r="DA10" s="11"/>
+      <c r="DB10" s="11"/>
+      <c r="DC10" s="11"/>
+      <c r="DD10" s="11"/>
+      <c r="DE10" s="11"/>
+      <c r="DF10" s="11"/>
+      <c r="DG10" s="11"/>
+      <c r="DH10" s="11"/>
+      <c r="DI10" s="11"/>
+      <c r="DJ10" s="11"/>
+      <c r="DK10" s="11"/>
+      <c r="DL10" s="11"/>
+      <c r="DM10" s="11"/>
+      <c r="DN10" s="11"/>
+      <c r="DO10" s="11"/>
+      <c r="DP10" s="11"/>
+      <c r="DQ10" s="11"/>
+      <c r="DR10" s="11"/>
+      <c r="DS10" s="11"/>
+      <c r="DT10" s="11"/>
+      <c r="DU10" s="11"/>
+      <c r="DV10" s="11"/>
+      <c r="DW10" s="11"/>
+      <c r="DX10" s="11"/>
+      <c r="DY10" s="11"/>
+      <c r="DZ10" s="11"/>
+      <c r="EA10" s="11"/>
+      <c r="EB10" s="11"/>
+      <c r="EC10" s="11"/>
+      <c r="ED10" s="11"/>
+      <c r="EE10" s="11"/>
+      <c r="EF10" s="11"/>
+      <c r="EG10" s="11"/>
+      <c r="EH10" s="11"/>
+      <c r="EI10" s="11"/>
+      <c r="EJ10" s="11"/>
+      <c r="EK10" s="11"/>
+      <c r="EL10" s="11"/>
+      <c r="EM10" s="11"/>
+      <c r="EN10" s="11"/>
+      <c r="EO10" s="11"/>
+      <c r="EP10" s="11"/>
+      <c r="EQ10" s="11"/>
+      <c r="ER10" s="11"/>
+      <c r="ES10" s="11"/>
+      <c r="ET10" s="11"/>
+      <c r="EU10" s="11"/>
+      <c r="EV10" s="11"/>
+      <c r="EW10" s="11"/>
+      <c r="EX10" s="11"/>
+      <c r="EY10" s="11"/>
+      <c r="EZ10" s="11"/>
+      <c r="FA10" s="11"/>
+      <c r="FB10" s="11"/>
+      <c r="FC10" s="11"/>
+      <c r="FD10" s="11"/>
+      <c r="FE10" s="11"/>
+      <c r="FF10" s="11"/>
+      <c r="FG10" s="11"/>
+      <c r="FH10" s="11"/>
+      <c r="FI10" s="11"/>
+      <c r="FJ10" s="11"/>
+      <c r="FK10" s="11"/>
+      <c r="FL10" s="11"/>
+      <c r="FM10" s="11"/>
+      <c r="FN10" s="11"/>
+      <c r="FO10" s="11"/>
+      <c r="FP10" s="11"/>
+      <c r="FQ10" s="11"/>
+      <c r="FR10" s="11"/>
+      <c r="FS10" s="11"/>
+      <c r="FT10" s="11"/>
+      <c r="FU10" s="11"/>
+      <c r="FV10" s="11"/>
+      <c r="FW10" s="11"/>
+      <c r="FX10" s="11"/>
+      <c r="FY10" s="11"/>
+      <c r="FZ10" s="11"/>
+      <c r="GA10" s="11"/>
+      <c r="GB10" s="11"/>
+      <c r="GC10" s="11"/>
+      <c r="GD10" s="11"/>
+      <c r="GE10" s="11"/>
+      <c r="GF10" s="11"/>
+      <c r="GG10" s="11"/>
+      <c r="GH10" s="11"/>
+      <c r="GI10" s="11"/>
+      <c r="GJ10" s="11"/>
+      <c r="GK10" s="11"/>
+      <c r="GL10" s="11"/>
+      <c r="GM10" s="11"/>
+      <c r="GN10" s="11"/>
+      <c r="GO10" s="11"/>
+      <c r="GP10" s="11"/>
+      <c r="GQ10" s="11"/>
+      <c r="GR10" s="11"/>
+      <c r="GS10" s="11"/>
+      <c r="GT10" s="11"/>
+      <c r="GU10" s="11"/>
+      <c r="GV10" s="11"/>
+      <c r="GW10" s="11"/>
+      <c r="GX10" s="11"/>
+      <c r="GY10" s="11"/>
+      <c r="GZ10" s="11"/>
+      <c r="HA10" s="11"/>
+      <c r="HB10" s="11"/>
+      <c r="HC10" s="11"/>
+      <c r="HD10" s="11"/>
+      <c r="HE10" s="11"/>
+      <c r="HF10" s="11"/>
+      <c r="HG10" s="11"/>
+      <c r="HH10" s="11"/>
+      <c r="HI10" s="11"/>
+      <c r="HJ10" s="11"/>
+      <c r="HK10" s="11"/>
+      <c r="HL10" s="11"/>
+      <c r="HM10" s="11"/>
+      <c r="HN10" s="11"/>
+      <c r="HO10" s="11"/>
+      <c r="HP10" s="11"/>
+      <c r="HQ10" s="11"/>
+      <c r="HR10" s="11"/>
+      <c r="HS10" s="11"/>
+      <c r="HT10" s="11"/>
+      <c r="HU10" s="11"/>
+      <c r="HV10" s="11"/>
+      <c r="HW10" s="11"/>
+      <c r="HX10" s="11"/>
+      <c r="HY10" s="11"/>
+      <c r="HZ10" s="11"/>
+      <c r="IA10" s="11"/>
+      <c r="IB10" s="11"/>
+      <c r="IC10" s="11"/>
+      <c r="ID10" s="11"/>
+      <c r="IE10" s="11"/>
+      <c r="IF10" s="11"/>
+      <c r="IG10" s="11"/>
+      <c r="IH10" s="11"/>
+      <c r="II10" s="11"/>
+      <c r="IJ10" s="11"/>
+      <c r="IK10" s="11"/>
+      <c r="IL10" s="11"/>
+      <c r="IM10" s="11"/>
+      <c r="IN10" s="11"/>
+      <c r="IO10" s="11"/>
+      <c r="IP10" s="11"/>
+      <c r="IQ10" s="11"/>
+      <c r="IR10" s="11"/>
+      <c r="IS10" s="11"/>
+      <c r="IT10" s="11"/>
+      <c r="IU10" s="11"/>
+      <c r="IV10" s="11"/>
     </row>
     <row r="11" spans="1:256" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:256" s="12" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="11"/>
+      <c r="BF12" s="11"/>
+      <c r="BG12" s="11"/>
+      <c r="BH12" s="11"/>
+      <c r="BI12" s="11"/>
+      <c r="BJ12" s="11"/>
+      <c r="BK12" s="11"/>
+      <c r="BL12" s="11"/>
+      <c r="BM12" s="11"/>
+      <c r="BN12" s="11"/>
+      <c r="BO12" s="11"/>
+      <c r="BP12" s="11"/>
+      <c r="BQ12" s="11"/>
+      <c r="BR12" s="11"/>
+      <c r="BS12" s="11"/>
+      <c r="BT12" s="11"/>
+      <c r="BU12" s="11"/>
+      <c r="BV12" s="11"/>
+      <c r="BW12" s="11"/>
+      <c r="BX12" s="11"/>
+      <c r="BY12" s="11"/>
+      <c r="BZ12" s="11"/>
+      <c r="CA12" s="11"/>
+      <c r="CB12" s="11"/>
+      <c r="CC12" s="11"/>
+      <c r="CD12" s="11"/>
+      <c r="CE12" s="11"/>
+      <c r="CF12" s="11"/>
+      <c r="CG12" s="11"/>
+      <c r="CH12" s="11"/>
+      <c r="CI12" s="11"/>
+      <c r="CJ12" s="11"/>
+      <c r="CK12" s="11"/>
+      <c r="CL12" s="11"/>
+      <c r="CM12" s="11"/>
+      <c r="CN12" s="11"/>
+      <c r="CO12" s="11"/>
+      <c r="CP12" s="11"/>
+      <c r="CQ12" s="11"/>
+      <c r="CR12" s="11"/>
+      <c r="CS12" s="11"/>
+      <c r="CT12" s="11"/>
+      <c r="CU12" s="11"/>
+      <c r="CV12" s="11"/>
+      <c r="CW12" s="11"/>
+      <c r="CX12" s="11"/>
+      <c r="CY12" s="11"/>
+      <c r="CZ12" s="11"/>
+      <c r="DA12" s="11"/>
+      <c r="DB12" s="11"/>
+      <c r="DC12" s="11"/>
+      <c r="DD12" s="11"/>
+      <c r="DE12" s="11"/>
+      <c r="DF12" s="11"/>
+      <c r="DG12" s="11"/>
+      <c r="DH12" s="11"/>
+      <c r="DI12" s="11"/>
+      <c r="DJ12" s="11"/>
+      <c r="DK12" s="11"/>
+      <c r="DL12" s="11"/>
+      <c r="DM12" s="11"/>
+      <c r="DN12" s="11"/>
+      <c r="DO12" s="11"/>
+      <c r="DP12" s="11"/>
+      <c r="DQ12" s="11"/>
+      <c r="DR12" s="11"/>
+      <c r="DS12" s="11"/>
+      <c r="DT12" s="11"/>
+      <c r="DU12" s="11"/>
+      <c r="DV12" s="11"/>
+      <c r="DW12" s="11"/>
+      <c r="DX12" s="11"/>
+      <c r="DY12" s="11"/>
+      <c r="DZ12" s="11"/>
+      <c r="EA12" s="11"/>
+      <c r="EB12" s="11"/>
+      <c r="EC12" s="11"/>
+      <c r="ED12" s="11"/>
+      <c r="EE12" s="11"/>
+      <c r="EF12" s="11"/>
+      <c r="EG12" s="11"/>
+      <c r="EH12" s="11"/>
+      <c r="EI12" s="11"/>
+      <c r="EJ12" s="11"/>
+      <c r="EK12" s="11"/>
+      <c r="EL12" s="11"/>
+      <c r="EM12" s="11"/>
+      <c r="EN12" s="11"/>
+      <c r="EO12" s="11"/>
+      <c r="EP12" s="11"/>
+      <c r="EQ12" s="11"/>
+      <c r="ER12" s="11"/>
+      <c r="ES12" s="11"/>
+      <c r="ET12" s="11"/>
+      <c r="EU12" s="11"/>
+      <c r="EV12" s="11"/>
+      <c r="EW12" s="11"/>
+      <c r="EX12" s="11"/>
+      <c r="EY12" s="11"/>
+      <c r="EZ12" s="11"/>
+      <c r="FA12" s="11"/>
+      <c r="FB12" s="11"/>
+      <c r="FC12" s="11"/>
+      <c r="FD12" s="11"/>
+      <c r="FE12" s="11"/>
+      <c r="FF12" s="11"/>
+      <c r="FG12" s="11"/>
+      <c r="FH12" s="11"/>
+      <c r="FI12" s="11"/>
+      <c r="FJ12" s="11"/>
+      <c r="FK12" s="11"/>
+      <c r="FL12" s="11"/>
+      <c r="FM12" s="11"/>
+      <c r="FN12" s="11"/>
+      <c r="FO12" s="11"/>
+      <c r="FP12" s="11"/>
+      <c r="FQ12" s="11"/>
+      <c r="FR12" s="11"/>
+      <c r="FS12" s="11"/>
+      <c r="FT12" s="11"/>
+      <c r="FU12" s="11"/>
+      <c r="FV12" s="11"/>
+      <c r="FW12" s="11"/>
+      <c r="FX12" s="11"/>
+      <c r="FY12" s="11"/>
+      <c r="FZ12" s="11"/>
+      <c r="GA12" s="11"/>
+      <c r="GB12" s="11"/>
+      <c r="GC12" s="11"/>
+      <c r="GD12" s="11"/>
+      <c r="GE12" s="11"/>
+      <c r="GF12" s="11"/>
+      <c r="GG12" s="11"/>
+      <c r="GH12" s="11"/>
+      <c r="GI12" s="11"/>
+      <c r="GJ12" s="11"/>
+      <c r="GK12" s="11"/>
+      <c r="GL12" s="11"/>
+      <c r="GM12" s="11"/>
+      <c r="GN12" s="11"/>
+      <c r="GO12" s="11"/>
+      <c r="GP12" s="11"/>
+      <c r="GQ12" s="11"/>
+      <c r="GR12" s="11"/>
+      <c r="GS12" s="11"/>
+      <c r="GT12" s="11"/>
+      <c r="GU12" s="11"/>
+      <c r="GV12" s="11"/>
+      <c r="GW12" s="11"/>
+      <c r="GX12" s="11"/>
+      <c r="GY12" s="11"/>
+      <c r="GZ12" s="11"/>
+      <c r="HA12" s="11"/>
+      <c r="HB12" s="11"/>
+      <c r="HC12" s="11"/>
+      <c r="HD12" s="11"/>
+      <c r="HE12" s="11"/>
+      <c r="HF12" s="11"/>
+      <c r="HG12" s="11"/>
+      <c r="HH12" s="11"/>
+      <c r="HI12" s="11"/>
+      <c r="HJ12" s="11"/>
+      <c r="HK12" s="11"/>
+      <c r="HL12" s="11"/>
+      <c r="HM12" s="11"/>
+      <c r="HN12" s="11"/>
+      <c r="HO12" s="11"/>
+      <c r="HP12" s="11"/>
+      <c r="HQ12" s="11"/>
+      <c r="HR12" s="11"/>
+      <c r="HS12" s="11"/>
+      <c r="HT12" s="11"/>
+      <c r="HU12" s="11"/>
+      <c r="HV12" s="11"/>
+      <c r="HW12" s="11"/>
+      <c r="HX12" s="11"/>
+      <c r="HY12" s="11"/>
+      <c r="HZ12" s="11"/>
+      <c r="IA12" s="11"/>
+      <c r="IB12" s="11"/>
+      <c r="IC12" s="11"/>
+      <c r="ID12" s="11"/>
+      <c r="IE12" s="11"/>
+      <c r="IF12" s="11"/>
+      <c r="IG12" s="11"/>
+      <c r="IH12" s="11"/>
+      <c r="II12" s="11"/>
+      <c r="IJ12" s="11"/>
+      <c r="IK12" s="11"/>
+      <c r="IL12" s="11"/>
+      <c r="IM12" s="11"/>
+      <c r="IN12" s="11"/>
+      <c r="IO12" s="11"/>
+      <c r="IP12" s="11"/>
+      <c r="IQ12" s="11"/>
+      <c r="IR12" s="11"/>
+      <c r="IS12" s="11"/>
+      <c r="IT12" s="11"/>
+      <c r="IU12" s="11"/>
+      <c r="IV12" s="11"/>
     </row>
     <row r="13" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:256" s="15" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:256" s="12" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="14"/>
-      <c r="AV16" s="14"/>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="14"/>
-      <c r="AY16" s="14"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="14"/>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
-      <c r="BD16" s="14"/>
-      <c r="BE16" s="14"/>
-      <c r="BF16" s="14"/>
-      <c r="BG16" s="14"/>
-      <c r="BH16" s="14"/>
-      <c r="BI16" s="14"/>
-      <c r="BJ16" s="14"/>
-      <c r="BK16" s="14"/>
-      <c r="BL16" s="14"/>
-      <c r="BM16" s="14"/>
-      <c r="BN16" s="14"/>
-      <c r="BO16" s="14"/>
-      <c r="BP16" s="14"/>
-      <c r="BQ16" s="14"/>
-      <c r="BR16" s="14"/>
-      <c r="BS16" s="14"/>
-      <c r="BT16" s="14"/>
-      <c r="BU16" s="14"/>
-      <c r="BV16" s="14"/>
-      <c r="BW16" s="14"/>
-      <c r="BX16" s="14"/>
-      <c r="BY16" s="14"/>
-      <c r="BZ16" s="14"/>
-      <c r="CA16" s="14"/>
-      <c r="CB16" s="14"/>
-      <c r="CC16" s="14"/>
-      <c r="CD16" s="14"/>
-      <c r="CE16" s="14"/>
-      <c r="CF16" s="14"/>
-      <c r="CG16" s="14"/>
-      <c r="CH16" s="14"/>
-      <c r="CI16" s="14"/>
-      <c r="CJ16" s="14"/>
-      <c r="CK16" s="14"/>
-      <c r="CL16" s="14"/>
-      <c r="CM16" s="14"/>
-      <c r="CN16" s="14"/>
-      <c r="CO16" s="14"/>
-      <c r="CP16" s="14"/>
-      <c r="CQ16" s="14"/>
-      <c r="CR16" s="14"/>
-      <c r="CS16" s="14"/>
-      <c r="CT16" s="14"/>
-      <c r="CU16" s="14"/>
-      <c r="CV16" s="14"/>
-      <c r="CW16" s="14"/>
-      <c r="CX16" s="14"/>
-      <c r="CY16" s="14"/>
-      <c r="CZ16" s="14"/>
-      <c r="DA16" s="14"/>
-      <c r="DB16" s="14"/>
-      <c r="DC16" s="14"/>
-      <c r="DD16" s="14"/>
-      <c r="DE16" s="14"/>
-      <c r="DF16" s="14"/>
-      <c r="DG16" s="14"/>
-      <c r="DH16" s="14"/>
-      <c r="DI16" s="14"/>
-      <c r="DJ16" s="14"/>
-      <c r="DK16" s="14"/>
-      <c r="DL16" s="14"/>
-      <c r="DM16" s="14"/>
-      <c r="DN16" s="14"/>
-      <c r="DO16" s="14"/>
-      <c r="DP16" s="14"/>
-      <c r="DQ16" s="14"/>
-      <c r="DR16" s="14"/>
-      <c r="DS16" s="14"/>
-      <c r="DT16" s="14"/>
-      <c r="DU16" s="14"/>
-      <c r="DV16" s="14"/>
-      <c r="DW16" s="14"/>
-      <c r="DX16" s="14"/>
-      <c r="DY16" s="14"/>
-      <c r="DZ16" s="14"/>
-      <c r="EA16" s="14"/>
-      <c r="EB16" s="14"/>
-      <c r="EC16" s="14"/>
-      <c r="ED16" s="14"/>
-      <c r="EE16" s="14"/>
-      <c r="EF16" s="14"/>
-      <c r="EG16" s="14"/>
-      <c r="EH16" s="14"/>
-      <c r="EI16" s="14"/>
-      <c r="EJ16" s="14"/>
-      <c r="EK16" s="14"/>
-      <c r="EL16" s="14"/>
-      <c r="EM16" s="14"/>
-      <c r="EN16" s="14"/>
-      <c r="EO16" s="14"/>
-      <c r="EP16" s="14"/>
-      <c r="EQ16" s="14"/>
-      <c r="ER16" s="14"/>
-      <c r="ES16" s="14"/>
-      <c r="ET16" s="14"/>
-      <c r="EU16" s="14"/>
-      <c r="EV16" s="14"/>
-      <c r="EW16" s="14"/>
-      <c r="EX16" s="14"/>
-      <c r="EY16" s="14"/>
-      <c r="EZ16" s="14"/>
-      <c r="FA16" s="14"/>
-      <c r="FB16" s="14"/>
-      <c r="FC16" s="14"/>
-      <c r="FD16" s="14"/>
-      <c r="FE16" s="14"/>
-      <c r="FF16" s="14"/>
-      <c r="FG16" s="14"/>
-      <c r="FH16" s="14"/>
-      <c r="FI16" s="14"/>
-      <c r="FJ16" s="14"/>
-      <c r="FK16" s="14"/>
-      <c r="FL16" s="14"/>
-      <c r="FM16" s="14"/>
-      <c r="FN16" s="14"/>
-      <c r="FO16" s="14"/>
-      <c r="FP16" s="14"/>
-      <c r="FQ16" s="14"/>
-      <c r="FR16" s="14"/>
-      <c r="FS16" s="14"/>
-      <c r="FT16" s="14"/>
-      <c r="FU16" s="14"/>
-      <c r="FV16" s="14"/>
-      <c r="FW16" s="14"/>
-      <c r="FX16" s="14"/>
-      <c r="FY16" s="14"/>
-      <c r="FZ16" s="14"/>
-      <c r="GA16" s="14"/>
-      <c r="GB16" s="14"/>
-      <c r="GC16" s="14"/>
-      <c r="GD16" s="14"/>
-      <c r="GE16" s="14"/>
-      <c r="GF16" s="14"/>
-      <c r="GG16" s="14"/>
-      <c r="GH16" s="14"/>
-      <c r="GI16" s="14"/>
-      <c r="GJ16" s="14"/>
-      <c r="GK16" s="14"/>
-      <c r="GL16" s="14"/>
-      <c r="GM16" s="14"/>
-      <c r="GN16" s="14"/>
-      <c r="GO16" s="14"/>
-      <c r="GP16" s="14"/>
-      <c r="GQ16" s="14"/>
-      <c r="GR16" s="14"/>
-      <c r="GS16" s="14"/>
-      <c r="GT16" s="14"/>
-      <c r="GU16" s="14"/>
-      <c r="GV16" s="14"/>
-      <c r="GW16" s="14"/>
-      <c r="GX16" s="14"/>
-      <c r="GY16" s="14"/>
-      <c r="GZ16" s="14"/>
-      <c r="HA16" s="14"/>
-      <c r="HB16" s="14"/>
-      <c r="HC16" s="14"/>
-      <c r="HD16" s="14"/>
-      <c r="HE16" s="14"/>
-      <c r="HF16" s="14"/>
-      <c r="HG16" s="14"/>
-      <c r="HH16" s="14"/>
-      <c r="HI16" s="14"/>
-      <c r="HJ16" s="14"/>
-      <c r="HK16" s="14"/>
-      <c r="HL16" s="14"/>
-      <c r="HM16" s="14"/>
-      <c r="HN16" s="14"/>
-      <c r="HO16" s="14"/>
-      <c r="HP16" s="14"/>
-      <c r="HQ16" s="14"/>
-      <c r="HR16" s="14"/>
-      <c r="HS16" s="14"/>
-      <c r="HT16" s="14"/>
-      <c r="HU16" s="14"/>
-      <c r="HV16" s="14"/>
-      <c r="HW16" s="14"/>
-      <c r="HX16" s="14"/>
-      <c r="HY16" s="14"/>
-      <c r="HZ16" s="14"/>
-      <c r="IA16" s="14"/>
-      <c r="IB16" s="14"/>
-      <c r="IC16" s="14"/>
-      <c r="ID16" s="14"/>
-      <c r="IE16" s="14"/>
-      <c r="IF16" s="14"/>
-      <c r="IG16" s="14"/>
-      <c r="IH16" s="14"/>
-      <c r="II16" s="14"/>
-      <c r="IJ16" s="14"/>
-      <c r="IK16" s="14"/>
-      <c r="IL16" s="14"/>
-      <c r="IM16" s="14"/>
-      <c r="IN16" s="14"/>
-      <c r="IO16" s="14"/>
-      <c r="IP16" s="14"/>
-      <c r="IQ16" s="14"/>
-      <c r="IR16" s="14"/>
-      <c r="IS16" s="14"/>
-      <c r="IT16" s="14"/>
-      <c r="IU16" s="14"/>
-      <c r="IV16" s="14"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
+      <c r="BF16" s="11"/>
+      <c r="BG16" s="11"/>
+      <c r="BH16" s="11"/>
+      <c r="BI16" s="11"/>
+      <c r="BJ16" s="11"/>
+      <c r="BK16" s="11"/>
+      <c r="BL16" s="11"/>
+      <c r="BM16" s="11"/>
+      <c r="BN16" s="11"/>
+      <c r="BO16" s="11"/>
+      <c r="BP16" s="11"/>
+      <c r="BQ16" s="11"/>
+      <c r="BR16" s="11"/>
+      <c r="BS16" s="11"/>
+      <c r="BT16" s="11"/>
+      <c r="BU16" s="11"/>
+      <c r="BV16" s="11"/>
+      <c r="BW16" s="11"/>
+      <c r="BX16" s="11"/>
+      <c r="BY16" s="11"/>
+      <c r="BZ16" s="11"/>
+      <c r="CA16" s="11"/>
+      <c r="CB16" s="11"/>
+      <c r="CC16" s="11"/>
+      <c r="CD16" s="11"/>
+      <c r="CE16" s="11"/>
+      <c r="CF16" s="11"/>
+      <c r="CG16" s="11"/>
+      <c r="CH16" s="11"/>
+      <c r="CI16" s="11"/>
+      <c r="CJ16" s="11"/>
+      <c r="CK16" s="11"/>
+      <c r="CL16" s="11"/>
+      <c r="CM16" s="11"/>
+      <c r="CN16" s="11"/>
+      <c r="CO16" s="11"/>
+      <c r="CP16" s="11"/>
+      <c r="CQ16" s="11"/>
+      <c r="CR16" s="11"/>
+      <c r="CS16" s="11"/>
+      <c r="CT16" s="11"/>
+      <c r="CU16" s="11"/>
+      <c r="CV16" s="11"/>
+      <c r="CW16" s="11"/>
+      <c r="CX16" s="11"/>
+      <c r="CY16" s="11"/>
+      <c r="CZ16" s="11"/>
+      <c r="DA16" s="11"/>
+      <c r="DB16" s="11"/>
+      <c r="DC16" s="11"/>
+      <c r="DD16" s="11"/>
+      <c r="DE16" s="11"/>
+      <c r="DF16" s="11"/>
+      <c r="DG16" s="11"/>
+      <c r="DH16" s="11"/>
+      <c r="DI16" s="11"/>
+      <c r="DJ16" s="11"/>
+      <c r="DK16" s="11"/>
+      <c r="DL16" s="11"/>
+      <c r="DM16" s="11"/>
+      <c r="DN16" s="11"/>
+      <c r="DO16" s="11"/>
+      <c r="DP16" s="11"/>
+      <c r="DQ16" s="11"/>
+      <c r="DR16" s="11"/>
+      <c r="DS16" s="11"/>
+      <c r="DT16" s="11"/>
+      <c r="DU16" s="11"/>
+      <c r="DV16" s="11"/>
+      <c r="DW16" s="11"/>
+      <c r="DX16" s="11"/>
+      <c r="DY16" s="11"/>
+      <c r="DZ16" s="11"/>
+      <c r="EA16" s="11"/>
+      <c r="EB16" s="11"/>
+      <c r="EC16" s="11"/>
+      <c r="ED16" s="11"/>
+      <c r="EE16" s="11"/>
+      <c r="EF16" s="11"/>
+      <c r="EG16" s="11"/>
+      <c r="EH16" s="11"/>
+      <c r="EI16" s="11"/>
+      <c r="EJ16" s="11"/>
+      <c r="EK16" s="11"/>
+      <c r="EL16" s="11"/>
+      <c r="EM16" s="11"/>
+      <c r="EN16" s="11"/>
+      <c r="EO16" s="11"/>
+      <c r="EP16" s="11"/>
+      <c r="EQ16" s="11"/>
+      <c r="ER16" s="11"/>
+      <c r="ES16" s="11"/>
+      <c r="ET16" s="11"/>
+      <c r="EU16" s="11"/>
+      <c r="EV16" s="11"/>
+      <c r="EW16" s="11"/>
+      <c r="EX16" s="11"/>
+      <c r="EY16" s="11"/>
+      <c r="EZ16" s="11"/>
+      <c r="FA16" s="11"/>
+      <c r="FB16" s="11"/>
+      <c r="FC16" s="11"/>
+      <c r="FD16" s="11"/>
+      <c r="FE16" s="11"/>
+      <c r="FF16" s="11"/>
+      <c r="FG16" s="11"/>
+      <c r="FH16" s="11"/>
+      <c r="FI16" s="11"/>
+      <c r="FJ16" s="11"/>
+      <c r="FK16" s="11"/>
+      <c r="FL16" s="11"/>
+      <c r="FM16" s="11"/>
+      <c r="FN16" s="11"/>
+      <c r="FO16" s="11"/>
+      <c r="FP16" s="11"/>
+      <c r="FQ16" s="11"/>
+      <c r="FR16" s="11"/>
+      <c r="FS16" s="11"/>
+      <c r="FT16" s="11"/>
+      <c r="FU16" s="11"/>
+      <c r="FV16" s="11"/>
+      <c r="FW16" s="11"/>
+      <c r="FX16" s="11"/>
+      <c r="FY16" s="11"/>
+      <c r="FZ16" s="11"/>
+      <c r="GA16" s="11"/>
+      <c r="GB16" s="11"/>
+      <c r="GC16" s="11"/>
+      <c r="GD16" s="11"/>
+      <c r="GE16" s="11"/>
+      <c r="GF16" s="11"/>
+      <c r="GG16" s="11"/>
+      <c r="GH16" s="11"/>
+      <c r="GI16" s="11"/>
+      <c r="GJ16" s="11"/>
+      <c r="GK16" s="11"/>
+      <c r="GL16" s="11"/>
+      <c r="GM16" s="11"/>
+      <c r="GN16" s="11"/>
+      <c r="GO16" s="11"/>
+      <c r="GP16" s="11"/>
+      <c r="GQ16" s="11"/>
+      <c r="GR16" s="11"/>
+      <c r="GS16" s="11"/>
+      <c r="GT16" s="11"/>
+      <c r="GU16" s="11"/>
+      <c r="GV16" s="11"/>
+      <c r="GW16" s="11"/>
+      <c r="GX16" s="11"/>
+      <c r="GY16" s="11"/>
+      <c r="GZ16" s="11"/>
+      <c r="HA16" s="11"/>
+      <c r="HB16" s="11"/>
+      <c r="HC16" s="11"/>
+      <c r="HD16" s="11"/>
+      <c r="HE16" s="11"/>
+      <c r="HF16" s="11"/>
+      <c r="HG16" s="11"/>
+      <c r="HH16" s="11"/>
+      <c r="HI16" s="11"/>
+      <c r="HJ16" s="11"/>
+      <c r="HK16" s="11"/>
+      <c r="HL16" s="11"/>
+      <c r="HM16" s="11"/>
+      <c r="HN16" s="11"/>
+      <c r="HO16" s="11"/>
+      <c r="HP16" s="11"/>
+      <c r="HQ16" s="11"/>
+      <c r="HR16" s="11"/>
+      <c r="HS16" s="11"/>
+      <c r="HT16" s="11"/>
+      <c r="HU16" s="11"/>
+      <c r="HV16" s="11"/>
+      <c r="HW16" s="11"/>
+      <c r="HX16" s="11"/>
+      <c r="HY16" s="11"/>
+      <c r="HZ16" s="11"/>
+      <c r="IA16" s="11"/>
+      <c r="IB16" s="11"/>
+      <c r="IC16" s="11"/>
+      <c r="ID16" s="11"/>
+      <c r="IE16" s="11"/>
+      <c r="IF16" s="11"/>
+      <c r="IG16" s="11"/>
+      <c r="IH16" s="11"/>
+      <c r="II16" s="11"/>
+      <c r="IJ16" s="11"/>
+      <c r="IK16" s="11"/>
+      <c r="IL16" s="11"/>
+      <c r="IM16" s="11"/>
+      <c r="IN16" s="11"/>
+      <c r="IO16" s="11"/>
+      <c r="IP16" s="11"/>
+      <c r="IQ16" s="11"/>
+      <c r="IR16" s="11"/>
+      <c r="IS16" s="11"/>
+      <c r="IT16" s="11"/>
+      <c r="IU16" s="11"/>
+      <c r="IV16" s="11"/>
     </row>
     <row r="17" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:256" s="20" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:256" s="17" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="19"/>
-      <c r="AU18" s="19"/>
-      <c r="AV18" s="19"/>
-      <c r="AW18" s="19"/>
-      <c r="AX18" s="19"/>
-      <c r="AY18" s="19"/>
-      <c r="AZ18" s="19"/>
-      <c r="BA18" s="19"/>
-      <c r="BB18" s="19"/>
-      <c r="BC18" s="19"/>
-      <c r="BD18" s="19"/>
-      <c r="BE18" s="19"/>
-      <c r="BF18" s="19"/>
-      <c r="BG18" s="19"/>
-      <c r="BH18" s="19"/>
-      <c r="BI18" s="19"/>
-      <c r="BJ18" s="19"/>
-      <c r="BK18" s="19"/>
-      <c r="BL18" s="19"/>
-      <c r="BM18" s="19"/>
-      <c r="BN18" s="19"/>
-      <c r="BO18" s="19"/>
-      <c r="BP18" s="19"/>
-      <c r="BQ18" s="19"/>
-      <c r="BR18" s="19"/>
-      <c r="BS18" s="19"/>
-      <c r="BT18" s="19"/>
-      <c r="BU18" s="19"/>
-      <c r="BV18" s="19"/>
-      <c r="BW18" s="19"/>
-      <c r="BX18" s="19"/>
-      <c r="BY18" s="19"/>
-      <c r="BZ18" s="19"/>
-      <c r="CA18" s="19"/>
-      <c r="CB18" s="19"/>
-      <c r="CC18" s="19"/>
-      <c r="CD18" s="19"/>
-      <c r="CE18" s="19"/>
-      <c r="CF18" s="19"/>
-      <c r="CG18" s="19"/>
-      <c r="CH18" s="19"/>
-      <c r="CI18" s="19"/>
-      <c r="CJ18" s="19"/>
-      <c r="CK18" s="19"/>
-      <c r="CL18" s="19"/>
-      <c r="CM18" s="19"/>
-      <c r="CN18" s="19"/>
-      <c r="CO18" s="19"/>
-      <c r="CP18" s="19"/>
-      <c r="CQ18" s="19"/>
-      <c r="CR18" s="19"/>
-      <c r="CS18" s="19"/>
-      <c r="CT18" s="19"/>
-      <c r="CU18" s="19"/>
-      <c r="CV18" s="19"/>
-      <c r="CW18" s="19"/>
-      <c r="CX18" s="19"/>
-      <c r="CY18" s="19"/>
-      <c r="CZ18" s="19"/>
-      <c r="DA18" s="19"/>
-      <c r="DB18" s="19"/>
-      <c r="DC18" s="19"/>
-      <c r="DD18" s="19"/>
-      <c r="DE18" s="19"/>
-      <c r="DF18" s="19"/>
-      <c r="DG18" s="19"/>
-      <c r="DH18" s="19"/>
-      <c r="DI18" s="19"/>
-      <c r="DJ18" s="19"/>
-      <c r="DK18" s="19"/>
-      <c r="DL18" s="19"/>
-      <c r="DM18" s="19"/>
-      <c r="DN18" s="19"/>
-      <c r="DO18" s="19"/>
-      <c r="DP18" s="19"/>
-      <c r="DQ18" s="19"/>
-      <c r="DR18" s="19"/>
-      <c r="DS18" s="19"/>
-      <c r="DT18" s="19"/>
-      <c r="DU18" s="19"/>
-      <c r="DV18" s="19"/>
-      <c r="DW18" s="19"/>
-      <c r="DX18" s="19"/>
-      <c r="DY18" s="19"/>
-      <c r="DZ18" s="19"/>
-      <c r="EA18" s="19"/>
-      <c r="EB18" s="19"/>
-      <c r="EC18" s="19"/>
-      <c r="ED18" s="19"/>
-      <c r="EE18" s="19"/>
-      <c r="EF18" s="19"/>
-      <c r="EG18" s="19"/>
-      <c r="EH18" s="19"/>
-      <c r="EI18" s="19"/>
-      <c r="EJ18" s="19"/>
-      <c r="EK18" s="19"/>
-      <c r="EL18" s="19"/>
-      <c r="EM18" s="19"/>
-      <c r="EN18" s="19"/>
-      <c r="EO18" s="19"/>
-      <c r="EP18" s="19"/>
-      <c r="EQ18" s="19"/>
-      <c r="ER18" s="19"/>
-      <c r="ES18" s="19"/>
-      <c r="ET18" s="19"/>
-      <c r="EU18" s="19"/>
-      <c r="EV18" s="19"/>
-      <c r="EW18" s="19"/>
-      <c r="EX18" s="19"/>
-      <c r="EY18" s="19"/>
-      <c r="EZ18" s="19"/>
-      <c r="FA18" s="19"/>
-      <c r="FB18" s="19"/>
-      <c r="FC18" s="19"/>
-      <c r="FD18" s="19"/>
-      <c r="FE18" s="19"/>
-      <c r="FF18" s="19"/>
-      <c r="FG18" s="19"/>
-      <c r="FH18" s="19"/>
-      <c r="FI18" s="19"/>
-      <c r="FJ18" s="19"/>
-      <c r="FK18" s="19"/>
-      <c r="FL18" s="19"/>
-      <c r="FM18" s="19"/>
-      <c r="FN18" s="19"/>
-      <c r="FO18" s="19"/>
-      <c r="FP18" s="19"/>
-      <c r="FQ18" s="19"/>
-      <c r="FR18" s="19"/>
-      <c r="FS18" s="19"/>
-      <c r="FT18" s="19"/>
-      <c r="FU18" s="19"/>
-      <c r="FV18" s="19"/>
-      <c r="FW18" s="19"/>
-      <c r="FX18" s="19"/>
-      <c r="FY18" s="19"/>
-      <c r="FZ18" s="19"/>
-      <c r="GA18" s="19"/>
-      <c r="GB18" s="19"/>
-      <c r="GC18" s="19"/>
-      <c r="GD18" s="19"/>
-      <c r="GE18" s="19"/>
-      <c r="GF18" s="19"/>
-      <c r="GG18" s="19"/>
-      <c r="GH18" s="19"/>
-      <c r="GI18" s="19"/>
-      <c r="GJ18" s="19"/>
-      <c r="GK18" s="19"/>
-      <c r="GL18" s="19"/>
-      <c r="GM18" s="19"/>
-      <c r="GN18" s="19"/>
-      <c r="GO18" s="19"/>
-      <c r="GP18" s="19"/>
-      <c r="GQ18" s="19"/>
-      <c r="GR18" s="19"/>
-      <c r="GS18" s="19"/>
-      <c r="GT18" s="19"/>
-      <c r="GU18" s="19"/>
-      <c r="GV18" s="19"/>
-      <c r="GW18" s="19"/>
-      <c r="GX18" s="19"/>
-      <c r="GY18" s="19"/>
-      <c r="GZ18" s="19"/>
-      <c r="HA18" s="19"/>
-      <c r="HB18" s="19"/>
-      <c r="HC18" s="19"/>
-      <c r="HD18" s="19"/>
-      <c r="HE18" s="19"/>
-      <c r="HF18" s="19"/>
-      <c r="HG18" s="19"/>
-      <c r="HH18" s="19"/>
-      <c r="HI18" s="19"/>
-      <c r="HJ18" s="19"/>
-      <c r="HK18" s="19"/>
-      <c r="HL18" s="19"/>
-      <c r="HM18" s="19"/>
-      <c r="HN18" s="19"/>
-      <c r="HO18" s="19"/>
-      <c r="HP18" s="19"/>
-      <c r="HQ18" s="19"/>
-      <c r="HR18" s="19"/>
-      <c r="HS18" s="19"/>
-      <c r="HT18" s="19"/>
-      <c r="HU18" s="19"/>
-      <c r="HV18" s="19"/>
-      <c r="HW18" s="19"/>
-      <c r="HX18" s="19"/>
-      <c r="HY18" s="19"/>
-      <c r="HZ18" s="19"/>
-      <c r="IA18" s="19"/>
-      <c r="IB18" s="19"/>
-      <c r="IC18" s="19"/>
-      <c r="ID18" s="19"/>
-      <c r="IE18" s="19"/>
-      <c r="IF18" s="19"/>
-      <c r="IG18" s="19"/>
-      <c r="IH18" s="19"/>
-      <c r="II18" s="19"/>
-      <c r="IJ18" s="19"/>
-      <c r="IK18" s="19"/>
-      <c r="IL18" s="19"/>
-      <c r="IM18" s="19"/>
-      <c r="IN18" s="19"/>
-      <c r="IO18" s="19"/>
-      <c r="IP18" s="19"/>
-      <c r="IQ18" s="19"/>
-      <c r="IR18" s="19"/>
-      <c r="IS18" s="19"/>
-      <c r="IT18" s="19"/>
-      <c r="IU18" s="19"/>
-      <c r="IV18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="16"/>
+      <c r="BF18" s="16"/>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="16"/>
+      <c r="BI18" s="16"/>
+      <c r="BJ18" s="16"/>
+      <c r="BK18" s="16"/>
+      <c r="BL18" s="16"/>
+      <c r="BM18" s="16"/>
+      <c r="BN18" s="16"/>
+      <c r="BO18" s="16"/>
+      <c r="BP18" s="16"/>
+      <c r="BQ18" s="16"/>
+      <c r="BR18" s="16"/>
+      <c r="BS18" s="16"/>
+      <c r="BT18" s="16"/>
+      <c r="BU18" s="16"/>
+      <c r="BV18" s="16"/>
+      <c r="BW18" s="16"/>
+      <c r="BX18" s="16"/>
+      <c r="BY18" s="16"/>
+      <c r="BZ18" s="16"/>
+      <c r="CA18" s="16"/>
+      <c r="CB18" s="16"/>
+      <c r="CC18" s="16"/>
+      <c r="CD18" s="16"/>
+      <c r="CE18" s="16"/>
+      <c r="CF18" s="16"/>
+      <c r="CG18" s="16"/>
+      <c r="CH18" s="16"/>
+      <c r="CI18" s="16"/>
+      <c r="CJ18" s="16"/>
+      <c r="CK18" s="16"/>
+      <c r="CL18" s="16"/>
+      <c r="CM18" s="16"/>
+      <c r="CN18" s="16"/>
+      <c r="CO18" s="16"/>
+      <c r="CP18" s="16"/>
+      <c r="CQ18" s="16"/>
+      <c r="CR18" s="16"/>
+      <c r="CS18" s="16"/>
+      <c r="CT18" s="16"/>
+      <c r="CU18" s="16"/>
+      <c r="CV18" s="16"/>
+      <c r="CW18" s="16"/>
+      <c r="CX18" s="16"/>
+      <c r="CY18" s="16"/>
+      <c r="CZ18" s="16"/>
+      <c r="DA18" s="16"/>
+      <c r="DB18" s="16"/>
+      <c r="DC18" s="16"/>
+      <c r="DD18" s="16"/>
+      <c r="DE18" s="16"/>
+      <c r="DF18" s="16"/>
+      <c r="DG18" s="16"/>
+      <c r="DH18" s="16"/>
+      <c r="DI18" s="16"/>
+      <c r="DJ18" s="16"/>
+      <c r="DK18" s="16"/>
+      <c r="DL18" s="16"/>
+      <c r="DM18" s="16"/>
+      <c r="DN18" s="16"/>
+      <c r="DO18" s="16"/>
+      <c r="DP18" s="16"/>
+      <c r="DQ18" s="16"/>
+      <c r="DR18" s="16"/>
+      <c r="DS18" s="16"/>
+      <c r="DT18" s="16"/>
+      <c r="DU18" s="16"/>
+      <c r="DV18" s="16"/>
+      <c r="DW18" s="16"/>
+      <c r="DX18" s="16"/>
+      <c r="DY18" s="16"/>
+      <c r="DZ18" s="16"/>
+      <c r="EA18" s="16"/>
+      <c r="EB18" s="16"/>
+      <c r="EC18" s="16"/>
+      <c r="ED18" s="16"/>
+      <c r="EE18" s="16"/>
+      <c r="EF18" s="16"/>
+      <c r="EG18" s="16"/>
+      <c r="EH18" s="16"/>
+      <c r="EI18" s="16"/>
+      <c r="EJ18" s="16"/>
+      <c r="EK18" s="16"/>
+      <c r="EL18" s="16"/>
+      <c r="EM18" s="16"/>
+      <c r="EN18" s="16"/>
+      <c r="EO18" s="16"/>
+      <c r="EP18" s="16"/>
+      <c r="EQ18" s="16"/>
+      <c r="ER18" s="16"/>
+      <c r="ES18" s="16"/>
+      <c r="ET18" s="16"/>
+      <c r="EU18" s="16"/>
+      <c r="EV18" s="16"/>
+      <c r="EW18" s="16"/>
+      <c r="EX18" s="16"/>
+      <c r="EY18" s="16"/>
+      <c r="EZ18" s="16"/>
+      <c r="FA18" s="16"/>
+      <c r="FB18" s="16"/>
+      <c r="FC18" s="16"/>
+      <c r="FD18" s="16"/>
+      <c r="FE18" s="16"/>
+      <c r="FF18" s="16"/>
+      <c r="FG18" s="16"/>
+      <c r="FH18" s="16"/>
+      <c r="FI18" s="16"/>
+      <c r="FJ18" s="16"/>
+      <c r="FK18" s="16"/>
+      <c r="FL18" s="16"/>
+      <c r="FM18" s="16"/>
+      <c r="FN18" s="16"/>
+      <c r="FO18" s="16"/>
+      <c r="FP18" s="16"/>
+      <c r="FQ18" s="16"/>
+      <c r="FR18" s="16"/>
+      <c r="FS18" s="16"/>
+      <c r="FT18" s="16"/>
+      <c r="FU18" s="16"/>
+      <c r="FV18" s="16"/>
+      <c r="FW18" s="16"/>
+      <c r="FX18" s="16"/>
+      <c r="FY18" s="16"/>
+      <c r="FZ18" s="16"/>
+      <c r="GA18" s="16"/>
+      <c r="GB18" s="16"/>
+      <c r="GC18" s="16"/>
+      <c r="GD18" s="16"/>
+      <c r="GE18" s="16"/>
+      <c r="GF18" s="16"/>
+      <c r="GG18" s="16"/>
+      <c r="GH18" s="16"/>
+      <c r="GI18" s="16"/>
+      <c r="GJ18" s="16"/>
+      <c r="GK18" s="16"/>
+      <c r="GL18" s="16"/>
+      <c r="GM18" s="16"/>
+      <c r="GN18" s="16"/>
+      <c r="GO18" s="16"/>
+      <c r="GP18" s="16"/>
+      <c r="GQ18" s="16"/>
+      <c r="GR18" s="16"/>
+      <c r="GS18" s="16"/>
+      <c r="GT18" s="16"/>
+      <c r="GU18" s="16"/>
+      <c r="GV18" s="16"/>
+      <c r="GW18" s="16"/>
+      <c r="GX18" s="16"/>
+      <c r="GY18" s="16"/>
+      <c r="GZ18" s="16"/>
+      <c r="HA18" s="16"/>
+      <c r="HB18" s="16"/>
+      <c r="HC18" s="16"/>
+      <c r="HD18" s="16"/>
+      <c r="HE18" s="16"/>
+      <c r="HF18" s="16"/>
+      <c r="HG18" s="16"/>
+      <c r="HH18" s="16"/>
+      <c r="HI18" s="16"/>
+      <c r="HJ18" s="16"/>
+      <c r="HK18" s="16"/>
+      <c r="HL18" s="16"/>
+      <c r="HM18" s="16"/>
+      <c r="HN18" s="16"/>
+      <c r="HO18" s="16"/>
+      <c r="HP18" s="16"/>
+      <c r="HQ18" s="16"/>
+      <c r="HR18" s="16"/>
+      <c r="HS18" s="16"/>
+      <c r="HT18" s="16"/>
+      <c r="HU18" s="16"/>
+      <c r="HV18" s="16"/>
+      <c r="HW18" s="16"/>
+      <c r="HX18" s="16"/>
+      <c r="HY18" s="16"/>
+      <c r="HZ18" s="16"/>
+      <c r="IA18" s="16"/>
+      <c r="IB18" s="16"/>
+      <c r="IC18" s="16"/>
+      <c r="ID18" s="16"/>
+      <c r="IE18" s="16"/>
+      <c r="IF18" s="16"/>
+      <c r="IG18" s="16"/>
+      <c r="IH18" s="16"/>
+      <c r="II18" s="16"/>
+      <c r="IJ18" s="16"/>
+      <c r="IK18" s="16"/>
+      <c r="IL18" s="16"/>
+      <c r="IM18" s="16"/>
+      <c r="IN18" s="16"/>
+      <c r="IO18" s="16"/>
+      <c r="IP18" s="16"/>
+      <c r="IQ18" s="16"/>
+      <c r="IR18" s="16"/>
+      <c r="IS18" s="16"/>
+      <c r="IT18" s="16"/>
+      <c r="IU18" s="16"/>
+      <c r="IV18" s="16"/>
     </row>
     <row r="19" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:256" s="15" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:256" s="12" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="14"/>
-      <c r="AV20" s="14"/>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="14"/>
-      <c r="AY20" s="14"/>
-      <c r="AZ20" s="14"/>
-      <c r="BA20" s="14"/>
-      <c r="BB20" s="14"/>
-      <c r="BC20" s="14"/>
-      <c r="BD20" s="14"/>
-      <c r="BE20" s="14"/>
-      <c r="BF20" s="14"/>
-      <c r="BG20" s="14"/>
-      <c r="BH20" s="14"/>
-      <c r="BI20" s="14"/>
-      <c r="BJ20" s="14"/>
-      <c r="BK20" s="14"/>
-      <c r="BL20" s="14"/>
-      <c r="BM20" s="14"/>
-      <c r="BN20" s="14"/>
-      <c r="BO20" s="14"/>
-      <c r="BP20" s="14"/>
-      <c r="BQ20" s="14"/>
-      <c r="BR20" s="14"/>
-      <c r="BS20" s="14"/>
-      <c r="BT20" s="14"/>
-      <c r="BU20" s="14"/>
-      <c r="BV20" s="14"/>
-      <c r="BW20" s="14"/>
-      <c r="BX20" s="14"/>
-      <c r="BY20" s="14"/>
-      <c r="BZ20" s="14"/>
-      <c r="CA20" s="14"/>
-      <c r="CB20" s="14"/>
-      <c r="CC20" s="14"/>
-      <c r="CD20" s="14"/>
-      <c r="CE20" s="14"/>
-      <c r="CF20" s="14"/>
-      <c r="CG20" s="14"/>
-      <c r="CH20" s="14"/>
-      <c r="CI20" s="14"/>
-      <c r="CJ20" s="14"/>
-      <c r="CK20" s="14"/>
-      <c r="CL20" s="14"/>
-      <c r="CM20" s="14"/>
-      <c r="CN20" s="14"/>
-      <c r="CO20" s="14"/>
-      <c r="CP20" s="14"/>
-      <c r="CQ20" s="14"/>
-      <c r="CR20" s="14"/>
-      <c r="CS20" s="14"/>
-      <c r="CT20" s="14"/>
-      <c r="CU20" s="14"/>
-      <c r="CV20" s="14"/>
-      <c r="CW20" s="14"/>
-      <c r="CX20" s="14"/>
-      <c r="CY20" s="14"/>
-      <c r="CZ20" s="14"/>
-      <c r="DA20" s="14"/>
-      <c r="DB20" s="14"/>
-      <c r="DC20" s="14"/>
-      <c r="DD20" s="14"/>
-      <c r="DE20" s="14"/>
-      <c r="DF20" s="14"/>
-      <c r="DG20" s="14"/>
-      <c r="DH20" s="14"/>
-      <c r="DI20" s="14"/>
-      <c r="DJ20" s="14"/>
-      <c r="DK20" s="14"/>
-      <c r="DL20" s="14"/>
-      <c r="DM20" s="14"/>
-      <c r="DN20" s="14"/>
-      <c r="DO20" s="14"/>
-      <c r="DP20" s="14"/>
-      <c r="DQ20" s="14"/>
-      <c r="DR20" s="14"/>
-      <c r="DS20" s="14"/>
-      <c r="DT20" s="14"/>
-      <c r="DU20" s="14"/>
-      <c r="DV20" s="14"/>
-      <c r="DW20" s="14"/>
-      <c r="DX20" s="14"/>
-      <c r="DY20" s="14"/>
-      <c r="DZ20" s="14"/>
-      <c r="EA20" s="14"/>
-      <c r="EB20" s="14"/>
-      <c r="EC20" s="14"/>
-      <c r="ED20" s="14"/>
-      <c r="EE20" s="14"/>
-      <c r="EF20" s="14"/>
-      <c r="EG20" s="14"/>
-      <c r="EH20" s="14"/>
-      <c r="EI20" s="14"/>
-      <c r="EJ20" s="14"/>
-      <c r="EK20" s="14"/>
-      <c r="EL20" s="14"/>
-      <c r="EM20" s="14"/>
-      <c r="EN20" s="14"/>
-      <c r="EO20" s="14"/>
-      <c r="EP20" s="14"/>
-      <c r="EQ20" s="14"/>
-      <c r="ER20" s="14"/>
-      <c r="ES20" s="14"/>
-      <c r="ET20" s="14"/>
-      <c r="EU20" s="14"/>
-      <c r="EV20" s="14"/>
-      <c r="EW20" s="14"/>
-      <c r="EX20" s="14"/>
-      <c r="EY20" s="14"/>
-      <c r="EZ20" s="14"/>
-      <c r="FA20" s="14"/>
-      <c r="FB20" s="14"/>
-      <c r="FC20" s="14"/>
-      <c r="FD20" s="14"/>
-      <c r="FE20" s="14"/>
-      <c r="FF20" s="14"/>
-      <c r="FG20" s="14"/>
-      <c r="FH20" s="14"/>
-      <c r="FI20" s="14"/>
-      <c r="FJ20" s="14"/>
-      <c r="FK20" s="14"/>
-      <c r="FL20" s="14"/>
-      <c r="FM20" s="14"/>
-      <c r="FN20" s="14"/>
-      <c r="FO20" s="14"/>
-      <c r="FP20" s="14"/>
-      <c r="FQ20" s="14"/>
-      <c r="FR20" s="14"/>
-      <c r="FS20" s="14"/>
-      <c r="FT20" s="14"/>
-      <c r="FU20" s="14"/>
-      <c r="FV20" s="14"/>
-      <c r="FW20" s="14"/>
-      <c r="FX20" s="14"/>
-      <c r="FY20" s="14"/>
-      <c r="FZ20" s="14"/>
-      <c r="GA20" s="14"/>
-      <c r="GB20" s="14"/>
-      <c r="GC20" s="14"/>
-      <c r="GD20" s="14"/>
-      <c r="GE20" s="14"/>
-      <c r="GF20" s="14"/>
-      <c r="GG20" s="14"/>
-      <c r="GH20" s="14"/>
-      <c r="GI20" s="14"/>
-      <c r="GJ20" s="14"/>
-      <c r="GK20" s="14"/>
-      <c r="GL20" s="14"/>
-      <c r="GM20" s="14"/>
-      <c r="GN20" s="14"/>
-      <c r="GO20" s="14"/>
-      <c r="GP20" s="14"/>
-      <c r="GQ20" s="14"/>
-      <c r="GR20" s="14"/>
-      <c r="GS20" s="14"/>
-      <c r="GT20" s="14"/>
-      <c r="GU20" s="14"/>
-      <c r="GV20" s="14"/>
-      <c r="GW20" s="14"/>
-      <c r="GX20" s="14"/>
-      <c r="GY20" s="14"/>
-      <c r="GZ20" s="14"/>
-      <c r="HA20" s="14"/>
-      <c r="HB20" s="14"/>
-      <c r="HC20" s="14"/>
-      <c r="HD20" s="14"/>
-      <c r="HE20" s="14"/>
-      <c r="HF20" s="14"/>
-      <c r="HG20" s="14"/>
-      <c r="HH20" s="14"/>
-      <c r="HI20" s="14"/>
-      <c r="HJ20" s="14"/>
-      <c r="HK20" s="14"/>
-      <c r="HL20" s="14"/>
-      <c r="HM20" s="14"/>
-      <c r="HN20" s="14"/>
-      <c r="HO20" s="14"/>
-      <c r="HP20" s="14"/>
-      <c r="HQ20" s="14"/>
-      <c r="HR20" s="14"/>
-      <c r="HS20" s="14"/>
-      <c r="HT20" s="14"/>
-      <c r="HU20" s="14"/>
-      <c r="HV20" s="14"/>
-      <c r="HW20" s="14"/>
-      <c r="HX20" s="14"/>
-      <c r="HY20" s="14"/>
-      <c r="HZ20" s="14"/>
-      <c r="IA20" s="14"/>
-      <c r="IB20" s="14"/>
-      <c r="IC20" s="14"/>
-      <c r="ID20" s="14"/>
-      <c r="IE20" s="14"/>
-      <c r="IF20" s="14"/>
-      <c r="IG20" s="14"/>
-      <c r="IH20" s="14"/>
-      <c r="II20" s="14"/>
-      <c r="IJ20" s="14"/>
-      <c r="IK20" s="14"/>
-      <c r="IL20" s="14"/>
-      <c r="IM20" s="14"/>
-      <c r="IN20" s="14"/>
-      <c r="IO20" s="14"/>
-      <c r="IP20" s="14"/>
-      <c r="IQ20" s="14"/>
-      <c r="IR20" s="14"/>
-      <c r="IS20" s="14"/>
-      <c r="IT20" s="14"/>
-      <c r="IU20" s="14"/>
-      <c r="IV20" s="14"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="11"/>
+      <c r="BF20" s="11"/>
+      <c r="BG20" s="11"/>
+      <c r="BH20" s="11"/>
+      <c r="BI20" s="11"/>
+      <c r="BJ20" s="11"/>
+      <c r="BK20" s="11"/>
+      <c r="BL20" s="11"/>
+      <c r="BM20" s="11"/>
+      <c r="BN20" s="11"/>
+      <c r="BO20" s="11"/>
+      <c r="BP20" s="11"/>
+      <c r="BQ20" s="11"/>
+      <c r="BR20" s="11"/>
+      <c r="BS20" s="11"/>
+      <c r="BT20" s="11"/>
+      <c r="BU20" s="11"/>
+      <c r="BV20" s="11"/>
+      <c r="BW20" s="11"/>
+      <c r="BX20" s="11"/>
+      <c r="BY20" s="11"/>
+      <c r="BZ20" s="11"/>
+      <c r="CA20" s="11"/>
+      <c r="CB20" s="11"/>
+      <c r="CC20" s="11"/>
+      <c r="CD20" s="11"/>
+      <c r="CE20" s="11"/>
+      <c r="CF20" s="11"/>
+      <c r="CG20" s="11"/>
+      <c r="CH20" s="11"/>
+      <c r="CI20" s="11"/>
+      <c r="CJ20" s="11"/>
+      <c r="CK20" s="11"/>
+      <c r="CL20" s="11"/>
+      <c r="CM20" s="11"/>
+      <c r="CN20" s="11"/>
+      <c r="CO20" s="11"/>
+      <c r="CP20" s="11"/>
+      <c r="CQ20" s="11"/>
+      <c r="CR20" s="11"/>
+      <c r="CS20" s="11"/>
+      <c r="CT20" s="11"/>
+      <c r="CU20" s="11"/>
+      <c r="CV20" s="11"/>
+      <c r="CW20" s="11"/>
+      <c r="CX20" s="11"/>
+      <c r="CY20" s="11"/>
+      <c r="CZ20" s="11"/>
+      <c r="DA20" s="11"/>
+      <c r="DB20" s="11"/>
+      <c r="DC20" s="11"/>
+      <c r="DD20" s="11"/>
+      <c r="DE20" s="11"/>
+      <c r="DF20" s="11"/>
+      <c r="DG20" s="11"/>
+      <c r="DH20" s="11"/>
+      <c r="DI20" s="11"/>
+      <c r="DJ20" s="11"/>
+      <c r="DK20" s="11"/>
+      <c r="DL20" s="11"/>
+      <c r="DM20" s="11"/>
+      <c r="DN20" s="11"/>
+      <c r="DO20" s="11"/>
+      <c r="DP20" s="11"/>
+      <c r="DQ20" s="11"/>
+      <c r="DR20" s="11"/>
+      <c r="DS20" s="11"/>
+      <c r="DT20" s="11"/>
+      <c r="DU20" s="11"/>
+      <c r="DV20" s="11"/>
+      <c r="DW20" s="11"/>
+      <c r="DX20" s="11"/>
+      <c r="DY20" s="11"/>
+      <c r="DZ20" s="11"/>
+      <c r="EA20" s="11"/>
+      <c r="EB20" s="11"/>
+      <c r="EC20" s="11"/>
+      <c r="ED20" s="11"/>
+      <c r="EE20" s="11"/>
+      <c r="EF20" s="11"/>
+      <c r="EG20" s="11"/>
+      <c r="EH20" s="11"/>
+      <c r="EI20" s="11"/>
+      <c r="EJ20" s="11"/>
+      <c r="EK20" s="11"/>
+      <c r="EL20" s="11"/>
+      <c r="EM20" s="11"/>
+      <c r="EN20" s="11"/>
+      <c r="EO20" s="11"/>
+      <c r="EP20" s="11"/>
+      <c r="EQ20" s="11"/>
+      <c r="ER20" s="11"/>
+      <c r="ES20" s="11"/>
+      <c r="ET20" s="11"/>
+      <c r="EU20" s="11"/>
+      <c r="EV20" s="11"/>
+      <c r="EW20" s="11"/>
+      <c r="EX20" s="11"/>
+      <c r="EY20" s="11"/>
+      <c r="EZ20" s="11"/>
+      <c r="FA20" s="11"/>
+      <c r="FB20" s="11"/>
+      <c r="FC20" s="11"/>
+      <c r="FD20" s="11"/>
+      <c r="FE20" s="11"/>
+      <c r="FF20" s="11"/>
+      <c r="FG20" s="11"/>
+      <c r="FH20" s="11"/>
+      <c r="FI20" s="11"/>
+      <c r="FJ20" s="11"/>
+      <c r="FK20" s="11"/>
+      <c r="FL20" s="11"/>
+      <c r="FM20" s="11"/>
+      <c r="FN20" s="11"/>
+      <c r="FO20" s="11"/>
+      <c r="FP20" s="11"/>
+      <c r="FQ20" s="11"/>
+      <c r="FR20" s="11"/>
+      <c r="FS20" s="11"/>
+      <c r="FT20" s="11"/>
+      <c r="FU20" s="11"/>
+      <c r="FV20" s="11"/>
+      <c r="FW20" s="11"/>
+      <c r="FX20" s="11"/>
+      <c r="FY20" s="11"/>
+      <c r="FZ20" s="11"/>
+      <c r="GA20" s="11"/>
+      <c r="GB20" s="11"/>
+      <c r="GC20" s="11"/>
+      <c r="GD20" s="11"/>
+      <c r="GE20" s="11"/>
+      <c r="GF20" s="11"/>
+      <c r="GG20" s="11"/>
+      <c r="GH20" s="11"/>
+      <c r="GI20" s="11"/>
+      <c r="GJ20" s="11"/>
+      <c r="GK20" s="11"/>
+      <c r="GL20" s="11"/>
+      <c r="GM20" s="11"/>
+      <c r="GN20" s="11"/>
+      <c r="GO20" s="11"/>
+      <c r="GP20" s="11"/>
+      <c r="GQ20" s="11"/>
+      <c r="GR20" s="11"/>
+      <c r="GS20" s="11"/>
+      <c r="GT20" s="11"/>
+      <c r="GU20" s="11"/>
+      <c r="GV20" s="11"/>
+      <c r="GW20" s="11"/>
+      <c r="GX20" s="11"/>
+      <c r="GY20" s="11"/>
+      <c r="GZ20" s="11"/>
+      <c r="HA20" s="11"/>
+      <c r="HB20" s="11"/>
+      <c r="HC20" s="11"/>
+      <c r="HD20" s="11"/>
+      <c r="HE20" s="11"/>
+      <c r="HF20" s="11"/>
+      <c r="HG20" s="11"/>
+      <c r="HH20" s="11"/>
+      <c r="HI20" s="11"/>
+      <c r="HJ20" s="11"/>
+      <c r="HK20" s="11"/>
+      <c r="HL20" s="11"/>
+      <c r="HM20" s="11"/>
+      <c r="HN20" s="11"/>
+      <c r="HO20" s="11"/>
+      <c r="HP20" s="11"/>
+      <c r="HQ20" s="11"/>
+      <c r="HR20" s="11"/>
+      <c r="HS20" s="11"/>
+      <c r="HT20" s="11"/>
+      <c r="HU20" s="11"/>
+      <c r="HV20" s="11"/>
+      <c r="HW20" s="11"/>
+      <c r="HX20" s="11"/>
+      <c r="HY20" s="11"/>
+      <c r="HZ20" s="11"/>
+      <c r="IA20" s="11"/>
+      <c r="IB20" s="11"/>
+      <c r="IC20" s="11"/>
+      <c r="ID20" s="11"/>
+      <c r="IE20" s="11"/>
+      <c r="IF20" s="11"/>
+      <c r="IG20" s="11"/>
+      <c r="IH20" s="11"/>
+      <c r="II20" s="11"/>
+      <c r="IJ20" s="11"/>
+      <c r="IK20" s="11"/>
+      <c r="IL20" s="11"/>
+      <c r="IM20" s="11"/>
+      <c r="IN20" s="11"/>
+      <c r="IO20" s="11"/>
+      <c r="IP20" s="11"/>
+      <c r="IQ20" s="11"/>
+      <c r="IR20" s="11"/>
+      <c r="IS20" s="11"/>
+      <c r="IT20" s="11"/>
+      <c r="IU20" s="11"/>
+      <c r="IV20" s="11"/>
     </row>
     <row r="21" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Specificaties en eisen/Scene Overview.xlsx
+++ b/Specificaties en eisen/Scene Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Make IT Work\Quizmaster\Quizmaster\Specificaties en eisen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BCB0F8-B3E2-4FF9-B595-0326F3781FA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5986F60-836A-47CE-8B5C-2A54D9B546FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
   <si>
     <t>Table 1</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>CoordinatorDashboardController</t>
+  </si>
+  <si>
+    <t>NewQuiz, New Question</t>
   </si>
 </sst>
 </file>
@@ -602,9 +605,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -613,6 +613,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1812,7 +1815,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1829,17 +1832,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:256" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1871,31 +1874,31 @@
       </c>
     </row>
     <row r="3" spans="1:256" s="12" customFormat="1" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="11"/>
@@ -4587,8 +4590,12 @@
         <v>62</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>

--- a/Specificaties en eisen/Scene Overview.xlsx
+++ b/Specificaties en eisen/Scene Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Make IT Work\Quizmaster\Quizmaster\Specificaties en eisen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5986F60-836A-47CE-8B5C-2A54D9B546FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE94DF07-A425-44C9-8F9D-AD154D3A0E68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,12 +418,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +541,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -585,24 +579,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1812,10 +1788,10 @@
   <dimension ref="A1:IV21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1832,17 +1808,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:256" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1874,31 +1850,31 @@
       </c>
     </row>
     <row r="3" spans="1:256" s="12" customFormat="1" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="15" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="11"/>
@@ -2149,34 +2125,281 @@
       <c r="IU3" s="11"/>
       <c r="IV3" s="11"/>
     </row>
-    <row r="4" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:256" s="12" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="11"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="11"/>
+      <c r="BL4" s="11"/>
+      <c r="BM4" s="11"/>
+      <c r="BN4" s="11"/>
+      <c r="BO4" s="11"/>
+      <c r="BP4" s="11"/>
+      <c r="BQ4" s="11"/>
+      <c r="BR4" s="11"/>
+      <c r="BS4" s="11"/>
+      <c r="BT4" s="11"/>
+      <c r="BU4" s="11"/>
+      <c r="BV4" s="11"/>
+      <c r="BW4" s="11"/>
+      <c r="BX4" s="11"/>
+      <c r="BY4" s="11"/>
+      <c r="BZ4" s="11"/>
+      <c r="CA4" s="11"/>
+      <c r="CB4" s="11"/>
+      <c r="CC4" s="11"/>
+      <c r="CD4" s="11"/>
+      <c r="CE4" s="11"/>
+      <c r="CF4" s="11"/>
+      <c r="CG4" s="11"/>
+      <c r="CH4" s="11"/>
+      <c r="CI4" s="11"/>
+      <c r="CJ4" s="11"/>
+      <c r="CK4" s="11"/>
+      <c r="CL4" s="11"/>
+      <c r="CM4" s="11"/>
+      <c r="CN4" s="11"/>
+      <c r="CO4" s="11"/>
+      <c r="CP4" s="11"/>
+      <c r="CQ4" s="11"/>
+      <c r="CR4" s="11"/>
+      <c r="CS4" s="11"/>
+      <c r="CT4" s="11"/>
+      <c r="CU4" s="11"/>
+      <c r="CV4" s="11"/>
+      <c r="CW4" s="11"/>
+      <c r="CX4" s="11"/>
+      <c r="CY4" s="11"/>
+      <c r="CZ4" s="11"/>
+      <c r="DA4" s="11"/>
+      <c r="DB4" s="11"/>
+      <c r="DC4" s="11"/>
+      <c r="DD4" s="11"/>
+      <c r="DE4" s="11"/>
+      <c r="DF4" s="11"/>
+      <c r="DG4" s="11"/>
+      <c r="DH4" s="11"/>
+      <c r="DI4" s="11"/>
+      <c r="DJ4" s="11"/>
+      <c r="DK4" s="11"/>
+      <c r="DL4" s="11"/>
+      <c r="DM4" s="11"/>
+      <c r="DN4" s="11"/>
+      <c r="DO4" s="11"/>
+      <c r="DP4" s="11"/>
+      <c r="DQ4" s="11"/>
+      <c r="DR4" s="11"/>
+      <c r="DS4" s="11"/>
+      <c r="DT4" s="11"/>
+      <c r="DU4" s="11"/>
+      <c r="DV4" s="11"/>
+      <c r="DW4" s="11"/>
+      <c r="DX4" s="11"/>
+      <c r="DY4" s="11"/>
+      <c r="DZ4" s="11"/>
+      <c r="EA4" s="11"/>
+      <c r="EB4" s="11"/>
+      <c r="EC4" s="11"/>
+      <c r="ED4" s="11"/>
+      <c r="EE4" s="11"/>
+      <c r="EF4" s="11"/>
+      <c r="EG4" s="11"/>
+      <c r="EH4" s="11"/>
+      <c r="EI4" s="11"/>
+      <c r="EJ4" s="11"/>
+      <c r="EK4" s="11"/>
+      <c r="EL4" s="11"/>
+      <c r="EM4" s="11"/>
+      <c r="EN4" s="11"/>
+      <c r="EO4" s="11"/>
+      <c r="EP4" s="11"/>
+      <c r="EQ4" s="11"/>
+      <c r="ER4" s="11"/>
+      <c r="ES4" s="11"/>
+      <c r="ET4" s="11"/>
+      <c r="EU4" s="11"/>
+      <c r="EV4" s="11"/>
+      <c r="EW4" s="11"/>
+      <c r="EX4" s="11"/>
+      <c r="EY4" s="11"/>
+      <c r="EZ4" s="11"/>
+      <c r="FA4" s="11"/>
+      <c r="FB4" s="11"/>
+      <c r="FC4" s="11"/>
+      <c r="FD4" s="11"/>
+      <c r="FE4" s="11"/>
+      <c r="FF4" s="11"/>
+      <c r="FG4" s="11"/>
+      <c r="FH4" s="11"/>
+      <c r="FI4" s="11"/>
+      <c r="FJ4" s="11"/>
+      <c r="FK4" s="11"/>
+      <c r="FL4" s="11"/>
+      <c r="FM4" s="11"/>
+      <c r="FN4" s="11"/>
+      <c r="FO4" s="11"/>
+      <c r="FP4" s="11"/>
+      <c r="FQ4" s="11"/>
+      <c r="FR4" s="11"/>
+      <c r="FS4" s="11"/>
+      <c r="FT4" s="11"/>
+      <c r="FU4" s="11"/>
+      <c r="FV4" s="11"/>
+      <c r="FW4" s="11"/>
+      <c r="FX4" s="11"/>
+      <c r="FY4" s="11"/>
+      <c r="FZ4" s="11"/>
+      <c r="GA4" s="11"/>
+      <c r="GB4" s="11"/>
+      <c r="GC4" s="11"/>
+      <c r="GD4" s="11"/>
+      <c r="GE4" s="11"/>
+      <c r="GF4" s="11"/>
+      <c r="GG4" s="11"/>
+      <c r="GH4" s="11"/>
+      <c r="GI4" s="11"/>
+      <c r="GJ4" s="11"/>
+      <c r="GK4" s="11"/>
+      <c r="GL4" s="11"/>
+      <c r="GM4" s="11"/>
+      <c r="GN4" s="11"/>
+      <c r="GO4" s="11"/>
+      <c r="GP4" s="11"/>
+      <c r="GQ4" s="11"/>
+      <c r="GR4" s="11"/>
+      <c r="GS4" s="11"/>
+      <c r="GT4" s="11"/>
+      <c r="GU4" s="11"/>
+      <c r="GV4" s="11"/>
+      <c r="GW4" s="11"/>
+      <c r="GX4" s="11"/>
+      <c r="GY4" s="11"/>
+      <c r="GZ4" s="11"/>
+      <c r="HA4" s="11"/>
+      <c r="HB4" s="11"/>
+      <c r="HC4" s="11"/>
+      <c r="HD4" s="11"/>
+      <c r="HE4" s="11"/>
+      <c r="HF4" s="11"/>
+      <c r="HG4" s="11"/>
+      <c r="HH4" s="11"/>
+      <c r="HI4" s="11"/>
+      <c r="HJ4" s="11"/>
+      <c r="HK4" s="11"/>
+      <c r="HL4" s="11"/>
+      <c r="HM4" s="11"/>
+      <c r="HN4" s="11"/>
+      <c r="HO4" s="11"/>
+      <c r="HP4" s="11"/>
+      <c r="HQ4" s="11"/>
+      <c r="HR4" s="11"/>
+      <c r="HS4" s="11"/>
+      <c r="HT4" s="11"/>
+      <c r="HU4" s="11"/>
+      <c r="HV4" s="11"/>
+      <c r="HW4" s="11"/>
+      <c r="HX4" s="11"/>
+      <c r="HY4" s="11"/>
+      <c r="HZ4" s="11"/>
+      <c r="IA4" s="11"/>
+      <c r="IB4" s="11"/>
+      <c r="IC4" s="11"/>
+      <c r="ID4" s="11"/>
+      <c r="IE4" s="11"/>
+      <c r="IF4" s="11"/>
+      <c r="IG4" s="11"/>
+      <c r="IH4" s="11"/>
+      <c r="II4" s="11"/>
+      <c r="IJ4" s="11"/>
+      <c r="IK4" s="11"/>
+      <c r="IL4" s="11"/>
+      <c r="IM4" s="11"/>
+      <c r="IN4" s="11"/>
+      <c r="IO4" s="11"/>
+      <c r="IP4" s="11"/>
+      <c r="IQ4" s="11"/>
+      <c r="IR4" s="11"/>
+      <c r="IS4" s="11"/>
+      <c r="IT4" s="11"/>
+      <c r="IU4" s="11"/>
+      <c r="IV4" s="11"/>
     </row>
     <row r="5" spans="1:256" s="12" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3324,32 +3547,279 @@
       <c r="IU10" s="11"/>
       <c r="IV10" s="11"/>
     </row>
-    <row r="11" spans="1:256" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:256" s="12" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+      <c r="BF11" s="11"/>
+      <c r="BG11" s="11"/>
+      <c r="BH11" s="11"/>
+      <c r="BI11" s="11"/>
+      <c r="BJ11" s="11"/>
+      <c r="BK11" s="11"/>
+      <c r="BL11" s="11"/>
+      <c r="BM11" s="11"/>
+      <c r="BN11" s="11"/>
+      <c r="BO11" s="11"/>
+      <c r="BP11" s="11"/>
+      <c r="BQ11" s="11"/>
+      <c r="BR11" s="11"/>
+      <c r="BS11" s="11"/>
+      <c r="BT11" s="11"/>
+      <c r="BU11" s="11"/>
+      <c r="BV11" s="11"/>
+      <c r="BW11" s="11"/>
+      <c r="BX11" s="11"/>
+      <c r="BY11" s="11"/>
+      <c r="BZ11" s="11"/>
+      <c r="CA11" s="11"/>
+      <c r="CB11" s="11"/>
+      <c r="CC11" s="11"/>
+      <c r="CD11" s="11"/>
+      <c r="CE11" s="11"/>
+      <c r="CF11" s="11"/>
+      <c r="CG11" s="11"/>
+      <c r="CH11" s="11"/>
+      <c r="CI11" s="11"/>
+      <c r="CJ11" s="11"/>
+      <c r="CK11" s="11"/>
+      <c r="CL11" s="11"/>
+      <c r="CM11" s="11"/>
+      <c r="CN11" s="11"/>
+      <c r="CO11" s="11"/>
+      <c r="CP11" s="11"/>
+      <c r="CQ11" s="11"/>
+      <c r="CR11" s="11"/>
+      <c r="CS11" s="11"/>
+      <c r="CT11" s="11"/>
+      <c r="CU11" s="11"/>
+      <c r="CV11" s="11"/>
+      <c r="CW11" s="11"/>
+      <c r="CX11" s="11"/>
+      <c r="CY11" s="11"/>
+      <c r="CZ11" s="11"/>
+      <c r="DA11" s="11"/>
+      <c r="DB11" s="11"/>
+      <c r="DC11" s="11"/>
+      <c r="DD11" s="11"/>
+      <c r="DE11" s="11"/>
+      <c r="DF11" s="11"/>
+      <c r="DG11" s="11"/>
+      <c r="DH11" s="11"/>
+      <c r="DI11" s="11"/>
+      <c r="DJ11" s="11"/>
+      <c r="DK11" s="11"/>
+      <c r="DL11" s="11"/>
+      <c r="DM11" s="11"/>
+      <c r="DN11" s="11"/>
+      <c r="DO11" s="11"/>
+      <c r="DP11" s="11"/>
+      <c r="DQ11" s="11"/>
+      <c r="DR11" s="11"/>
+      <c r="DS11" s="11"/>
+      <c r="DT11" s="11"/>
+      <c r="DU11" s="11"/>
+      <c r="DV11" s="11"/>
+      <c r="DW11" s="11"/>
+      <c r="DX11" s="11"/>
+      <c r="DY11" s="11"/>
+      <c r="DZ11" s="11"/>
+      <c r="EA11" s="11"/>
+      <c r="EB11" s="11"/>
+      <c r="EC11" s="11"/>
+      <c r="ED11" s="11"/>
+      <c r="EE11" s="11"/>
+      <c r="EF11" s="11"/>
+      <c r="EG11" s="11"/>
+      <c r="EH11" s="11"/>
+      <c r="EI11" s="11"/>
+      <c r="EJ11" s="11"/>
+      <c r="EK11" s="11"/>
+      <c r="EL11" s="11"/>
+      <c r="EM11" s="11"/>
+      <c r="EN11" s="11"/>
+      <c r="EO11" s="11"/>
+      <c r="EP11" s="11"/>
+      <c r="EQ11" s="11"/>
+      <c r="ER11" s="11"/>
+      <c r="ES11" s="11"/>
+      <c r="ET11" s="11"/>
+      <c r="EU11" s="11"/>
+      <c r="EV11" s="11"/>
+      <c r="EW11" s="11"/>
+      <c r="EX11" s="11"/>
+      <c r="EY11" s="11"/>
+      <c r="EZ11" s="11"/>
+      <c r="FA11" s="11"/>
+      <c r="FB11" s="11"/>
+      <c r="FC11" s="11"/>
+      <c r="FD11" s="11"/>
+      <c r="FE11" s="11"/>
+      <c r="FF11" s="11"/>
+      <c r="FG11" s="11"/>
+      <c r="FH11" s="11"/>
+      <c r="FI11" s="11"/>
+      <c r="FJ11" s="11"/>
+      <c r="FK11" s="11"/>
+      <c r="FL11" s="11"/>
+      <c r="FM11" s="11"/>
+      <c r="FN11" s="11"/>
+      <c r="FO11" s="11"/>
+      <c r="FP11" s="11"/>
+      <c r="FQ11" s="11"/>
+      <c r="FR11" s="11"/>
+      <c r="FS11" s="11"/>
+      <c r="FT11" s="11"/>
+      <c r="FU11" s="11"/>
+      <c r="FV11" s="11"/>
+      <c r="FW11" s="11"/>
+      <c r="FX11" s="11"/>
+      <c r="FY11" s="11"/>
+      <c r="FZ11" s="11"/>
+      <c r="GA11" s="11"/>
+      <c r="GB11" s="11"/>
+      <c r="GC11" s="11"/>
+      <c r="GD11" s="11"/>
+      <c r="GE11" s="11"/>
+      <c r="GF11" s="11"/>
+      <c r="GG11" s="11"/>
+      <c r="GH11" s="11"/>
+      <c r="GI11" s="11"/>
+      <c r="GJ11" s="11"/>
+      <c r="GK11" s="11"/>
+      <c r="GL11" s="11"/>
+      <c r="GM11" s="11"/>
+      <c r="GN11" s="11"/>
+      <c r="GO11" s="11"/>
+      <c r="GP11" s="11"/>
+      <c r="GQ11" s="11"/>
+      <c r="GR11" s="11"/>
+      <c r="GS11" s="11"/>
+      <c r="GT11" s="11"/>
+      <c r="GU11" s="11"/>
+      <c r="GV11" s="11"/>
+      <c r="GW11" s="11"/>
+      <c r="GX11" s="11"/>
+      <c r="GY11" s="11"/>
+      <c r="GZ11" s="11"/>
+      <c r="HA11" s="11"/>
+      <c r="HB11" s="11"/>
+      <c r="HC11" s="11"/>
+      <c r="HD11" s="11"/>
+      <c r="HE11" s="11"/>
+      <c r="HF11" s="11"/>
+      <c r="HG11" s="11"/>
+      <c r="HH11" s="11"/>
+      <c r="HI11" s="11"/>
+      <c r="HJ11" s="11"/>
+      <c r="HK11" s="11"/>
+      <c r="HL11" s="11"/>
+      <c r="HM11" s="11"/>
+      <c r="HN11" s="11"/>
+      <c r="HO11" s="11"/>
+      <c r="HP11" s="11"/>
+      <c r="HQ11" s="11"/>
+      <c r="HR11" s="11"/>
+      <c r="HS11" s="11"/>
+      <c r="HT11" s="11"/>
+      <c r="HU11" s="11"/>
+      <c r="HV11" s="11"/>
+      <c r="HW11" s="11"/>
+      <c r="HX11" s="11"/>
+      <c r="HY11" s="11"/>
+      <c r="HZ11" s="11"/>
+      <c r="IA11" s="11"/>
+      <c r="IB11" s="11"/>
+      <c r="IC11" s="11"/>
+      <c r="ID11" s="11"/>
+      <c r="IE11" s="11"/>
+      <c r="IF11" s="11"/>
+      <c r="IG11" s="11"/>
+      <c r="IH11" s="11"/>
+      <c r="II11" s="11"/>
+      <c r="IJ11" s="11"/>
+      <c r="IK11" s="11"/>
+      <c r="IL11" s="11"/>
+      <c r="IM11" s="11"/>
+      <c r="IN11" s="11"/>
+      <c r="IO11" s="11"/>
+      <c r="IP11" s="11"/>
+      <c r="IQ11" s="11"/>
+      <c r="IR11" s="11"/>
+      <c r="IS11" s="11"/>
+      <c r="IT11" s="11"/>
+      <c r="IU11" s="11"/>
+      <c r="IV11" s="11"/>
     </row>
     <row r="12" spans="1:256" s="12" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -3627,34 +4097,281 @@
       <c r="IU12" s="11"/>
       <c r="IV12" s="11"/>
     </row>
-    <row r="13" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:256" s="12" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
+      <c r="BF13" s="11"/>
+      <c r="BG13" s="11"/>
+      <c r="BH13" s="11"/>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="11"/>
+      <c r="BK13" s="11"/>
+      <c r="BL13" s="11"/>
+      <c r="BM13" s="11"/>
+      <c r="BN13" s="11"/>
+      <c r="BO13" s="11"/>
+      <c r="BP13" s="11"/>
+      <c r="BQ13" s="11"/>
+      <c r="BR13" s="11"/>
+      <c r="BS13" s="11"/>
+      <c r="BT13" s="11"/>
+      <c r="BU13" s="11"/>
+      <c r="BV13" s="11"/>
+      <c r="BW13" s="11"/>
+      <c r="BX13" s="11"/>
+      <c r="BY13" s="11"/>
+      <c r="BZ13" s="11"/>
+      <c r="CA13" s="11"/>
+      <c r="CB13" s="11"/>
+      <c r="CC13" s="11"/>
+      <c r="CD13" s="11"/>
+      <c r="CE13" s="11"/>
+      <c r="CF13" s="11"/>
+      <c r="CG13" s="11"/>
+      <c r="CH13" s="11"/>
+      <c r="CI13" s="11"/>
+      <c r="CJ13" s="11"/>
+      <c r="CK13" s="11"/>
+      <c r="CL13" s="11"/>
+      <c r="CM13" s="11"/>
+      <c r="CN13" s="11"/>
+      <c r="CO13" s="11"/>
+      <c r="CP13" s="11"/>
+      <c r="CQ13" s="11"/>
+      <c r="CR13" s="11"/>
+      <c r="CS13" s="11"/>
+      <c r="CT13" s="11"/>
+      <c r="CU13" s="11"/>
+      <c r="CV13" s="11"/>
+      <c r="CW13" s="11"/>
+      <c r="CX13" s="11"/>
+      <c r="CY13" s="11"/>
+      <c r="CZ13" s="11"/>
+      <c r="DA13" s="11"/>
+      <c r="DB13" s="11"/>
+      <c r="DC13" s="11"/>
+      <c r="DD13" s="11"/>
+      <c r="DE13" s="11"/>
+      <c r="DF13" s="11"/>
+      <c r="DG13" s="11"/>
+      <c r="DH13" s="11"/>
+      <c r="DI13" s="11"/>
+      <c r="DJ13" s="11"/>
+      <c r="DK13" s="11"/>
+      <c r="DL13" s="11"/>
+      <c r="DM13" s="11"/>
+      <c r="DN13" s="11"/>
+      <c r="DO13" s="11"/>
+      <c r="DP13" s="11"/>
+      <c r="DQ13" s="11"/>
+      <c r="DR13" s="11"/>
+      <c r="DS13" s="11"/>
+      <c r="DT13" s="11"/>
+      <c r="DU13" s="11"/>
+      <c r="DV13" s="11"/>
+      <c r="DW13" s="11"/>
+      <c r="DX13" s="11"/>
+      <c r="DY13" s="11"/>
+      <c r="DZ13" s="11"/>
+      <c r="EA13" s="11"/>
+      <c r="EB13" s="11"/>
+      <c r="EC13" s="11"/>
+      <c r="ED13" s="11"/>
+      <c r="EE13" s="11"/>
+      <c r="EF13" s="11"/>
+      <c r="EG13" s="11"/>
+      <c r="EH13" s="11"/>
+      <c r="EI13" s="11"/>
+      <c r="EJ13" s="11"/>
+      <c r="EK13" s="11"/>
+      <c r="EL13" s="11"/>
+      <c r="EM13" s="11"/>
+      <c r="EN13" s="11"/>
+      <c r="EO13" s="11"/>
+      <c r="EP13" s="11"/>
+      <c r="EQ13" s="11"/>
+      <c r="ER13" s="11"/>
+      <c r="ES13" s="11"/>
+      <c r="ET13" s="11"/>
+      <c r="EU13" s="11"/>
+      <c r="EV13" s="11"/>
+      <c r="EW13" s="11"/>
+      <c r="EX13" s="11"/>
+      <c r="EY13" s="11"/>
+      <c r="EZ13" s="11"/>
+      <c r="FA13" s="11"/>
+      <c r="FB13" s="11"/>
+      <c r="FC13" s="11"/>
+      <c r="FD13" s="11"/>
+      <c r="FE13" s="11"/>
+      <c r="FF13" s="11"/>
+      <c r="FG13" s="11"/>
+      <c r="FH13" s="11"/>
+      <c r="FI13" s="11"/>
+      <c r="FJ13" s="11"/>
+      <c r="FK13" s="11"/>
+      <c r="FL13" s="11"/>
+      <c r="FM13" s="11"/>
+      <c r="FN13" s="11"/>
+      <c r="FO13" s="11"/>
+      <c r="FP13" s="11"/>
+      <c r="FQ13" s="11"/>
+      <c r="FR13" s="11"/>
+      <c r="FS13" s="11"/>
+      <c r="FT13" s="11"/>
+      <c r="FU13" s="11"/>
+      <c r="FV13" s="11"/>
+      <c r="FW13" s="11"/>
+      <c r="FX13" s="11"/>
+      <c r="FY13" s="11"/>
+      <c r="FZ13" s="11"/>
+      <c r="GA13" s="11"/>
+      <c r="GB13" s="11"/>
+      <c r="GC13" s="11"/>
+      <c r="GD13" s="11"/>
+      <c r="GE13" s="11"/>
+      <c r="GF13" s="11"/>
+      <c r="GG13" s="11"/>
+      <c r="GH13" s="11"/>
+      <c r="GI13" s="11"/>
+      <c r="GJ13" s="11"/>
+      <c r="GK13" s="11"/>
+      <c r="GL13" s="11"/>
+      <c r="GM13" s="11"/>
+      <c r="GN13" s="11"/>
+      <c r="GO13" s="11"/>
+      <c r="GP13" s="11"/>
+      <c r="GQ13" s="11"/>
+      <c r="GR13" s="11"/>
+      <c r="GS13" s="11"/>
+      <c r="GT13" s="11"/>
+      <c r="GU13" s="11"/>
+      <c r="GV13" s="11"/>
+      <c r="GW13" s="11"/>
+      <c r="GX13" s="11"/>
+      <c r="GY13" s="11"/>
+      <c r="GZ13" s="11"/>
+      <c r="HA13" s="11"/>
+      <c r="HB13" s="11"/>
+      <c r="HC13" s="11"/>
+      <c r="HD13" s="11"/>
+      <c r="HE13" s="11"/>
+      <c r="HF13" s="11"/>
+      <c r="HG13" s="11"/>
+      <c r="HH13" s="11"/>
+      <c r="HI13" s="11"/>
+      <c r="HJ13" s="11"/>
+      <c r="HK13" s="11"/>
+      <c r="HL13" s="11"/>
+      <c r="HM13" s="11"/>
+      <c r="HN13" s="11"/>
+      <c r="HO13" s="11"/>
+      <c r="HP13" s="11"/>
+      <c r="HQ13" s="11"/>
+      <c r="HR13" s="11"/>
+      <c r="HS13" s="11"/>
+      <c r="HT13" s="11"/>
+      <c r="HU13" s="11"/>
+      <c r="HV13" s="11"/>
+      <c r="HW13" s="11"/>
+      <c r="HX13" s="11"/>
+      <c r="HY13" s="11"/>
+      <c r="HZ13" s="11"/>
+      <c r="IA13" s="11"/>
+      <c r="IB13" s="11"/>
+      <c r="IC13" s="11"/>
+      <c r="ID13" s="11"/>
+      <c r="IE13" s="11"/>
+      <c r="IF13" s="11"/>
+      <c r="IG13" s="11"/>
+      <c r="IH13" s="11"/>
+      <c r="II13" s="11"/>
+      <c r="IJ13" s="11"/>
+      <c r="IK13" s="11"/>
+      <c r="IL13" s="11"/>
+      <c r="IM13" s="11"/>
+      <c r="IN13" s="11"/>
+      <c r="IO13" s="11"/>
+      <c r="IP13" s="11"/>
+      <c r="IQ13" s="11"/>
+      <c r="IR13" s="11"/>
+      <c r="IS13" s="11"/>
+      <c r="IT13" s="11"/>
+      <c r="IU13" s="11"/>
+      <c r="IV13" s="11"/>
     </row>
     <row r="14" spans="1:256" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -3999,306 +4716,553 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:256" s="17" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:256" s="12" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="16"/>
-      <c r="AP18" s="16"/>
-      <c r="AQ18" s="16"/>
-      <c r="AR18" s="16"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="16"/>
-      <c r="AW18" s="16"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="16"/>
-      <c r="AZ18" s="16"/>
-      <c r="BA18" s="16"/>
-      <c r="BB18" s="16"/>
-      <c r="BC18" s="16"/>
-      <c r="BD18" s="16"/>
-      <c r="BE18" s="16"/>
-      <c r="BF18" s="16"/>
-      <c r="BG18" s="16"/>
-      <c r="BH18" s="16"/>
-      <c r="BI18" s="16"/>
-      <c r="BJ18" s="16"/>
-      <c r="BK18" s="16"/>
-      <c r="BL18" s="16"/>
-      <c r="BM18" s="16"/>
-      <c r="BN18" s="16"/>
-      <c r="BO18" s="16"/>
-      <c r="BP18" s="16"/>
-      <c r="BQ18" s="16"/>
-      <c r="BR18" s="16"/>
-      <c r="BS18" s="16"/>
-      <c r="BT18" s="16"/>
-      <c r="BU18" s="16"/>
-      <c r="BV18" s="16"/>
-      <c r="BW18" s="16"/>
-      <c r="BX18" s="16"/>
-      <c r="BY18" s="16"/>
-      <c r="BZ18" s="16"/>
-      <c r="CA18" s="16"/>
-      <c r="CB18" s="16"/>
-      <c r="CC18" s="16"/>
-      <c r="CD18" s="16"/>
-      <c r="CE18" s="16"/>
-      <c r="CF18" s="16"/>
-      <c r="CG18" s="16"/>
-      <c r="CH18" s="16"/>
-      <c r="CI18" s="16"/>
-      <c r="CJ18" s="16"/>
-      <c r="CK18" s="16"/>
-      <c r="CL18" s="16"/>
-      <c r="CM18" s="16"/>
-      <c r="CN18" s="16"/>
-      <c r="CO18" s="16"/>
-      <c r="CP18" s="16"/>
-      <c r="CQ18" s="16"/>
-      <c r="CR18" s="16"/>
-      <c r="CS18" s="16"/>
-      <c r="CT18" s="16"/>
-      <c r="CU18" s="16"/>
-      <c r="CV18" s="16"/>
-      <c r="CW18" s="16"/>
-      <c r="CX18" s="16"/>
-      <c r="CY18" s="16"/>
-      <c r="CZ18" s="16"/>
-      <c r="DA18" s="16"/>
-      <c r="DB18" s="16"/>
-      <c r="DC18" s="16"/>
-      <c r="DD18" s="16"/>
-      <c r="DE18" s="16"/>
-      <c r="DF18" s="16"/>
-      <c r="DG18" s="16"/>
-      <c r="DH18" s="16"/>
-      <c r="DI18" s="16"/>
-      <c r="DJ18" s="16"/>
-      <c r="DK18" s="16"/>
-      <c r="DL18" s="16"/>
-      <c r="DM18" s="16"/>
-      <c r="DN18" s="16"/>
-      <c r="DO18" s="16"/>
-      <c r="DP18" s="16"/>
-      <c r="DQ18" s="16"/>
-      <c r="DR18" s="16"/>
-      <c r="DS18" s="16"/>
-      <c r="DT18" s="16"/>
-      <c r="DU18" s="16"/>
-      <c r="DV18" s="16"/>
-      <c r="DW18" s="16"/>
-      <c r="DX18" s="16"/>
-      <c r="DY18" s="16"/>
-      <c r="DZ18" s="16"/>
-      <c r="EA18" s="16"/>
-      <c r="EB18" s="16"/>
-      <c r="EC18" s="16"/>
-      <c r="ED18" s="16"/>
-      <c r="EE18" s="16"/>
-      <c r="EF18" s="16"/>
-      <c r="EG18" s="16"/>
-      <c r="EH18" s="16"/>
-      <c r="EI18" s="16"/>
-      <c r="EJ18" s="16"/>
-      <c r="EK18" s="16"/>
-      <c r="EL18" s="16"/>
-      <c r="EM18" s="16"/>
-      <c r="EN18" s="16"/>
-      <c r="EO18" s="16"/>
-      <c r="EP18" s="16"/>
-      <c r="EQ18" s="16"/>
-      <c r="ER18" s="16"/>
-      <c r="ES18" s="16"/>
-      <c r="ET18" s="16"/>
-      <c r="EU18" s="16"/>
-      <c r="EV18" s="16"/>
-      <c r="EW18" s="16"/>
-      <c r="EX18" s="16"/>
-      <c r="EY18" s="16"/>
-      <c r="EZ18" s="16"/>
-      <c r="FA18" s="16"/>
-      <c r="FB18" s="16"/>
-      <c r="FC18" s="16"/>
-      <c r="FD18" s="16"/>
-      <c r="FE18" s="16"/>
-      <c r="FF18" s="16"/>
-      <c r="FG18" s="16"/>
-      <c r="FH18" s="16"/>
-      <c r="FI18" s="16"/>
-      <c r="FJ18" s="16"/>
-      <c r="FK18" s="16"/>
-      <c r="FL18" s="16"/>
-      <c r="FM18" s="16"/>
-      <c r="FN18" s="16"/>
-      <c r="FO18" s="16"/>
-      <c r="FP18" s="16"/>
-      <c r="FQ18" s="16"/>
-      <c r="FR18" s="16"/>
-      <c r="FS18" s="16"/>
-      <c r="FT18" s="16"/>
-      <c r="FU18" s="16"/>
-      <c r="FV18" s="16"/>
-      <c r="FW18" s="16"/>
-      <c r="FX18" s="16"/>
-      <c r="FY18" s="16"/>
-      <c r="FZ18" s="16"/>
-      <c r="GA18" s="16"/>
-      <c r="GB18" s="16"/>
-      <c r="GC18" s="16"/>
-      <c r="GD18" s="16"/>
-      <c r="GE18" s="16"/>
-      <c r="GF18" s="16"/>
-      <c r="GG18" s="16"/>
-      <c r="GH18" s="16"/>
-      <c r="GI18" s="16"/>
-      <c r="GJ18" s="16"/>
-      <c r="GK18" s="16"/>
-      <c r="GL18" s="16"/>
-      <c r="GM18" s="16"/>
-      <c r="GN18" s="16"/>
-      <c r="GO18" s="16"/>
-      <c r="GP18" s="16"/>
-      <c r="GQ18" s="16"/>
-      <c r="GR18" s="16"/>
-      <c r="GS18" s="16"/>
-      <c r="GT18" s="16"/>
-      <c r="GU18" s="16"/>
-      <c r="GV18" s="16"/>
-      <c r="GW18" s="16"/>
-      <c r="GX18" s="16"/>
-      <c r="GY18" s="16"/>
-      <c r="GZ18" s="16"/>
-      <c r="HA18" s="16"/>
-      <c r="HB18" s="16"/>
-      <c r="HC18" s="16"/>
-      <c r="HD18" s="16"/>
-      <c r="HE18" s="16"/>
-      <c r="HF18" s="16"/>
-      <c r="HG18" s="16"/>
-      <c r="HH18" s="16"/>
-      <c r="HI18" s="16"/>
-      <c r="HJ18" s="16"/>
-      <c r="HK18" s="16"/>
-      <c r="HL18" s="16"/>
-      <c r="HM18" s="16"/>
-      <c r="HN18" s="16"/>
-      <c r="HO18" s="16"/>
-      <c r="HP18" s="16"/>
-      <c r="HQ18" s="16"/>
-      <c r="HR18" s="16"/>
-      <c r="HS18" s="16"/>
-      <c r="HT18" s="16"/>
-      <c r="HU18" s="16"/>
-      <c r="HV18" s="16"/>
-      <c r="HW18" s="16"/>
-      <c r="HX18" s="16"/>
-      <c r="HY18" s="16"/>
-      <c r="HZ18" s="16"/>
-      <c r="IA18" s="16"/>
-      <c r="IB18" s="16"/>
-      <c r="IC18" s="16"/>
-      <c r="ID18" s="16"/>
-      <c r="IE18" s="16"/>
-      <c r="IF18" s="16"/>
-      <c r="IG18" s="16"/>
-      <c r="IH18" s="16"/>
-      <c r="II18" s="16"/>
-      <c r="IJ18" s="16"/>
-      <c r="IK18" s="16"/>
-      <c r="IL18" s="16"/>
-      <c r="IM18" s="16"/>
-      <c r="IN18" s="16"/>
-      <c r="IO18" s="16"/>
-      <c r="IP18" s="16"/>
-      <c r="IQ18" s="16"/>
-      <c r="IR18" s="16"/>
-      <c r="IS18" s="16"/>
-      <c r="IT18" s="16"/>
-      <c r="IU18" s="16"/>
-      <c r="IV18" s="16"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="11"/>
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="11"/>
+      <c r="BB18" s="11"/>
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="11"/>
+      <c r="BE18" s="11"/>
+      <c r="BF18" s="11"/>
+      <c r="BG18" s="11"/>
+      <c r="BH18" s="11"/>
+      <c r="BI18" s="11"/>
+      <c r="BJ18" s="11"/>
+      <c r="BK18" s="11"/>
+      <c r="BL18" s="11"/>
+      <c r="BM18" s="11"/>
+      <c r="BN18" s="11"/>
+      <c r="BO18" s="11"/>
+      <c r="BP18" s="11"/>
+      <c r="BQ18" s="11"/>
+      <c r="BR18" s="11"/>
+      <c r="BS18" s="11"/>
+      <c r="BT18" s="11"/>
+      <c r="BU18" s="11"/>
+      <c r="BV18" s="11"/>
+      <c r="BW18" s="11"/>
+      <c r="BX18" s="11"/>
+      <c r="BY18" s="11"/>
+      <c r="BZ18" s="11"/>
+      <c r="CA18" s="11"/>
+      <c r="CB18" s="11"/>
+      <c r="CC18" s="11"/>
+      <c r="CD18" s="11"/>
+      <c r="CE18" s="11"/>
+      <c r="CF18" s="11"/>
+      <c r="CG18" s="11"/>
+      <c r="CH18" s="11"/>
+      <c r="CI18" s="11"/>
+      <c r="CJ18" s="11"/>
+      <c r="CK18" s="11"/>
+      <c r="CL18" s="11"/>
+      <c r="CM18" s="11"/>
+      <c r="CN18" s="11"/>
+      <c r="CO18" s="11"/>
+      <c r="CP18" s="11"/>
+      <c r="CQ18" s="11"/>
+      <c r="CR18" s="11"/>
+      <c r="CS18" s="11"/>
+      <c r="CT18" s="11"/>
+      <c r="CU18" s="11"/>
+      <c r="CV18" s="11"/>
+      <c r="CW18" s="11"/>
+      <c r="CX18" s="11"/>
+      <c r="CY18" s="11"/>
+      <c r="CZ18" s="11"/>
+      <c r="DA18" s="11"/>
+      <c r="DB18" s="11"/>
+      <c r="DC18" s="11"/>
+      <c r="DD18" s="11"/>
+      <c r="DE18" s="11"/>
+      <c r="DF18" s="11"/>
+      <c r="DG18" s="11"/>
+      <c r="DH18" s="11"/>
+      <c r="DI18" s="11"/>
+      <c r="DJ18" s="11"/>
+      <c r="DK18" s="11"/>
+      <c r="DL18" s="11"/>
+      <c r="DM18" s="11"/>
+      <c r="DN18" s="11"/>
+      <c r="DO18" s="11"/>
+      <c r="DP18" s="11"/>
+      <c r="DQ18" s="11"/>
+      <c r="DR18" s="11"/>
+      <c r="DS18" s="11"/>
+      <c r="DT18" s="11"/>
+      <c r="DU18" s="11"/>
+      <c r="DV18" s="11"/>
+      <c r="DW18" s="11"/>
+      <c r="DX18" s="11"/>
+      <c r="DY18" s="11"/>
+      <c r="DZ18" s="11"/>
+      <c r="EA18" s="11"/>
+      <c r="EB18" s="11"/>
+      <c r="EC18" s="11"/>
+      <c r="ED18" s="11"/>
+      <c r="EE18" s="11"/>
+      <c r="EF18" s="11"/>
+      <c r="EG18" s="11"/>
+      <c r="EH18" s="11"/>
+      <c r="EI18" s="11"/>
+      <c r="EJ18" s="11"/>
+      <c r="EK18" s="11"/>
+      <c r="EL18" s="11"/>
+      <c r="EM18" s="11"/>
+      <c r="EN18" s="11"/>
+      <c r="EO18" s="11"/>
+      <c r="EP18" s="11"/>
+      <c r="EQ18" s="11"/>
+      <c r="ER18" s="11"/>
+      <c r="ES18" s="11"/>
+      <c r="ET18" s="11"/>
+      <c r="EU18" s="11"/>
+      <c r="EV18" s="11"/>
+      <c r="EW18" s="11"/>
+      <c r="EX18" s="11"/>
+      <c r="EY18" s="11"/>
+      <c r="EZ18" s="11"/>
+      <c r="FA18" s="11"/>
+      <c r="FB18" s="11"/>
+      <c r="FC18" s="11"/>
+      <c r="FD18" s="11"/>
+      <c r="FE18" s="11"/>
+      <c r="FF18" s="11"/>
+      <c r="FG18" s="11"/>
+      <c r="FH18" s="11"/>
+      <c r="FI18" s="11"/>
+      <c r="FJ18" s="11"/>
+      <c r="FK18" s="11"/>
+      <c r="FL18" s="11"/>
+      <c r="FM18" s="11"/>
+      <c r="FN18" s="11"/>
+      <c r="FO18" s="11"/>
+      <c r="FP18" s="11"/>
+      <c r="FQ18" s="11"/>
+      <c r="FR18" s="11"/>
+      <c r="FS18" s="11"/>
+      <c r="FT18" s="11"/>
+      <c r="FU18" s="11"/>
+      <c r="FV18" s="11"/>
+      <c r="FW18" s="11"/>
+      <c r="FX18" s="11"/>
+      <c r="FY18" s="11"/>
+      <c r="FZ18" s="11"/>
+      <c r="GA18" s="11"/>
+      <c r="GB18" s="11"/>
+      <c r="GC18" s="11"/>
+      <c r="GD18" s="11"/>
+      <c r="GE18" s="11"/>
+      <c r="GF18" s="11"/>
+      <c r="GG18" s="11"/>
+      <c r="GH18" s="11"/>
+      <c r="GI18" s="11"/>
+      <c r="GJ18" s="11"/>
+      <c r="GK18" s="11"/>
+      <c r="GL18" s="11"/>
+      <c r="GM18" s="11"/>
+      <c r="GN18" s="11"/>
+      <c r="GO18" s="11"/>
+      <c r="GP18" s="11"/>
+      <c r="GQ18" s="11"/>
+      <c r="GR18" s="11"/>
+      <c r="GS18" s="11"/>
+      <c r="GT18" s="11"/>
+      <c r="GU18" s="11"/>
+      <c r="GV18" s="11"/>
+      <c r="GW18" s="11"/>
+      <c r="GX18" s="11"/>
+      <c r="GY18" s="11"/>
+      <c r="GZ18" s="11"/>
+      <c r="HA18" s="11"/>
+      <c r="HB18" s="11"/>
+      <c r="HC18" s="11"/>
+      <c r="HD18" s="11"/>
+      <c r="HE18" s="11"/>
+      <c r="HF18" s="11"/>
+      <c r="HG18" s="11"/>
+      <c r="HH18" s="11"/>
+      <c r="HI18" s="11"/>
+      <c r="HJ18" s="11"/>
+      <c r="HK18" s="11"/>
+      <c r="HL18" s="11"/>
+      <c r="HM18" s="11"/>
+      <c r="HN18" s="11"/>
+      <c r="HO18" s="11"/>
+      <c r="HP18" s="11"/>
+      <c r="HQ18" s="11"/>
+      <c r="HR18" s="11"/>
+      <c r="HS18" s="11"/>
+      <c r="HT18" s="11"/>
+      <c r="HU18" s="11"/>
+      <c r="HV18" s="11"/>
+      <c r="HW18" s="11"/>
+      <c r="HX18" s="11"/>
+      <c r="HY18" s="11"/>
+      <c r="HZ18" s="11"/>
+      <c r="IA18" s="11"/>
+      <c r="IB18" s="11"/>
+      <c r="IC18" s="11"/>
+      <c r="ID18" s="11"/>
+      <c r="IE18" s="11"/>
+      <c r="IF18" s="11"/>
+      <c r="IG18" s="11"/>
+      <c r="IH18" s="11"/>
+      <c r="II18" s="11"/>
+      <c r="IJ18" s="11"/>
+      <c r="IK18" s="11"/>
+      <c r="IL18" s="11"/>
+      <c r="IM18" s="11"/>
+      <c r="IN18" s="11"/>
+      <c r="IO18" s="11"/>
+      <c r="IP18" s="11"/>
+      <c r="IQ18" s="11"/>
+      <c r="IR18" s="11"/>
+      <c r="IS18" s="11"/>
+      <c r="IT18" s="11"/>
+      <c r="IU18" s="11"/>
+      <c r="IV18" s="11"/>
     </row>
-    <row r="19" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:256" s="12" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="11"/>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="11"/>
+      <c r="BE19" s="11"/>
+      <c r="BF19" s="11"/>
+      <c r="BG19" s="11"/>
+      <c r="BH19" s="11"/>
+      <c r="BI19" s="11"/>
+      <c r="BJ19" s="11"/>
+      <c r="BK19" s="11"/>
+      <c r="BL19" s="11"/>
+      <c r="BM19" s="11"/>
+      <c r="BN19" s="11"/>
+      <c r="BO19" s="11"/>
+      <c r="BP19" s="11"/>
+      <c r="BQ19" s="11"/>
+      <c r="BR19" s="11"/>
+      <c r="BS19" s="11"/>
+      <c r="BT19" s="11"/>
+      <c r="BU19" s="11"/>
+      <c r="BV19" s="11"/>
+      <c r="BW19" s="11"/>
+      <c r="BX19" s="11"/>
+      <c r="BY19" s="11"/>
+      <c r="BZ19" s="11"/>
+      <c r="CA19" s="11"/>
+      <c r="CB19" s="11"/>
+      <c r="CC19" s="11"/>
+      <c r="CD19" s="11"/>
+      <c r="CE19" s="11"/>
+      <c r="CF19" s="11"/>
+      <c r="CG19" s="11"/>
+      <c r="CH19" s="11"/>
+      <c r="CI19" s="11"/>
+      <c r="CJ19" s="11"/>
+      <c r="CK19" s="11"/>
+      <c r="CL19" s="11"/>
+      <c r="CM19" s="11"/>
+      <c r="CN19" s="11"/>
+      <c r="CO19" s="11"/>
+      <c r="CP19" s="11"/>
+      <c r="CQ19" s="11"/>
+      <c r="CR19" s="11"/>
+      <c r="CS19" s="11"/>
+      <c r="CT19" s="11"/>
+      <c r="CU19" s="11"/>
+      <c r="CV19" s="11"/>
+      <c r="CW19" s="11"/>
+      <c r="CX19" s="11"/>
+      <c r="CY19" s="11"/>
+      <c r="CZ19" s="11"/>
+      <c r="DA19" s="11"/>
+      <c r="DB19" s="11"/>
+      <c r="DC19" s="11"/>
+      <c r="DD19" s="11"/>
+      <c r="DE19" s="11"/>
+      <c r="DF19" s="11"/>
+      <c r="DG19" s="11"/>
+      <c r="DH19" s="11"/>
+      <c r="DI19" s="11"/>
+      <c r="DJ19" s="11"/>
+      <c r="DK19" s="11"/>
+      <c r="DL19" s="11"/>
+      <c r="DM19" s="11"/>
+      <c r="DN19" s="11"/>
+      <c r="DO19" s="11"/>
+      <c r="DP19" s="11"/>
+      <c r="DQ19" s="11"/>
+      <c r="DR19" s="11"/>
+      <c r="DS19" s="11"/>
+      <c r="DT19" s="11"/>
+      <c r="DU19" s="11"/>
+      <c r="DV19" s="11"/>
+      <c r="DW19" s="11"/>
+      <c r="DX19" s="11"/>
+      <c r="DY19" s="11"/>
+      <c r="DZ19" s="11"/>
+      <c r="EA19" s="11"/>
+      <c r="EB19" s="11"/>
+      <c r="EC19" s="11"/>
+      <c r="ED19" s="11"/>
+      <c r="EE19" s="11"/>
+      <c r="EF19" s="11"/>
+      <c r="EG19" s="11"/>
+      <c r="EH19" s="11"/>
+      <c r="EI19" s="11"/>
+      <c r="EJ19" s="11"/>
+      <c r="EK19" s="11"/>
+      <c r="EL19" s="11"/>
+      <c r="EM19" s="11"/>
+      <c r="EN19" s="11"/>
+      <c r="EO19" s="11"/>
+      <c r="EP19" s="11"/>
+      <c r="EQ19" s="11"/>
+      <c r="ER19" s="11"/>
+      <c r="ES19" s="11"/>
+      <c r="ET19" s="11"/>
+      <c r="EU19" s="11"/>
+      <c r="EV19" s="11"/>
+      <c r="EW19" s="11"/>
+      <c r="EX19" s="11"/>
+      <c r="EY19" s="11"/>
+      <c r="EZ19" s="11"/>
+      <c r="FA19" s="11"/>
+      <c r="FB19" s="11"/>
+      <c r="FC19" s="11"/>
+      <c r="FD19" s="11"/>
+      <c r="FE19" s="11"/>
+      <c r="FF19" s="11"/>
+      <c r="FG19" s="11"/>
+      <c r="FH19" s="11"/>
+      <c r="FI19" s="11"/>
+      <c r="FJ19" s="11"/>
+      <c r="FK19" s="11"/>
+      <c r="FL19" s="11"/>
+      <c r="FM19" s="11"/>
+      <c r="FN19" s="11"/>
+      <c r="FO19" s="11"/>
+      <c r="FP19" s="11"/>
+      <c r="FQ19" s="11"/>
+      <c r="FR19" s="11"/>
+      <c r="FS19" s="11"/>
+      <c r="FT19" s="11"/>
+      <c r="FU19" s="11"/>
+      <c r="FV19" s="11"/>
+      <c r="FW19" s="11"/>
+      <c r="FX19" s="11"/>
+      <c r="FY19" s="11"/>
+      <c r="FZ19" s="11"/>
+      <c r="GA19" s="11"/>
+      <c r="GB19" s="11"/>
+      <c r="GC19" s="11"/>
+      <c r="GD19" s="11"/>
+      <c r="GE19" s="11"/>
+      <c r="GF19" s="11"/>
+      <c r="GG19" s="11"/>
+      <c r="GH19" s="11"/>
+      <c r="GI19" s="11"/>
+      <c r="GJ19" s="11"/>
+      <c r="GK19" s="11"/>
+      <c r="GL19" s="11"/>
+      <c r="GM19" s="11"/>
+      <c r="GN19" s="11"/>
+      <c r="GO19" s="11"/>
+      <c r="GP19" s="11"/>
+      <c r="GQ19" s="11"/>
+      <c r="GR19" s="11"/>
+      <c r="GS19" s="11"/>
+      <c r="GT19" s="11"/>
+      <c r="GU19" s="11"/>
+      <c r="GV19" s="11"/>
+      <c r="GW19" s="11"/>
+      <c r="GX19" s="11"/>
+      <c r="GY19" s="11"/>
+      <c r="GZ19" s="11"/>
+      <c r="HA19" s="11"/>
+      <c r="HB19" s="11"/>
+      <c r="HC19" s="11"/>
+      <c r="HD19" s="11"/>
+      <c r="HE19" s="11"/>
+      <c r="HF19" s="11"/>
+      <c r="HG19" s="11"/>
+      <c r="HH19" s="11"/>
+      <c r="HI19" s="11"/>
+      <c r="HJ19" s="11"/>
+      <c r="HK19" s="11"/>
+      <c r="HL19" s="11"/>
+      <c r="HM19" s="11"/>
+      <c r="HN19" s="11"/>
+      <c r="HO19" s="11"/>
+      <c r="HP19" s="11"/>
+      <c r="HQ19" s="11"/>
+      <c r="HR19" s="11"/>
+      <c r="HS19" s="11"/>
+      <c r="HT19" s="11"/>
+      <c r="HU19" s="11"/>
+      <c r="HV19" s="11"/>
+      <c r="HW19" s="11"/>
+      <c r="HX19" s="11"/>
+      <c r="HY19" s="11"/>
+      <c r="HZ19" s="11"/>
+      <c r="IA19" s="11"/>
+      <c r="IB19" s="11"/>
+      <c r="IC19" s="11"/>
+      <c r="ID19" s="11"/>
+      <c r="IE19" s="11"/>
+      <c r="IF19" s="11"/>
+      <c r="IG19" s="11"/>
+      <c r="IH19" s="11"/>
+      <c r="II19" s="11"/>
+      <c r="IJ19" s="11"/>
+      <c r="IK19" s="11"/>
+      <c r="IL19" s="11"/>
+      <c r="IM19" s="11"/>
+      <c r="IN19" s="11"/>
+      <c r="IO19" s="11"/>
+      <c r="IP19" s="11"/>
+      <c r="IQ19" s="11"/>
+      <c r="IR19" s="11"/>
+      <c r="IS19" s="11"/>
+      <c r="IT19" s="11"/>
+      <c r="IU19" s="11"/>
+      <c r="IV19" s="11"/>
     </row>
     <row r="20" spans="1:256" s="12" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -4576,28 +5540,275 @@
       <c r="IU20" s="11"/>
       <c r="IV20" s="11"/>
     </row>
-    <row r="21" spans="1:256" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:256" s="12" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="11"/>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="11"/>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="11"/>
+      <c r="BB21" s="11"/>
+      <c r="BC21" s="11"/>
+      <c r="BD21" s="11"/>
+      <c r="BE21" s="11"/>
+      <c r="BF21" s="11"/>
+      <c r="BG21" s="11"/>
+      <c r="BH21" s="11"/>
+      <c r="BI21" s="11"/>
+      <c r="BJ21" s="11"/>
+      <c r="BK21" s="11"/>
+      <c r="BL21" s="11"/>
+      <c r="BM21" s="11"/>
+      <c r="BN21" s="11"/>
+      <c r="BO21" s="11"/>
+      <c r="BP21" s="11"/>
+      <c r="BQ21" s="11"/>
+      <c r="BR21" s="11"/>
+      <c r="BS21" s="11"/>
+      <c r="BT21" s="11"/>
+      <c r="BU21" s="11"/>
+      <c r="BV21" s="11"/>
+      <c r="BW21" s="11"/>
+      <c r="BX21" s="11"/>
+      <c r="BY21" s="11"/>
+      <c r="BZ21" s="11"/>
+      <c r="CA21" s="11"/>
+      <c r="CB21" s="11"/>
+      <c r="CC21" s="11"/>
+      <c r="CD21" s="11"/>
+      <c r="CE21" s="11"/>
+      <c r="CF21" s="11"/>
+      <c r="CG21" s="11"/>
+      <c r="CH21" s="11"/>
+      <c r="CI21" s="11"/>
+      <c r="CJ21" s="11"/>
+      <c r="CK21" s="11"/>
+      <c r="CL21" s="11"/>
+      <c r="CM21" s="11"/>
+      <c r="CN21" s="11"/>
+      <c r="CO21" s="11"/>
+      <c r="CP21" s="11"/>
+      <c r="CQ21" s="11"/>
+      <c r="CR21" s="11"/>
+      <c r="CS21" s="11"/>
+      <c r="CT21" s="11"/>
+      <c r="CU21" s="11"/>
+      <c r="CV21" s="11"/>
+      <c r="CW21" s="11"/>
+      <c r="CX21" s="11"/>
+      <c r="CY21" s="11"/>
+      <c r="CZ21" s="11"/>
+      <c r="DA21" s="11"/>
+      <c r="DB21" s="11"/>
+      <c r="DC21" s="11"/>
+      <c r="DD21" s="11"/>
+      <c r="DE21" s="11"/>
+      <c r="DF21" s="11"/>
+      <c r="DG21" s="11"/>
+      <c r="DH21" s="11"/>
+      <c r="DI21" s="11"/>
+      <c r="DJ21" s="11"/>
+      <c r="DK21" s="11"/>
+      <c r="DL21" s="11"/>
+      <c r="DM21" s="11"/>
+      <c r="DN21" s="11"/>
+      <c r="DO21" s="11"/>
+      <c r="DP21" s="11"/>
+      <c r="DQ21" s="11"/>
+      <c r="DR21" s="11"/>
+      <c r="DS21" s="11"/>
+      <c r="DT21" s="11"/>
+      <c r="DU21" s="11"/>
+      <c r="DV21" s="11"/>
+      <c r="DW21" s="11"/>
+      <c r="DX21" s="11"/>
+      <c r="DY21" s="11"/>
+      <c r="DZ21" s="11"/>
+      <c r="EA21" s="11"/>
+      <c r="EB21" s="11"/>
+      <c r="EC21" s="11"/>
+      <c r="ED21" s="11"/>
+      <c r="EE21" s="11"/>
+      <c r="EF21" s="11"/>
+      <c r="EG21" s="11"/>
+      <c r="EH21" s="11"/>
+      <c r="EI21" s="11"/>
+      <c r="EJ21" s="11"/>
+      <c r="EK21" s="11"/>
+      <c r="EL21" s="11"/>
+      <c r="EM21" s="11"/>
+      <c r="EN21" s="11"/>
+      <c r="EO21" s="11"/>
+      <c r="EP21" s="11"/>
+      <c r="EQ21" s="11"/>
+      <c r="ER21" s="11"/>
+      <c r="ES21" s="11"/>
+      <c r="ET21" s="11"/>
+      <c r="EU21" s="11"/>
+      <c r="EV21" s="11"/>
+      <c r="EW21" s="11"/>
+      <c r="EX21" s="11"/>
+      <c r="EY21" s="11"/>
+      <c r="EZ21" s="11"/>
+      <c r="FA21" s="11"/>
+      <c r="FB21" s="11"/>
+      <c r="FC21" s="11"/>
+      <c r="FD21" s="11"/>
+      <c r="FE21" s="11"/>
+      <c r="FF21" s="11"/>
+      <c r="FG21" s="11"/>
+      <c r="FH21" s="11"/>
+      <c r="FI21" s="11"/>
+      <c r="FJ21" s="11"/>
+      <c r="FK21" s="11"/>
+      <c r="FL21" s="11"/>
+      <c r="FM21" s="11"/>
+      <c r="FN21" s="11"/>
+      <c r="FO21" s="11"/>
+      <c r="FP21" s="11"/>
+      <c r="FQ21" s="11"/>
+      <c r="FR21" s="11"/>
+      <c r="FS21" s="11"/>
+      <c r="FT21" s="11"/>
+      <c r="FU21" s="11"/>
+      <c r="FV21" s="11"/>
+      <c r="FW21" s="11"/>
+      <c r="FX21" s="11"/>
+      <c r="FY21" s="11"/>
+      <c r="FZ21" s="11"/>
+      <c r="GA21" s="11"/>
+      <c r="GB21" s="11"/>
+      <c r="GC21" s="11"/>
+      <c r="GD21" s="11"/>
+      <c r="GE21" s="11"/>
+      <c r="GF21" s="11"/>
+      <c r="GG21" s="11"/>
+      <c r="GH21" s="11"/>
+      <c r="GI21" s="11"/>
+      <c r="GJ21" s="11"/>
+      <c r="GK21" s="11"/>
+      <c r="GL21" s="11"/>
+      <c r="GM21" s="11"/>
+      <c r="GN21" s="11"/>
+      <c r="GO21" s="11"/>
+      <c r="GP21" s="11"/>
+      <c r="GQ21" s="11"/>
+      <c r="GR21" s="11"/>
+      <c r="GS21" s="11"/>
+      <c r="GT21" s="11"/>
+      <c r="GU21" s="11"/>
+      <c r="GV21" s="11"/>
+      <c r="GW21" s="11"/>
+      <c r="GX21" s="11"/>
+      <c r="GY21" s="11"/>
+      <c r="GZ21" s="11"/>
+      <c r="HA21" s="11"/>
+      <c r="HB21" s="11"/>
+      <c r="HC21" s="11"/>
+      <c r="HD21" s="11"/>
+      <c r="HE21" s="11"/>
+      <c r="HF21" s="11"/>
+      <c r="HG21" s="11"/>
+      <c r="HH21" s="11"/>
+      <c r="HI21" s="11"/>
+      <c r="HJ21" s="11"/>
+      <c r="HK21" s="11"/>
+      <c r="HL21" s="11"/>
+      <c r="HM21" s="11"/>
+      <c r="HN21" s="11"/>
+      <c r="HO21" s="11"/>
+      <c r="HP21" s="11"/>
+      <c r="HQ21" s="11"/>
+      <c r="HR21" s="11"/>
+      <c r="HS21" s="11"/>
+      <c r="HT21" s="11"/>
+      <c r="HU21" s="11"/>
+      <c r="HV21" s="11"/>
+      <c r="HW21" s="11"/>
+      <c r="HX21" s="11"/>
+      <c r="HY21" s="11"/>
+      <c r="HZ21" s="11"/>
+      <c r="IA21" s="11"/>
+      <c r="IB21" s="11"/>
+      <c r="IC21" s="11"/>
+      <c r="ID21" s="11"/>
+      <c r="IE21" s="11"/>
+      <c r="IF21" s="11"/>
+      <c r="IG21" s="11"/>
+      <c r="IH21" s="11"/>
+      <c r="II21" s="11"/>
+      <c r="IJ21" s="11"/>
+      <c r="IK21" s="11"/>
+      <c r="IL21" s="11"/>
+      <c r="IM21" s="11"/>
+      <c r="IN21" s="11"/>
+      <c r="IO21" s="11"/>
+      <c r="IP21" s="11"/>
+      <c r="IQ21" s="11"/>
+      <c r="IR21" s="11"/>
+      <c r="IS21" s="11"/>
+      <c r="IT21" s="11"/>
+      <c r="IU21" s="11"/>
+      <c r="IV21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
